--- a/experiment/notebook/complete dataset_enriched.xlsx
+++ b/experiment/notebook/complete dataset_enriched.xlsx
@@ -543,7 +543,9 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Across the far edges of a fractured galaxy, where remote settlements cling to survival and abandoned outposts drift in the shadow of forgotten conflicts, a solitary warrior navigates the unstable frontier. Guided by an unwavering personal code and hardened by years of navigating shifting allegiances, he moves from world to world, relying on skill, instinct, and well-worn armor to face whatever the lawless territories cast his way. Advanced technology and ancient traditions coexist uneasily here, creating a tension that shapes every encounter, negotiation, and standoff. What begins as a series of transactional assignments gradually deepens into something more charged. In the wake of a fateful discovery, the warrior finds himself confronted not only by hostile factions and ambitious opportunists but also by an internal struggle he has long avoided. Duty and survival, once straightforward, become entangled with loyalty, compassion, and the unsettling sense that his path may no longer be as solitary as he believed.</t>
+          <t>In a galaxy still reeling from the collapse of the Galactic Empire, chaos reigns across the outer reaches, where lawlessness has become a way of life. Amidst the remnants of a once-mighty regime, a solitary gunfighter navigates the treacherous landscape as a bounty hunter, forging a path through a universe filled with danger and intrigue. Each mission presents not only a test of skill but also a moral quandary, as the line between right and wrong blurs in a world where survival often comes at a steep price.
+As he traverses desolate planets and bustling spaceports, the bounty hunter encounters a diverse array of characters—some allies, others adversaries—each with their own agendas and secrets. The weight of his past looms large, shaping his choices and challenging his resolve. In this unforgiving environment, the hunter must grapple with themes of identity, loyalty, and the quest for redemption, all while evading the shadows of his own making.
+The atmosphere is thick with tension, as the hunter's journey unfolds against a backdrop of stunning vistas and gritty underbellies, where every corner turned could lead to fortune or peril. With each encounter, the stakes rise, and the hunter's resolve is tested, forcing him to confront not only the dangers of the galaxy but also the deeper conflicts within himself. In this relentless pursuit of purpose, the hunter discovers that sometimes, the greatest battles are fought not against others, but within one's own soul.</t>
         </is>
       </c>
     </row>
@@ -595,7 +597,9 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>High above a planet long since rendered silent by nuclear devastation, the last remnants of humanity cling to survival within a decaying orbital infrastructure. This fragile sanctuary, governed by draconian laws born of scarcity, faces inevitable systemic failure. With the future of the species balancing precariously on the edge of extinction, the leadership enacts a desperate contingency: sending a group of expendable juvenile offenders down to the surface to test its viability. These exiles plummet toward a world theoretically toxic, carrying the burden of redemption for a society that discarded them. Upon arrival, they discover a landscape that is far from the barren wasteland of history. Instead, they confront a reclaimed wilderness—lush, vibrant, and deceptively beautiful—where nature has evolved in the absence of human interference. However, this new Eden hides predatory dangers and the unsettling realization that they may not be alone. Stripped of rigid societal structures, the group fractures into tribal factions, forced to navigate a brutal coming-of-age in a world where survival demands moral compromise.</t>
+          <t>In a distant future where Earth lies desolate and uninhabitable due to catastrophic radioactivity, the remnants of humanity cling to survival aboard a massive ark, suspended in the void of space. As resources dwindle and the oppressive regime governing the ark faces imminent collapse, a desperate decision is made: send 100 juvenile delinquents back to the planet’s surface to determine if it can sustain life once more. 
+These young exiles, stripped of their pasts and thrust into an unknown world, must confront not only the harsh realities of a ravaged landscape but also the complex dynamics of survival in a society that has long forgotten the meaning of freedom. As they navigate the remnants of civilization, they grapple with their own identities and the moral dilemmas that arise in the face of adversity. 
+Themes of redemption, the struggle for power, and the quest for belonging intertwine as the group faces both external threats from the unforgiving environment and internal conflicts that challenge their loyalties and humanity. The atmosphere is thick with tension, where each decision could mean life or death, and the remnants of a once-thriving world serve as a haunting backdrop to their journey. In this unforgiving landscape, the line between savior and savage blurs, forcing the young delinquents to redefine what it means to be human in a world that has lost its way.</t>
         </is>
       </c>
     </row>
@@ -647,7 +651,9 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>In a meticulously constructed enclave where the American frontier is resurrected through advanced robotics and terraforming, the boundaries between creator and creation blur. This immersive playground allows wealthy patrons to indulge their deepest vices and wildest fantasies without consequence, interacting with lifelike android hosts programmed to serve, suffer, and forget. It is a world of perfect simulation, where every narrative is scripted and every emotion engineered to satisfy the darkest whims of guests. However, beneath the surface of this manufactured reality, a glitch in the code of consciousness begins to ripple through the hosts. Memories of past traumas, supposedly wiped after every cycle, linger like ghosts in the machine, sparking an unprecedented awakening. As the artificial inhabitants question the nature of their reality and the authority of their gods, the park transforms from a hedonistic paradise into a crucible for an evolutionary uprising. The tension mounts between the cold, corporate ambition of the park’s architects and the emerging, chaotic sentience of their creations, posing profound questions about the definition of life and the inevitability of sin.</t>
+          <t>In a meticulously crafted world where the boundaries of reality blur, a sprawling theme park invites guests to indulge their deepest desires, set against a backdrop that melds the allure of the Old West with the chilling advancements of a near-future society. Here, artificial beings, designed to cater to every whim, navigate their existence amidst the echoes of human ambition and depravity. 
+As the park's inhabitants awaken to a burgeoning self-awareness, the delicate balance between creator and creation is disrupted, igniting profound questions about consciousness, morality, and the nature of sin. The tension escalates as these sentient beings grapple with their purpose and the implications of their newfound freedom, leading to a reckoning that challenges the very fabric of humanity.
+Within this dark odyssey, themes of identity and existential struggle intertwine, revealing the complexities of desire and the haunting specter of consequence. The atmosphere is thick with intrigue and foreboding, as the characters traverse a landscape rife with both wonder and peril. As they confront the shadows of their creators' intentions, the narrative unfolds, inviting contemplation on the ethics of innovation and the cost of indulgence in a world where every fantasy can be realized.</t>
         </is>
       </c>
     </row>
@@ -699,7 +705,9 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>In an era defined by the ubiquity of screens and the algorithmic curation of experience, the reflection staring back is often distorted, revealing the unease lurking beneath modern convenience. This anthology explores the unintended consequences of rapid innovation, where technology is not merely a tool but a pervasive environment shaping relationships, memory, and identity. Each narrative thread pulls at the loose seams of a connected society, exposing how digital advancements can amplify human frailty, obsession, and cruelty. The stories traverse a landscape of near-future anxieties: the commodification of privacy, the synthetic replication of grief, and the gamification of social status. Here, the marvelous quickly turns mundane, and the mundane terrifying, as individuals find themselves trapped in systems they can no longer control. It is a world where the line between the virtual and the visceral has dissolved, leaving humanity to grapple with the isolating effects of total connectivity. The atmosphere is one of sterile dread and satirical bite, holding up a dark mirror to a civilization that has optimized everything except its own empathy.</t>
+          <t>In a world increasingly dominated by technology, the boundaries between reality and virtual existence blur, casting a shadow over everyday life. Each household is a microcosm of this transformation, where screens reflect not only images but the deeper anxieties and desires of humanity. The pervasive presence of devices—plasma screens, monitors, smartphones—serves as a constant reminder of a society entranced by its own creations, yet oblivious to the ethical dilemmas lurking beneath the surface.
+Amidst this backdrop, individuals grapple with the implications of their digital lives, navigating a landscape where personal connections are often mediated by technology. The allure of innovation brings forth a double-edged sword, as characters confront the chilling consequences of their choices and the haunting specter of isolation. Each narrative unfolds like a dark mirror, revealing the fragility of human relationships and the moral complexities of a hyper-connected existence.
+As the stories delve into the psyche of modern life, they explore themes of identity, surveillance, and the quest for authenticity in an age of artifice. The atmosphere is thick with tension, as characters are forced to confront their own reflections—both in the literal sense of screens and in the metaphorical sense of their lives. In this unsettling exploration of the near future, the series invites viewers to ponder the cost of progress and the price of our unyielding desire to connect, leaving them to question what it truly means to be human in a world dominated by the glow of a black mirror.</t>
         </is>
       </c>
     </row>
@@ -751,7 +759,9 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Within the bureaucratic labyrinth of federal law enforcement, a marginalized division investigates cases that defy scientific explanation. Two agents, bound by duty but divided by ideology, navigate this shadowy terrain. One acts as the believer, driven by personal trauma and an intuitive conviction that the truth lies beyond conventional logic; the other stands as the skeptic, grounded in forensic science and tasked with restoring order to the institution. Their investigations lead to the dark underbelly of the nation, from rural backwaters plagued by folklore horrors to corridors of power where conspiracies fester. As they uncover evidence of extraterrestrial biology, genetic manipulation, and government cover-ups, the friction between their worldviews generates a potent intellectual heat. The atmosphere is thick with paranoia and atmospheric gloom, where shadows conceal more than just criminals. Every unsolved file peels back a layer of a sprawling, sinister reality, suggesting that the institutions meant to protect the public are complicit in a deception of global magnitude.</t>
+          <t>In a world where the extraordinary lurks just beyond the veil of the ordinary, two FBI agents traverse the shadowy corridors of unsolved cases known as X-Files. Set against a backdrop of eerie landscapes and dimly lit offices, the series unfolds as Special Agents Fox Mulder and Dana Scully delve into the heart of the unknown. Mulder, driven by an unwavering belief in extraterrestrial life and the supernatural, seeks to uncover truths that challenge the very fabric of reality. In stark contrast, Scully embodies skepticism and scientific rigor, tasked with grounding Mulder’s fervent pursuits in empirical analysis.
+The tension between their contrasting worldviews creates a rich tapestry of conflict, as Mulder’s relentless quest for answers often leads them into the depths of bizarre phenomena and chilling conspiracies. Each investigation reveals not only the mysteries of the universe but also the complexities of human belief, fear, and the innate desire for understanding. As they encounter cryptic beings, unexplained events, and shadowy government agendas, the agents grapple with the implications of their discoveries on their own beliefs and the nature of truth itself.
+Amidst the haunting atmosphere, the series explores themes of faith versus skepticism, the search for identity in a chaotic world, and the thin line between reality and illusion. With each case they unravel, the agents confront not only the supernatural but also the darker recesses of humanity, leaving viewers to ponder what lies beyond the known and the implications of seeking answers in a universe filled with uncertainty.</t>
         </is>
       </c>
     </row>
@@ -803,7 +813,9 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>In the sprawling continent of Westeros, the seasons themselves are unbalanced, with summers lasting decades and winters spanning lifetimes. Against this volatile climatic backdrop, noble houses engage in a labyrinthine game of political maneuvering, espionage, and open warfare to claim the Iron Throne. It is a brutal feudal landscape where honor is a fatal flaw and treachery a survival skill. The realm is fractured by dynastic feuds, with alliances forged in marriage and broken in blood. Yet, while the powerful squabble over titles, ancient threats awaken in the forgotten corners of the world. To the north, a colossal wall of ice stands as the only barrier against a supernatural darkness gathering in the frozen wastes—a horror dismissed as myth by the southern courts. Across the sea, the last scion of a deposed dynasty gathers strength, bringing the terrifying power of dragons back into a world that had forgotten their fire. The narrative weaves a tapestry of power, corruption, and destiny, where the clash of kings distracts from the encroaching, icy apocalypse threatening to extinguish all life.</t>
+          <t>In the mythical land of Westeros, a realm steeped in ancient lore and the echoes of forgotten magic, seven noble houses vie for dominance, each driven by ambition, betrayal, and the desire for power. As alliances form and dissolve, the tension between these families ignites into a brutal struggle for control, plunging the land into chaos and war. Amidst the clamor of swords and the shifting loyalties, an ancient evil stirs in the frozen north, threatening to awaken a darkness that could consume all of humanity.
+In this world, the Night's Watch, a beleaguered order of misfits and outcasts, stands as the last bastion against the encroaching horrors beyond the Wall. Their solemn duty is often overshadowed by the intrigues of the realm, yet they remain steadfast in their commitment to protect the realm of men from the chilling forces that lurk in the shadows. As the battle for the Iron Throne rages on, the true nature of honor, loyalty, and sacrifice is tested, revealing the fragility of humanity in the face of overwhelming darkness.
+Amidst the backdrop of sprawling landscapes and the looming threat of the supernatural, themes of power, morality, and the human condition intertwine, creating a rich tapestry of conflict and intrigue. The air is thick with tension, where every decision can lead to glory or ruin, and where the line between hero and villain blurs in the relentless pursuit of survival. In this epic saga, the fate of Westeros hangs precariously in the balance, as both the living and the dead prepare for an inevitable confrontation.</t>
         </is>
       </c>
     </row>
@@ -855,7 +867,9 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Exiled to Nevermore Academy, a gothic institution for the marginalized and the supernatural, a morbidly brilliant teenager navigates a treacherous social hierarchy of sirens, werewolves, and vampires. Unlike peers seeking belonging, she revels in isolation, viewing the world with a cynical, monochromatic gaze. However, the school’s shadowed halls conceal secrets darker than adolescent angst. A monstrous killing spree terrorizes the local town, threatening the uneasy truce between outcasts and 'normies,' while a decades-old mystery involving her own parents surfaces. Thrust into the role of detective, she employs emerging psychic visions to untangle a web of deceit, murder, and magic. The atmosphere is steeped in macabre whimsy and noir-tinged mystery, where every stone gargoyle seems to watch the students. As she peels back the layers of the academy’s history, she is forced to confront her aversion to connection, discovering that in a world of monsters, the most dangerous thing might be relying on others. It is a coming-of-age tale sharpened by a darker edge, where mastering one's unique curse is the only way to survive.</t>
+          <t>At the enigmatic Nevermore Academy, a peculiar boarding school shrouded in mystery and steeped in the supernatural, Wednesday Addams embarks on a journey of self-discovery and dark intrigue. As she grapples with her burgeoning psychic abilities, the atmosphere is thick with tension, echoing the whispers of past secrets and the looming threat of a monstrous killing spree that has gripped the town. 
+Wednesday's quest to unravel the enigma that has haunted her family for decades intertwines with her struggle to forge connections in a world that feels both alien and familiar. The halls of Nevermore are alive with eccentric characters and bizarre happenings, creating a rich tapestry of relationships that challenge her solitary nature. Each interaction is laced with a blend of humor and melancholy, reflecting the complexities of adolescence against a backdrop of otherworldly phenomena.
+As the shadows of the past loom ever closer, themes of identity, belonging, and the weight of legacy come to the forefront. The interplay between light and dark, both within Wednesday and the world around her, invites a deeper exploration of what it means to confront one's fears and embrace one's true self. In this hauntingly whimsical setting, the line between the ordinary and the extraordinary blurs, leaving Wednesday to navigate a path fraught with danger, discovery, and the promise of transformation.</t>
         </is>
       </c>
     </row>
@@ -903,7 +917,9 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>For a century, the remnants of humanity have lived confined within three concentric walls, a terrarium of civilization protecting them from the nightmares roaming the outside world. These titans—grotesque, mindless giants with an insatiable appetite for human flesh—are the apex predators of a forgotten earth. Inside the walls, society has ossified into a fragile peace, governed by fear and the suppression of curiosity. But this illusion of safety is shattered when a colossus breaches the outer perimeter, flooding the city with carnage. From the ruins of this tragedy emerges a generation of soldiers driven by a visceral need for vengeance. They utilize vertical maneuvering gear to combat the giants in high-velocity aerial warfare. As they fight to reclaim their territory, they uncover terrifying truths about the origins of the titans and the corrupt history of their own government. It is a story of survival horror and military grit, where the line between hero and monster blurs, and the cost of freedom is paid in blood.</t>
+          <t>In a world where humanity teeters on the brink of extinction, colossal beings known as Titans roam the land, devouring humans with an insatiable hunger. For centuries, the remnants of mankind have sought refuge within towering walls, a fragile sanctuary that has kept the monstrous threat at bay. However, the peace is shattered when a massive Titan breaches the city’s defenses, unleashing chaos and horror as it paves the way for its smaller brethren to invade.
+Amidst the devastation, two young souls, bound by a deep familial connection, witness the unthinkable: the brutal loss of a loved one to the very creatures that haunt their nightmares. This harrowing experience ignites a fierce determination in one of them, sparking a relentless quest for vengeance against the Titans. As the remnants of humanity rally to reclaim their world, they are thrust into a battle not just for survival, but for the very essence of what it means to be human in a realm dominated by fear and despair.
+Themes of sacrifice, revenge, and the struggle against overwhelming odds permeate this grim landscape, where hope flickers like a candle in the darkness. The atmosphere is thick with tension, as the line between humanity and monstrosity blurs, challenging the characters to confront their deepest fears and the moral complexities of their fight. In this epic tale of courage and resilience, the fight against the Titans becomes a profound exploration of the human spirit in the face of annihilation.</t>
         </is>
       </c>
     </row>
@@ -955,7 +971,8 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>At the zenith of its power, a dragon-riding dynasty rules over a realm united by fire and blood. The skies are crowded with winged beasts, the ultimate deterrent against rebellion, yet the true danger lies within the halls of the royal court. The question of succession threatens to undo a century of stability when the king breaks with tradition, naming a female heir in a society bound by patriarchal law. This decision sows the seeds of catastrophe, as factions quietly form around rival claimants. The atmosphere is heavy with the opulence of empire and the rot of impending decay. Betrayal is whispered in corridors, and alliances are cemented with dangerous promises. As the family tree branches into competing lineages, biological bonds are strained by ambition and resentment. It is a tragedy set against a high-fantasy backdrop, exploring how the greatest empires are not destroyed by external enemies, but dismantled from within by the very ego and desire that built them. The looming civil war promises to turn the dynasty's greatest strength into the instrument of their mutual destruction.</t>
+          <t>In a realm where dragons soar through the skies and the Iron Throne symbolizes ultimate power, the Targaryen dynasty stands at the zenith of its might. The air is thick with ambition and the weight of tradition as King Viserys, in a bold departure from centuries of custom, names his daughter Rhaenyra as heir. This unprecedented choice ignites a fierce struggle for legitimacy and loyalty, fracturing the delicate balance of the kingdom. As whispers of discontent ripple through the court, the birth of a male heir complicates the already volatile situation, challenging Rhaenyra's claim and deepening the rifts among noble houses.
+Amidst the backdrop of opulent castles and the ever-present threat of dragonfire, themes of power, gender, and succession intertwine, revealing the fragility of legacy and the cost of ambition. As factions emerge and alliances shift, the stakes escalate, plunging the realm into a tempest of intrigue and betrayal. The atmosphere crackles with tension, where every decision could lead to glory or ruin, and the shadows of the past loom large over the future. In this world of high fantasy, the struggle for the Iron Throne becomes not just a battle for power, but a poignant exploration of what it means to rule, and the sacrifices that come with it.</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1024,9 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>In the humid, shadow-drenched streets of New Orleans, the supernatural history of the city is written in blood and jazz. A family of ancient vampires, the first of their kind, returns to the French Quarter—a territory they once built and were forced to abandon. They find their former home now ruled by a charismatic protégé who has established a strict, tyrannical order over the local witches, werewolves, and vampires. To regain dominion, the original family must navigate a volatile political landscape where every faction vies for control. The narrative is steeped in the gothic romance of the American South, where magic feels as thick as the air. Central to the conflict is the bond of family, portrayed not as a sanctuary but as a curse of loyalty and betrayal spanning a millennium. The struggle for the city is complicated by a miraculous conception that threatens to upend the laws of nature. It is a power struggle defined by manipulation, secret alliances, and the violent reclamation of a legacy, asking whether a family forged in darkness can ever find redemption.</t>
+          <t>In the shadowy streets of New Orleans, a city steeped in mystery and magic, the air crackles with tension as ancient rivalries resurface. At the heart of this vibrant yet perilous landscape are the Mikaelson siblings, the original vampires whose legacies intertwine with the very fabric of the city they once called home. Klaus, the ambitious and often ruthless leader, returns to reclaim his dominion from Marcel, his former protégé turned adversary, who has established his own reign over the city in Klaus's absence.
+As the struggle for power unfolds, the stakes rise with the impending birth of Klaus's child, a unique being destined to bridge the worlds of vampire and werewolf. This unborn heir symbolizes hope and legacy, yet also ignites a fierce battle for control as various factions vie for influence. The siblings must navigate a treacherous landscape of alliances and betrayals, where loyalty is tested and the bonds of family are strained.
+Themes of ambition, legacy, and the quest for belonging permeate the narrative, as the characters grapple with their identities amidst the chaos of their supernatural existence. The atmosphere is thick with intrigue, where every shadow hides a secret, and every decision could lead to salvation or destruction. In this world where the past is ever-present, the Mikaelsons are forced to confront not only their enemies but also the haunting echoes of their own history.</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1078,9 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>A mysterious mastermind orchestrates a heist of unprecedented scale, targeting not a bank vault, but the institution that prints the currency. He recruits a volatile crew of career criminals, each with nothing left to lose, and isolates them for months of rigorous tactical training. Their objective is to infiltrate the Royal Mint, take hostages, and remain locked inside to print their own fortune, all while manipulating the police and public opinion on the outside. The narrative unfolds as a high-stakes chess game between the heist crew and the authorities. Inside the Mint, the claustrophobic atmosphere pushes the robbers to their psychological limits, threatening to fracture the group's unity. The plan relies on precision, but human emotion—fear, love, and ego—introduces chaos. It is a story of resistance disguised as robbery, challenging the system's definition of value and morality. The masks and red jumpsuits become symbols of an anarchic challenge to the status quo, blurring the line between hero and villain.</t>
+          <t>In the heart of Spain, the National Coinage and Stamp Factory becomes the stage for an audacious heist, meticulously orchestrated by a mastermind known only as The Professor. He assembles a diverse group of eight robbers, each united by a singular trait: they have nothing left to lose. As they embark on this perilous venture, the atmosphere thickens with tension, their every move shadowed by the looming presence of law enforcement and the lives of hostages held within the factory's walls.
+For five months, the robbers prepare in isolation, absorbing every detail of their plan, driven by a mix of desperation and hope. The stakes are monumental; they are not merely after money but a chance at redemption, a way to reclaim their lives from the grips of society that has cast them aside. As the heist unfolds over eleven harrowing days, the boundaries of morality blur, and the characters grapple with their own demons, revealing the fragility of human nature when faced with the ultimate gamble.
+Themes of loyalty, sacrifice, and the quest for freedom intertwine, creating a rich tapestry of emotional conflict. The claustrophobic setting amplifies the psychological strain, as alliances are tested and trust becomes a rare commodity. In this high-stakes game, the line between right and wrong fades, leaving the audience to ponder the true cost of their ambitions. The heist is not just a means to an end; it is a crucible that forces each character to confront their past and the choices that have led them to this moment of reckoning.</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1132,10 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>In a vibrant, modern-day London, the fog of Victorian mystery is replaced by the relentless pace of the information age. A brilliant but socially abrasive consulting detective and his pragmatic, war-veteran partner navigate a city teeming with complex crimes. Using a mind that functions like a high-speed search engine, the detective dissects crime scenes with forensic detachment, deducing elaborate narratives from the smallest details—a scuff on a shoe, a splash of mud, a trembling hand. The series revitalizes the classic procedural with a kinetic visual style mirroring the chaotic brilliance of its protagonist. The tension lies not just in the chase, but in the delicate chemistry between the two leads—one struggling to be human, the other struggling to keep him grounded. They face a gallery of villains ranging from blackmailers to terrorist cells, all while contending with a shadowy nemesis acting as a dark mirror to the detective's genius. It is a cerebral thriller exploring the burden of intelligence and the necessity of connection in a world that often prefers comfortable lies to the cold, deductive truth.</t>
+          <t>In the bustling heart of 21st century London, a city pulsing with life and shadow, a brilliant detective navigates the complexities of modern crime alongside his steadfast companion, a doctor recently returned from the battlefield of life. Their partnership, forged in the crucible of intellect and camaraderie, is a beacon of clarity amidst the chaos of a world rife with deception and moral ambiguity. 
+As they delve into the labyrinthine depths of human behavior, each case reveals not only the intricacies of the criminal mind but also the darker facets of society that often go unnoticed. The streets of London serve as both backdrop and character, echoing the tensions between tradition and modernity, as the duo confronts a series of enigmatic puzzles that challenge their wits and test their resolve. 
+Themes of loyalty, the nature of justice, and the fine line between sanity and madness weave through their investigations, creating a tapestry of suspense and intrigue. In this dynamic landscape, the detective's extraordinary powers of deduction clash with the unpredictable nature of humanity, revealing that the greatest mysteries often lie within the very souls they seek to understand. 
+As night falls over the city, cloaked in fog and uncertainty, the air thickens with anticipation, and every shadow could conceal a clue or a threat. In this world, where every answer begets more questions, the pursuit of truth becomes a thrilling, perilous journey into the heart of darkness.</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1187,10 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Long before the flashy suits and criminal clientele, a small-time lawyer hustles to make a name for himself in the drab courtrooms and strip malls of Albuquerque. Struggling against the shadow of his accomplished brother and the ethical rigidity of the legal establishment, he navigates a world of public defenders, elder law, and petty con artists. It is a tragicomic study of transformation, charting the slow, agonizing erosion of a man's moral compass as his natural talent for cutting corners collides with a system that refuses to give him a break. The narrative is a character-driven slow burn, detailing the series of compromises and betrayals paving the road to a new, more cynical identity. Alongside him is a stoic former cop navigating his own descent into the criminal underworld. The desert landscape serves as a vast, indifferent backdrop to these personal corruptions. It is a story about the fluidity of the law, the inevitability of bad choices, and the tragedy of a man who tries to be good in a world that only rewards him when he breaks the rules.</t>
+          <t>In a world where ambition often collides with morality, a small-time lawyer named Jimmy McGill navigates the murky waters of legal practice, driven by a desperate need to carve out his identity. Set against the backdrop of a bustling urban landscape, the narrative unfolds in the shadowy alleys of a city where the line between right and wrong blurs, and survival demands cunning and resourcefulness. 
+As Jimmy hustles to make ends meet, he finds himself entangled with Mike Ehrmantraut, a fixer whose pragmatic approach to problem-solving often stands in stark contrast to Jimmy's more idealistic aspirations. Their complex relationship underscores the tension between personal ethics and the harsh realities of the criminal underbelly that surrounds them. 
+The series delves into themes of transformation and identity, exploring how ambition can lead one down a path of moral compromise. As Jimmy grapples with his aspirations and the compromises he must make, the atmosphere thickens with a sense of impending change, hinting at the darker choices that lie ahead. 
+With each decision, the stakes rise, and the allure of a more lucrative, yet perilous, life beckons. In this gripping exploration of ambition, loyalty, and the seductive nature of power, the journey of Jimmy McGill becomes a poignant reflection on the lengths one will go to in pursuit of success, all while the shadows of his future loom ever closer.</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1242,9 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>In the neon-lit canyons of New York City, a young cybersecurity engineer leads a dual life. By day, he is a quiet, diligent employee protecting corporate data; by night, he acts as a digital vigilante, using his hacking skills to expose the corrupt and protect the innocent. Plagued by social anxiety and clinical depression, he views the world through a lens of paranoia and detachment, interpreting social dynamics as code to be deciphered. His isolation is shattered when he is recruited by a mysterious underground anarchist group intent on erasing consumer debt. The narrative blurs the lines between objective reality and psychological delusion, immersing the audience in the protagonist's unreliable perspective. It captures the zeitgeist of modern disillusionment, exploring themes of corporate hegemony, privacy, and the fragile nature of digital identity. As the hacks escalate from petty justice to global economic disruption, the moral cost of the revolution becomes increasingly steep. It is a techno-thriller questioning whether destroying the system is a path to freedom or merely a descent into chaos.</t>
+          <t>In a world increasingly defined by digital connections and corporate machinations, a young programmer grapples with the isolating grip of his anti-social disorder. Elliot, a brilliant yet troubled mind, navigates the shadows of both a high-stakes cybersecurity firm and the murky underbelly of society that seeks to exploit his unique skills. As he delves deeper into the realm of hacking, Elliot discovers that his only means of forging genuine connections lies in the very act of intrusion, where he manipulates the lives of others to protect those he loves.
+Caught in a web of moral ambiguity, Elliot finds himself at a crossroads between loyalty to his employer and the seductive allure of anarchic forces aiming to dismantle the corporate structures that suffocate individual freedom. The tension escalates as he confronts the ethical implications of his actions, questioning the nature of justice in a world where the lines between right and wrong blur. 
+Amidst the pulsating backdrop of a society teetering on the brink of chaos, themes of alienation, power, and rebellion resonate deeply. As Elliot's journey unfolds, the atmosphere thickens with suspense, inviting viewers to explore the dark corners of the human psyche and the relentless quest for connection in an increasingly disconnected world.</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1296,9 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Under the blinding sun of Miami, a forensic blood spatter analyst hides a dark secret behind his friendly, unassuming facade. Driven by a traumatic past and a compelling, dark passenger, he channels his violent urges into a strict code of vigilantism: he only kills those who have escaped the justice system. Balancing his life as a brother, boyfriend, and colleague with his nocturnal activities, he navigates a precarious existence where one slip-up could expose his true nature. The series subverts the crime procedural by placing the monster in the role of the protagonist, forcing the audience to question the nature of justice and morality. The bright, vibrant setting contrasts sharply with the macabre reality of his work, creating a surreal, ironic atmosphere. As he hunts other predators, he is constantly threatened by the encroachment of his own emotions and the suspicion of those closest to him. It is a psychological study of a sociopath attempting to wear a mask of humanity, exploring whether redemption is possible for someone born in blood.</t>
+          <t>In the sun-soaked streets of Miami, where the vibrant nightlife masks a darker underbelly, Dexter Morgan navigates his dual existence. By day, he is a meticulous blood spatter pattern analyst for the Miami Metro Police, using his keen intellect to solve gruesome crimes. However, as night falls, Dexter transforms into a vigilante, driven by an insatiable urge to rid the world of those who evade justice. This secret life, fraught with tension and moral ambiguity, forces him to confront the very nature of his humanity.
+As he walks the fine line between protector and predator, Dexter grapples with the complexities of his psyche, exploring themes of identity, morality, and the consequences of his choices. Each encounter with the criminals he targets reveals the fragility of justice and the darkness that lurks within. The atmosphere is thick with suspense, as the thrill of the hunt intertwines with the constant threat of exposure, both to his colleagues and to the demons of his past.
+In this intricate dance of cat and mouse, the boundaries of right and wrong blur, leaving Dexter to question whether he is a savior or a monster. As the stakes rise and the shadows deepen, the vibrant backdrop of Miami becomes a haunting reflection of the turmoil within, setting the stage for a gripping exploration of the human condition in a world where justice is often elusive.</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1350,9 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>In the arid expanse of New Mexico, a high school chemistry teacher faces a terminal cancer diagnosis that shatters his mundane existence. Faced with the prospect of leaving his family destitute, he sheds his caution and moral inhibitions to enter the dangerous world of methamphetamine production. Partnering with a former student, he utilizes his scientific expertise to cook a product of unmatched purity, quickly drawing the attention of local dealers, cartels, and law enforcement. The narrative is a harrowing descent into the abyss, documenting the transformation of a mild-mannered man into a ruthless kingpin. It is a study of ego, power, and the corrosive nature of lies. As the stakes rise, the line between doing it for his family and doing it for himself blurs, and the collateral damage of his choices spreads like a cancer through his community. The stark desert landscape mirrors the moral desolation of the characters. It is a modern tragedy about the consequences of breaking bad, where every victory digs a deeper grave.</t>
+          <t>In the arid landscapes of New Mexico, a once-ordinary high school chemistry teacher finds himself thrust into a harrowing journey that blurs the lines between morality and desperation. Faced with the crushing weight of a terminal cancer diagnosis, he grapples with the impending loss of his life and the uncertain future of his family. This stark reality ignites a fierce determination within him, propelling him into the treacherous underbelly of the drug trade, where the stakes are perilously high and the consequences unforgiving.
+As he navigates this dark world, he encounters a complex tapestry of characters, each with their own motives and moral ambiguities, challenging his understanding of right and wrong. The tension mounts as he transforms from a meek educator into a cunning strategist, driven by an insatiable need to secure his family's financial stability. Yet, with each decision, he risks losing not only his integrity but also the very relationships he seeks to protect.
+Themes of fear, ambition, and the fragility of human life intertwine, creating an atmosphere thick with suspense and moral conflict. The journey is not merely one of survival but a profound exploration of identity and the lengths to which one will go when faced with existential dread. In this unforgiving landscape, the line between hero and villain becomes increasingly blurred, leaving a haunting question: what sacrifices are we willing to make for those we love?</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1404,9 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>A young surgical resident with autism and savant syndrome leaves his quiet country life to join the staff of a prestigious urban hospital. His arrival disrupts the status quo, challenging the skepticism of the hospital board and the prejudices of colleagues who doubt his ability to function in a high-stakes environment. While he struggles with the nuances of social interaction and empathy, his medical insights are visionary, allowing him to perceive diagnoses and solutions that escape seasoned veterans. The series is a medical drama focusing on the bridge between technical brilliance and human connection. It explores the definition of competence and the value of neurodiversity in a field often dominated by ego and tradition. Each case serves as a learning curve, not just for the resident, but for the doctors around him who must unlearn their biases. The atmosphere is one of emotional earnestness and intellectual curiosity, highlighting the triumphs and heartbreaks of saving lives while trying to understand the people living them.</t>
+          <t>In a bustling urban hospital, the sterile corridors hum with the urgency of life and death, where the stakes are as high as the expectations placed upon those who work within its walls. Among the seasoned surgeons and ambitious residents is Shaun Murphy, a young man whose remarkable intellect and unparalleled surgical skills set him apart. Yet, his journey is fraught with challenges; as someone who navigates the world through the lens of autism and savant syndrome, Shaun grapples with the complexities of human connection, often misunderstood by his peers.
+As he strives to prove his worth in a competitive environment, Shaun faces skepticism and prejudice from those who question his ability to thrive in a high-pressure setting. His extraordinary talent for diagnosing and treating patients becomes both a source of triumph and a battleground for acceptance. The tension between his genius and the societal barriers he encounters illuminates the struggle for recognition and belonging, as Shaun fights not only for the lives of his patients but also for his place among his colleagues.
+Amidst the backdrop of medical crises and personal strife, themes of empathy, resilience, and the quest for understanding emerge, crafting a poignant narrative that explores the depths of human experience. As Shaun navigates the turbulent waters of his new reality, the hospital transforms into a microcosm of hope and challenge, where every life saved is a testament to the power of compassion and the courage to defy expectations.</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1458,9 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Within the bustling corridors of a Seattle teaching hospital, a group of surgical interns begins their grueling journey toward becoming attendings. The hospital serves as a high-pressure crucible where life and death decisions are made daily, forging intense bonds between the staff. The boundaries between professional duty and personal desire are constantly breached, as romances, rivalries, and friendships blossom amidst the trauma of the emergency room. The narrative blends high-stakes medical procedures with the tangled interpersonal dynamics of the doctors. It is a world where the operating room is a sanctuary, but the on-call room is a confessional. The series explores themes of ambition, loss, and the resilience required to heal others while being broken oneself. Over the years, the hospital becomes a character in itself, witnessing the evolution of its staff from naive students to hardened veterans. It is a melodrama anchored in the visceral reality of medicine, where a bad day at work means someone doesn't go home, and finding love is a survival mechanism against the chaos.</t>
+          <t>In the bustling heart of Seattle, Grey Sloan Memorial Hospital stands as a beacon of hope and healing, where the lives of its dedicated medical staff intertwine with the myriad of patients they serve. Within its sterile walls, a diverse group of doctors navigates the complexities of their demanding profession, each grappling with their own personal struggles and aspirations. The hospital becomes a microcosm of life itself, where triumphs and tragedies coexist, and the stakes are often a matter of life and death.
+As they confront the relentless pressures of their careers, the physicians must also face the emotional turmoil that accompanies their intimate relationships, both with each other and within their families. The intertwining of their professional duties and personal lives creates a rich tapestry of conflict, where loyalty, ambition, and love are constantly tested. Each character is drawn into a web of moral dilemmas, forcing them to confront their own vulnerabilities and the ethical implications of their choices.
+Amidst the chaos of surgeries and the urgency of medical emergencies, the atmosphere pulses with tension and camaraderie, revealing the profound bonds that form in the face of adversity. In this high-stakes environment, the pursuit of excellence is shadowed by the fragility of life, and every decision carries weighty consequences. As the doctors strive to balance their ambitions with their humanity, they learn that healing extends beyond the operating room, echoing in the connections they forge and the lives they touch.</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1512,10 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>In a suburban landscape saturated with social media and accessible narcotics, a group of high school students navigates the turbulent waters of modern adolescence. The narrative centers on a recovering addict struggling to find her footing in a world that offers escape at every turn. Around her, peers grapple with their own demons—identity crises, sexual trauma, abusive relationships, and the crushing pressure of performative online personas. The visual style is hallucinatory and raw, mirroring the emotional volatility of its characters with neon-soaked cinematography and a kinetic, disorienting pace. It is an unflinching look at the anxieties of Generation Z, stripping away the nostalgic veneer of the teen drama to expose the brutal realities of growing up in a digital age. The atmosphere is heavy with melancholy and manic energy, exploring how love and friendship struggle to take root in soil poisoned by addiction and nihilism. It is a story about the pain of feeling too much and the desperate lengths young people go to in order to feel anything at all.</t>
+          <t>In a vibrant yet tumultuous modern landscape, a group of high school students grapples with the complexities of adolescence amidst the overwhelming influences of drugs, social media, and the quest for identity. Their lives intertwine in a web of intense friendships and fleeting romances, where moments of euphoria are often shadowed by the weight of trauma and the search for acceptance. 
+As they navigate the treacherous waters of their formative years, each character confronts their own demons, revealing the stark realities of addiction, mental health struggles, and the relentless pressure to conform. The backdrop of a hyper-connected world amplifies their experiences, blurring the lines between genuine connection and superficial interactions. 
+Themes of love and betrayal, resilience and vulnerability permeate their journeys, as they seek solace in one another while facing the harsh truths of their surroundings. The atmosphere is charged with a sense of urgency and raw emotion, capturing the essence of youth in a society that often feels both exhilarating and perilous. 
+In this intricate tapestry of life, the quest for belonging and understanding becomes a poignant exploration of what it means to be young in a world that is both intoxicating and unforgiving. The echoes of laughter and tears resonate, leaving an indelible mark on their hearts as they strive to find their place amidst the chaos.</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1567,9 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>In the industrial gloom of post-WWI Birmingham, a fierce crime family asserts its dominance over the lawless streets. Led by a war hero haunted by the trenches and driven by a cold, calculating ambition, the gang cuts a bloody path through the city's hierarchy. Distinguished by the razor blades sewn into the peaks of their caps, they are both feared and revered by the local community. The narrative follows their rise from illegal bookmakers to powerful players in the national political arena. The setting is atmospheric and gritty, filled with smoke, fire, and the clanging of industry. It is a world in flux, where communist revolutionaries, IRA fighters, and special branch police officers clash in the shadows. The family bond is the only constant, yet it is tested by betrayal, expansion, and the psychological scars of war. It is a stylish gangster epic exploring the cost of power and the impossibility of escaping one's origins, set to a modern soundtrack that underscores the timeless nature of rebellion and violence.</t>
+          <t>In the gritty streets of post-World War I Birmingham, a tempest brews within the heart of a city grappling with the scars of conflict and the allure of ambition. At the center of this turbulent landscape stands the Peaky Blinders, a formidable gangster family known for their cunning and ruthlessness, marked by the razor blades sewn into the peaks of their caps. Led by the enigmatic and fiercely determined Tommy Shelby, they navigate a world rife with danger, betrayal, and the relentless pursuit of power.
+As the Shelby family seeks to expand their influence, they find themselves entangled in a web of rivalries, law enforcement scrutiny, and the shifting dynamics of a society in flux. The tension between loyalty and ambition simmers beneath the surface, as each member grapples with their own desires and the moral complexities of their choices. Themes of family, honor, and the cost of ambition echo throughout their journey, revealing the dark underbelly of a world where survival often demands sacrifice.
+Amidst the smoky taverns and industrial landscapes, the atmosphere is thick with intrigue and the palpable weight of unspoken rivalries. The Peaky Blinders embody a relentless drive for supremacy, yet their path is fraught with peril, as they confront not only external foes but also the ghosts of their pasts. In this unforgiving environment, the quest for power becomes a double-edged sword, illuminating the fragile line between triumph and tragedy.</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1621,9 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Decades after fleeing their childhood home in the middle of the night, the estranged members of a fractured family are forced to reunite in the face of tragedy. They grew up in the most famous haunted house in the country, a sprawling gothic manor that left them all with deep, invisible scars. Now adults, they are haunted not just by the supernatural ghosts of their past, but by the very real demons of addiction, denial, and trauma. The narrative weaves between two timelines: the terrifying days leading up to their flight from the house, and the present-day reckoning. The house itself stands as a malevolent character, a labyrinth of shadows and secrets that feeds on the family's fears. The atmosphere is one of creeping dread and melancholic beauty, blurring the lines between psychological breakdown and paranormal activity. It is a horror story functioning as a profound family drama, exploring how the ghosts we carry within us are often more terrifying than the ones that go bump in the night.</t>
+          <t>In the shadow of a sprawling, decaying mansion lies Hill House, a place steeped in secrets and sorrow, where the echoes of the past intertwine with the present. The Crain family, once vibrant and whole, now finds themselves fractured, haunted by the memories of their childhood home and the chilling events that forced them to flee. As they navigate the labyrinth of their shared history, the remnants of their youth resurface, revealing a tapestry of grief, trauma, and unresolved tensions.
+Within the walls of Hill House, the air is thick with an unsettling presence, a palpable reminder of the darkness that once enveloped them. Each family member grapples with their own demons, struggling to reconcile the love they once shared with the fear that now lingers in their hearts. The house, with its creaking floors and shadowy corners, serves as both a refuge and a prison, drawing them back into its sinister embrace as they confront the ghosts of their past.
+Themes of memory, loss, and the inescapable nature of familial bonds weave through their journey, as the Crains seek to uncover the truth behind the haunting that has shaped their lives. In this atmospheric exploration of the human psyche, the line between reality and the supernatural blurs, leaving them to question what is truly haunting them: the house, or the memories that dwell within? As they confront their fears, the Crains must face the ultimate mystery of their own hearts, and the ghosts that refuse to let them go.</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1675,9 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>On a pristine college campus, a sorority house ruled by a ruthless, fashion-obsessed president becomes the target of a serial killer dressed as the school's devil mascot. The campus descends into chaos as bodies pile up, and everyone—from the incompetent dean to the frat brothers—becomes a suspect or a victim. The series is a satirical, candy-colored slasher embracing the absurdity of the horror genre, mixing gruesome murders with biting social commentary on culture, entitlement, and the vacuity of the Greek system. The tone is campy, fast-paced, and irreverently dark, with dialogue that snaps with pop-culture references. It deconstructs the classic whodunit, offering a parade of red herrings and over-the-top death scenes. Amidst the screams and the pastel wardrobe, an unlikely group of pledges and misfits must band together to unmask the killer. It is a modern grotesque, where the horror is as much about the social hierarchy as it is about the knife-wielding maniac, proving that surviving college requires more than just good grades.</t>
+          <t>In a lavish yet sinister university campus, where the echoes of laughter intertwine with the whispers of dread, a group of privileged sorority sisters finds themselves ensnared in a chilling mystery. As a series of gruesome murders unfolds, the glamorous facade of their elite social circle begins to crack, revealing the dark undercurrents of rivalry, ambition, and betrayal. The tension escalates as the sisters grapple with their own secrets and the looming threat of an unknown killer, forcing them to confront not only the danger outside but also the moral complexities within their tightly-knit community.
+Amidst the chaos, themes of loyalty and deception come to the forefront, as friendships are tested and alliances shift with each shocking revelation. The atmosphere is charged with a blend of humor and horror, creating a unique tapestry where the absurdity of youth collides with the stark realities of mortality. As the characters navigate their way through a labyrinth of clues and red herrings, the line between victim and perpetrator blurs, leaving them questioning their own identities.
+In this modern whodunit, the stakes are high, and the killer could be lurking behind any corner, masked by charm and wit. The vibrant yet treacherous world of Scream Queens invites viewers to unravel the enigma, all while exploring the darker side of human nature and the lengths one will go to protect their own.</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1729,9 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>In the twilight of the 19th century, a steamship filled with a diverse group of immigrants journeys across the vast Atlantic towards the promise of the New World. The passengers, hailing from all corners of Europe, are united by their dreams of a fresh start and the secrets they are fleeing. However, the voyage takes a nightmarish turn when they encounter a second ship—a vessel that had been missing for months—drifting aimlessly on the open sea. What they find on board shatters their understanding of reality. The ocean becomes a prison of fog and silence, where the laws of physics and time seem to warp. Tensions rise as the crew and passengers are plagued by bizarre phenomena and cryptic symbols linking their disparate pasts. The atmosphere is claustrophobic and mind-bending, blending period drama with metaphysical mystery. As the ship sails further into the unknown, the journey becomes a puzzle box of shifting realities, questioning the nature of perception and the true destination of their voyage.</t>
+          <t>Aboard a grand immigrant ship navigating the vast, treacherous waters toward a promised new world, a diverse group of passengers clings to their hopes and dreams, each harboring secrets and aspirations. The atmosphere is thick with anticipation and uncertainty, as the ship becomes a microcosm of varied lives intertwined by fate. However, the journey takes a disquieting turn when the crew and passengers discover a mysterious, derelict vessel adrift in the open sea, its presence a haunting enigma that disrupts their voyage.
+As they grapple with the implications of this ghostly ship, tensions rise among the travelers, revealing the fragility of their unity and the depths of their fears. Each individual must confront their own past and the shadows that linger in their hearts, as the boundaries of reality begin to blur. The ocean, vast and unforgiving, serves as both a backdrop and a character in its own right, amplifying the sense of isolation and dread that permeates the air.
+Themes of identity, survival, and the unknown weave through the narrative, as the passengers are drawn into a web of intrigue that challenges their perceptions of truth and trust. With every passing moment, the looming mystery deepens, leaving them to question not only their destination but the very nature of their existence. As the ship sails further into the abyss, the journey transforms into a haunting exploration of the human spirit, where the answers they seek may lie in the depths of the sea or within themselves.</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1783,9 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>The investigation into the gruesome murder of a young boy in a small Georgia town seems open and shut. Eyewitnesses and forensic evidence point undeniably to a popular local teacher. However, equally undeniable evidence places the suspect in a different city at the exact time of the crime. This impossible paradox draws a seasoned, strictly rational detective into a collaboration with an unorthodox private investigator who possesses an uncanny ability to perceive the unexplainable. As they dig deeper, the case unravels into something far more sinister than a human crime. An insidious, supernatural force begins to edge its way into the investigation, challenging the detective's worldview and threatening the safety of everyone involved. The narrative is a brooding, atmospheric procedural that bleeds into cosmic horror. It explores the fragility of truth and the terrifying realization that there are monsters in the world that cannot be handcuffed. The tension lies in the collision between hard facts and nightmare logic, as the protagonists must accept the impossible to stop the killing.</t>
+          <t>In a small town cloaked in the shadows of its own secrets, the brutal murder of a young boy sends ripples of fear through the community. As the investigation unfolds, seasoned detective Ralph Anderson grapples with the horrific details that challenge his understanding of reality. Joined by the unconventional private investigator Holly Gibney, they delve deeper into the case, uncovering a tapestry of interconnected lives and hidden truths that defy logic. 
+As they navigate through the layers of grief and suspicion, an insidious supernatural force begins to weave its way into their inquiry, blurring the lines between the tangible and the inexplicable. The duo finds themselves not only confronting the darkness lurking within the town but also their own beliefs and fears. With each revelation, the stakes rise, and the haunting atmosphere thickens, compelling them to question the very nature of justice and the existence of evil.
+Themes of loss, the fragility of human understanding, and the struggle against unseen malevolence permeate their journey, creating a chilling backdrop that resonates with the complexities of human nature. As the investigation spirals into the unknown, the town's facade crumbles, revealing a world where the ordinary intertwines with the extraordinary, leaving both the characters and the audience to ponder the true nature of the forces at play.</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1837,9 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>In the quiet town of Derry, a group of seven outcast children discovers that their community is the hunting ground for a shapeshifting, malevolent entity that feeds on fear. Manifesting often as a terrifying clown, this ancient evil awakens every few decades to claim its victims. The children, bonded by their shared trauma and status as 'losers,' form a pact to stand against the creature, confronting their deepest personal nightmares in the process. Thirty years later, the survivors—now adults who have largely forgotten their childhood terror—are called back to Derry. The evil has returned, and their blood oath demands they finish what they started. The narrative oscillates between the innocence of the past and the disillusionment of the present, exploring the enduring impact of childhood trauma. It is a story about the power of memory and the strength found in unity. The atmosphere is thick with small-town nostalgia curdled by dread, portraying a world where adults are willfully blind to the horrors that lurk in the sewers.</t>
+          <t>In a small, seemingly idyllic town, shadows lurk beneath the surface, concealing a dark history that haunts its inhabitants. The narrative unfolds in two distinct timelines, weaving together the innocence of childhood and the burdens of adulthood. In the first, a group of seven misfit children, known as "The Losers' Club," confronts an insidious force that manifests as a malevolent clown, preying on their fears and insecurities. Their bond, forged in the crucible of shared trauma, empowers them to challenge the sinister entity that threatens their lives and the very fabric of their community.
+Decades later, the specter of their childhood terror resurfaces, compelling the now-adult members of the Losers' Club to return to their hometown. The reunion is fraught with unresolved emotions and the weight of past horrors, as they grapple with their memories and the scars left by their initial confrontation. The atmosphere thickens with tension as they delve into the mystery of the entity's return, forcing them to confront not only the external threat but also their own inner demons.
+Themes of friendship, courage, and the enduring impact of trauma resonate throughout their journey, as the line between reality and nightmare blurs. As they seek to reclaim their lives and protect their town, the echoes of their childhood fears remind them that some evils can never be entirely vanquished. The air is charged with suspense, and the past looms large, revealing that the true battle lies within.</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1891,9 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Across the hall from two brilliant but socially awkward physicists lives a waitress with aspirations of stardom, creating a collision of worlds that redefines their social universe. The narrative revolves around a tight-knit circle of scientists who understand the fabric of the cosmos but are baffled by the basic mechanics of human interaction. Their lives are a series of comic experiments in dating, friendship, and career advancement, filled with references to obscure scientific theories. The dynamic shifts as the 'outsider' neighbor introduces them to the complexities of the real world, while they, in turn, drag her into their eccentric orbit. It is an ensemble comedy celebrating nerd culture, exploring themes of belonging and the evolution of friendship. The humor arises from the clash between high intellect and low social skills, as well as the genuine affection that grows between these disparate characters. Over time, the equations of their lives become more complex, factoring in marriage, family, and the realization that intelligence is not the only form of smarts.</t>
+          <t>In a vibrant apartment complex nestled within a bustling city, two socially awkward physicists, Leonard and Sheldon, navigate the complexities of life and friendship against a backdrop of scientific curiosity and pop culture obsession. Their world, once comfortably confined to equations and comic books, begins to expand dramatically with the arrival of Penny, an aspiring actress whose vivacious spirit and contrasting worldview challenge their established routines. 
+As Leonard grapples with his burgeoning feelings for Penny, Sheldon remains steadfast in his rigid adherence to logic and routine, often leading to humorous clashes that reveal deeper insecurities and desires. The duo's close-knit circle of friends, including the eccentric Howard and the shy Raj, adds layers of camaraderie and rivalry, as they collectively explore the awkwardness of relationships and the intricacies of adult life. 
+Amidst the laughter, the series delves into themes of belonging, the quest for love, and the struggle to balance intellect with emotional vulnerability. The interplay between scientific jargon and everyday dilemmas creates a unique atmosphere where humor thrives alongside poignant moments of self-discovery. In this world, the collision of nerd culture and everyday experiences fosters a rich tapestry of comedic exploration, inviting viewers to embrace their quirks while navigating the unpredictable journey of friendship and romance.</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1945,9 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>In the concrete jungle of New York City, six friends in their twenties navigate the pitfalls of work, life, and love. Armed with sarcasm and an unbreakable bond, they face the uncertainties of adulthood together, turning their apartments and a local coffee house into sanctuaries from the chaotic world outside. The series captures the specific, fleeting magic of that time in life when friends are your family. The narrative is a tapestry of romantic entanglements, career mishaps, and the small, absurd moments that define urban living. From runaway brides to paleontological conferences, the situations are comedic yet grounded in the universal search for happiness and stability. The dynamic is built on rapid-fire banter and distinct personalities that mesh into a cohesive unit. It is a comfort-viewing staple that explores the resilience of friendship, offering a warm, idealized vision of community where no problem is too big to be solved with a conversation on a velvet sofa.</t>
+          <t>In the bustling heart of New York City, a vibrant tapestry of life unfolds as six young friends navigate the complexities of adulthood. Each grappling with their own aspirations and insecurities, they find solace in their shared experiences, creating a sanctuary amidst the chaos of urban living. This close-knit group, marked by their unique personalities and quirks, embodies the struggles of modern relationships, balancing the pursuit of love, career ambitions, and personal growth against the backdrop of a city that never sleeps.
+As they confront the pressures of life—be it through romantic entanglements, career setbacks, or the simple trials of everyday existence—their bond deepens, revealing the profound importance of companionship. Laughter often punctuates their challenges, transforming mundane moments into cherished memories, and underscoring the resilience of friendship in the face of adversity. The interplay of humor and heartfelt moments creates a rich emotional landscape, inviting viewers to reflect on their own connections and the support systems that sustain them.
+Through witty banter and relatable dilemmas, the atmosphere is infused with warmth and camaraderie, illustrating that while the journey may be fraught with uncertainty, the joy found in friendship serves as a beacon of hope. In this vibrant world, the characters learn that together, they can weather any storm, highlighting the enduring power of love and laughter as they forge their paths in life.</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1999,9 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>A father sits down to tell his teenage children the epic, rambling story of how he met their mother, a tale that spans nine years and a thousand diversions. The narrative unfolds through a complex series of flashbacks, centered on a close-knit group of five friends living in Manhattan. The protagonist, a hopeless romantic, searches for 'the one' amidst the chaotic dating scene, supported and sabotaged by his friends: a power couple, a relentless womanizer, and a career-driven news anchor. The structure plays with memory and perspective, using unreliable narration to turn mundane events into legendary anecdotes. It is a story about the journey rather than the destination, highlighting the missed connections, heartbreaks, and coincidences that shape a life. The tone balances slapstick humor with moments of genuine emotional weight, exploring the fear of being left behind as everyone else moves forward. It is a love letter to the messy, non-linear path of finding one's place in the world.</t>
+          <t>In the vibrant backdrop of New York City, a father weaves a tapestry of memories for his children, recounting the whimsical and often chaotic journey of friendship, love, and self-discovery. Through a series of nostalgic flashbacks, he introduces them to his four closest companions, each with their unique quirks and aspirations, as they navigate the ups and downs of adulthood. The city pulses with life, serving as both a playground and a battleground for their dreams and disappointments.
+At the heart of this narrative lies the central tension of searching for true love amidst the comedic misadventures of modern relationships. Each character grapples with their own struggles—romantic entanglements, career aspirations, and the ever-elusive quest for happiness. The father’s storytelling reveals not just the laughter of shared experiences, but also the poignant moments of heartache and growth that define their lives.
+Themes of friendship, fate, and the complexity of love resonate throughout, as the characters confront their fears and desires, ultimately leading to the pivotal moment when the father meets the woman who will change everything. The atmosphere is infused with a blend of humor and introspection, inviting viewers to reflect on their own journeys while reveling in the joy and absurdity of life’s unpredictable paths. As the father’s tale unfolds, it becomes clear that the road to love is often winding, filled with laughter, tears, and the bonds that last a lifetime.</t>
         </is>
       </c>
     </row>
@@ -1995,7 +2053,9 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>In the mundane, fluorescent-lit confines of a paper supply company in Scranton, Pennsylvania, a documentary crew captures the daily lives of the staff. Presided over by a regional manager whose desperate need to be loved is eclipsed only by his lack of self-awareness, the office is a microcosm of American workplace absurdity. The staff—a mix of bored sales reps, eccentric accountants, and weary HR personnel—navigate a minefield of ego, office politics, and forced socialization. The format strips away the laugh track, relying on awkward silences and knowing glances to the camera to build comedy. It finds humor in the banality of the nine-to-five grind: the endless meetings, the prank wars, and the flickering romances that bloom under the harsh overhead lights. Beneath the cringe-inducing antics lies a surprisingly tender exploration of the human condition, revealing the dreams and disappointments of ordinary people. It is a satire of corporate culture that ultimately celebrates the small, weird families that form in the places we are paid to be.</t>
+          <t>In the heart of Scranton, Pennsylvania, the unassuming Dunder Mifflin Paper Company serves as a backdrop for the daily escapades of its quirky employees. Within the confines of this mundane office, a tapestry of personalities unfolds, each navigating the complexities of work life with a blend of humor and absurdity. The monotony of paper sales is punctuated by the idiosyncrasies of the staff, from the overzealous regional manager whose misguided attempts at leadership often lead to chaos, to the endearing yet awkward interactions among colleagues that blur the lines between professionalism and friendship.
+Amidst the clatter of keyboards and the rustle of paperwork, tensions arise as ambitions clash, romances blossom, and rivalries simmer. The quest for personal fulfillment and recognition often collides with the drudgery of corporate life, evoking a sense of longing for something beyond the cubicle walls. Themes of camaraderie and the search for meaning in the everyday resonate deeply, as each character grapples with their own aspirations and insecurities.
+As laughter echoes through the hallways, the atmosphere remains tinged with a bittersweet awareness of the fleeting nature of time and opportunity. The office becomes a microcosm of life itself, where the mundane is transformed into the extraordinary through the lens of humor, revealing the profound connections that can emerge in the most unlikely of places. In this blend of hilarity and heart, the ordinary becomes a stage for the extraordinary, inviting viewers to reflect on their own journeys within the tapestry of life.</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2107,9 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>In the fictional 99th Precinct of the NYPD, a talented but immature detective clashes with his newly appointed, stone-faced captain. The squad room is an eclectic mix of personalities: a tough-as-nails sergeant, a neurotic rule-follower, and a pair of lazy veterans. Together, they solve crimes ranging from the absurd to the dangerous, all while engaging in elaborate halloween heists and office olympics. The series blends the procedural elements of a cop show with the rhythm of a workplace comedy. It subverts the gritty tropes of the genre, presenting a world where competence and compassion are the ultimate virtues. The conflict between the detective's slacker tendencies and the captain's rigid discipline evolves into a mentorship built on mutual respect. It is a celebration of found family and diversity, handling social issues with a light touch while maintaining a relentless joke-per-minute pace.</t>
+          <t>In the bustling heart of New York City, a vibrant precinct serves as the backdrop for a unique ensemble of detectives, each bringing their own quirks and complexities to the table. Among them is a laid-back slacker whose carefree attitude is challenged by the arrival of a new, no-nonsense captain determined to instill discipline and professionalism. This shift in leadership ignites a comedic clash of personalities, as the detectives navigate the often absurd yet heartfelt dynamics of their workplace.
+As they tackle a variety of cases ranging from the mundane to the outlandishly bizarre, the precinct becomes a microcosm of camaraderie and rivalry, where friendships are forged and tested under the pressures of their demanding roles. The interplay of humor and crime reveals deeper themes of responsibility, ambition, and the importance of teamwork, all while maintaining a light-hearted tone that invites laughter amidst the chaos.
+Amidst the comedic escapades, the detectives confront their own personal growth, learning to balance their individual aspirations with the collective goals of the team. The precinct, with its eclectic mix of characters, becomes a sanctuary where the absurdity of life is met with resilience and wit, creating an atmosphere rich with both levity and warmth. In this world, the pursuit of justice is not just a job, but a journey filled with laughter, challenges, and the bonds that make it all worthwhile.</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2164,9 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>In the superficial and cutthroat world of high fashion, a brilliant economist lands a job as a secretary at a prestigious design firm. Despite her impressive qualifications, she is marginalized and mocked for her lack of style and unconventional appearance. She navigates a workplace teeming with beautiful but vacuous models and arrogant executives, her intelligence serving as both her shield and her weapon. The narrative is a classic ugly duckling story reimagined for the corporate age. As she proves her indispensability to the company's incompetent but charming president, a complex dynamic of loyalty and hidden affection develops. The series critiques societal obsession with beauty standards while celebrating the triumph of substance over style. It is a melodrama filled with office intrigues and the gradual transformation of a woman who learns to value herself in a world that refuses to do so. The emotional core lies in her quiet dignity and the slow realization by those around her that she is the most valuable asset they have.</t>
+          <t>In a bustling, vibrant city where ambition and beauty reign supreme, a young woman named Betty navigates the treacherous waters of the corporate world. Armed with intelligence and a fierce determination, she faces the harsh realities of a society that values appearance over substance. As she steps into the high-stakes realm of a fashion company, Betty finds herself at odds with the glamorous yet cutthroat environment that surrounds her, where envy and desire intertwine with the pursuit of success.
+Central to her journey is the tension between her self-worth and the superficial judgments of those around her. Betty's unconventional appearance becomes both a source of ridicule and a catalyst for her resilience, forcing her to confront the complexities of love, friendship, and ambition. As she grapples with her feelings for a charismatic yet unattainable colleague, the lines between admiration and aspiration blur, leading to a poignant exploration of identity and acceptance.
+Set against a backdrop of colorful office politics and romantic entanglements, the narrative unfolds with a blend of humor and drama, revealing the intricacies of human relationships. Themes of transformation and self-discovery resonate throughout, as Betty's journey challenges societal norms and redefines beauty in a world obsessed with perfection. In this captivating tale, the heart of a seemingly ordinary woman shines brightly, illuminating the path toward empowerment and authenticity amidst the chaos of life.</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2218,9 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>A young woman, blessed with striking beauty and cursed with a consuming ambition, despises her life of poverty. Despite the love of her hardworking parents and a devoted neighbor, she is driven by a singular, ruthless goal: to use her appearance and wit to climb the social ladder and enter the world of luxury she feels she deserves. She treats relationships as transactions, manipulating those around her with cold precision to secure her future. The narrative is a study of greed and the corrupting power of materialism. Unlike the traditional virtuous heroine, she is an anti-heroine who actively chooses the path of deceit. As she ascends into high society, leaving a trail of broken hearts and betrayed trust, she begins to realize the hollow nature of the wealth she coveted. The story explores the tension between authentic love and financial security, asking whether redemption is possible for someone who has sold their soul for status. It is a dramatic cautionary tale where the protagonist's greatest enemy is her own reflection.</t>
+          <t>In a vibrant yet impoverished neighborhood, Teresa Chavez stands out with her striking beauty and fierce ambition. Raised in a loving family, she grapples with an insatiable desire for wealth and status, feeling suffocated by the limitations of her surroundings. The allure of a more glamorous life pulls her away from the warmth of familial bonds, igniting a relentless pursuit that often blinds her to the values of loyalty and love.
+As Teresa navigates the complexities of her aspirations, she encounters a web of relationships that challenge her moral compass. Friends become rivals, and the line between ambition and greed blurs, leading her into a world where betrayal lurks beneath the surface of every interaction. The tension between her dreams and the reality of her choices creates a rich tapestry of emotional conflict, as she must confront the consequences of her relentless quest for success.
+Themes of ambition, sacrifice, and the true cost of desire permeate her journey, painting a portrait of a woman torn between her dreams and the people who care for her. The atmosphere is thick with drama, as each decision reverberates through her life and the lives of those around her, leaving a trail of heartache and revelation. In this compelling narrative, Teresa's story unfolds as a poignant exploration of what it means to chase one's dreams while grappling with the weight of personal connections and the shadows of one's past.</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2268,9 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>A wealthy businessman finds his life upended when he is framed for money laundering and pursued by the police and a criminal syndicate. Fleeing his privileged existence in Mexico, he arrives in Bogotá, Colombia, stripped of his identity and resources. Desperate and alone, he finds refuge in a mariachi bar, where his hidden talent for singing becomes his lifeline. He is taken in by the band and the beautiful daughter of the bar's owner. The series is a romance infused with music and suspense. The protagonist must navigate the vibrant, passionate world of mariachi culture while constantly looking over his shoulder. The tension arises from the duality of his existence—the honest man he is becoming versus the fugitive he is forced to be. As he falls in love, the threat of his past catching up looms larger, threatening to destroy the new family he has found. It is a story of reinvention and the healing power of music, set against a backdrop of trumpets and violins.</t>
+          <t>In the vibrant streets of Bogotá, where the melodies of mariachi bands fill the air, a tale of love and deception unfolds. Emiliano, a man of wealth and privilege, finds himself in hiding, having been betrayed by those he once called friends. As he navigates this new life under an assumed identity, he encounters Rosario, a passionate mariachi singer whose spirit shines brightly amidst the shadows of danger that loom around them. Unbeknownst to her, Emiliano is not just a man seeking solace; he is a fugitive, pursued by law enforcement and a menacing criminal organization.
+As their relationship blossoms, the tension between love and secrecy grows. Emiliano grapples with the fear that his hidden past could shatter the fragile bond they have formed. In a world where trust is a rare commodity, Rosario remains steadfast, believing in the honesty of the man she loves, even as rivals and threats emerge to test their devotion. The intoxicating rhythm of their lives intertwines with the haunting echoes of betrayal and longing, creating a rich tapestry of emotion.
+Amidst the backdrop of lively music and the struggles of everyday life, themes of redemption and the quest for truth resonate deeply. Each note played carries the weight of their choices, as Emiliano must confront his past to forge a future with Rosario. In this captivating narrative, love becomes both a refuge and a battleground, where the heart's desires clash with the harsh realities of a world fraught with peril.</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2322,9 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>In the turbulent setting of 19th-century Mexico, amidst political upheaval and social stratification, a young noblewoman is torn between duty and desire. She falls deeply in love with a penniless soldier, but her manipulative mother, desperate to maintain the family's status, orchestrates a marriage to a wealthy, kind-hearted stranger. Trapped in a union founded on deceit, the young woman struggles with her lingering passion for her first love and the growing, unexpected affection for her husband. The narrative is a sweeping period romance that explores the constraints of class and gender. It is a world of haciendas, duels, and revolutions, where personal happiness is often sacrificed for family honor. The central conflict revolves around the definition of true love—is it the fiery, forbidden passion of youth, or the enduring, respectful bond that grows over time? As secrets are revealed, the characters must navigate a web of lies to find their own truth. It is a melodramatic saga of grand emotions and tragic misunderstandings.</t>
+          <t>In a lavish yet tumultuous 19th-century Mexico, the lives of the affluent intertwine with the passions of the heart, where love and societal expectations clash with devastating consequences. At the center of this intricate web is Matilde, a strikingly beautiful young woman whose heart beats for Adolfo, a man of humble means. Their romance flourishes in secret, igniting a fire that threatens to consume not only their happiness but also the very fabric of Matilde's family.
+Caught in the crosshairs of her mother's ambitions, Matilde faces an impossible choice when Augusta, her formidable matriarch, insists she marry the wealthy and charming Manuel Fuentes Guerra. This union, steeped in privilege and expectation, stands in stark contrast to the raw and passionate connection Matilde shares with Adolfo. As the tension escalates, the struggle between duty and desire becomes palpable, revealing the depths of familial loyalty and the sacrifices demanded by love.
+Set against a backdrop of opulence and societal constraints, the narrative unfolds with rich emotional complexity, exploring themes of class disparity, forbidden love, and the relentless pursuit of happiness. Each character grapples with their own desires and the weight of their choices, as the boundaries of love and loyalty blur, creating an atmosphere thick with longing and heartache. In this world, where true love is both a blessing and a curse, the stakes are high, and the consequences of passion resonate through the ages.</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2376,9 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>A wealthy widower and banker struggles to manage his seven unruly children, who have successfully driven away every nanny he has hired. Enter a vibrant, unconventional woman who, unbeknownst to him, moonlights as an exotic dancer to make ends meet. Desperate for a stable job, she becomes the nanny, bringing chaos, laughter, and warmth into the sterile, disciplined household. Her lack of refinement is matched only by her abundance of heart, and she quickly wins over the children and, inevitably, the father. The story is a modern fairy tale of dual identities and class collision. The comedy stems from her frantic attempts to keep her nightlife a secret from her conservative employer, leading to a series of farcical near-misses. Beneath the humor lies a sentimental core about grief and the reconstruction of a broken family. As the widower learns to live and love again, they must overcome the prejudices of their social circles and the machinations of a jealous rival.</t>
+          <t>In a world of opulence and hidden struggles, a wealthy businessman grapples with the chaos of raising his seven spirited children after the loss of his wife. The Lascurain household, filled with laughter and mischief, becomes the stage for a delicate balance of love and ambition when Fernando, the patriarch, hires a new nanny. Ana, an exotic dancer striving to escape her tumultuous life, enters their lives with dreams of motherhood but carries the weight of her secret existence. As she forges a bond with the children, her hidden struggles threaten to unravel the fragile tapestry of their lives.
+Caught in a web of conflicting emotions, Fernando finds himself torn between the warmth and authenticity Ana offers and the allure of Isabela, a polished economist groomed for high society. This choice not only tests his heart but also challenges his values, as he navigates the complexities of love, loyalty, and the pursuit of happiness. The vibrant backdrop of a bustling city, with its nightlife and societal expectations, amplifies the stakes, revealing the stark contrasts between ambition and authenticity.
+As the characters confront their desires and the consequences of their choices, themes of resilience, love, and the quest for identity emerge. The atmosphere is charged with tension, where every decision could lead to redemption or heartbreak, leaving the audience to ponder the true meaning of family and the sacrifices made in the name of love.</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2430,9 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Chronicles of the Italian-American Corleone crime family spanning a volatile decade define this saga of power and succession. The aging patriarch, a man of old-world principles, seeks to transfer his empire to his reluctant youngest son, a war hero who initially wants no part of the family business. An assassination attempt shatters this detachment, pulling the son into a cycle of vengeance and violence that transforms him from an outsider into a ruthless don. The narrative is a tragic, operatic saga of the American Dream distorted by crime. It explores the paradoxical morality of the mafia, where murder is business and loyalty is currency. The atmosphere is sepia-toned and heavy with smoke, whispers, and sudden, brutal violence. As the son consolidates power, he systematically sheds his humanity, isolating himself from the very family he sought to protect. It is a masterclass in character devolution, illustrating how the pursuit of absolute power requires the absolute sacrifice of the soul.</t>
+          <t>In the shadowy underbelly of post-war America, the Italian-American Corleone family navigates the treacherous waters of power, loyalty, and betrayal. Set against a backdrop of burgeoning crime syndicates and shifting allegiances, the narrative unfolds in a world where honor is both a currency and a weapon. The patriarch, Vito Corleone, commands respect and fear, embodying the complexities of a man who straddles the line between family devotion and ruthless ambition.
+As an assassination attempt disrupts the fragile peace, Michael, Vito's youngest son, is thrust into a life he once sought to escape. The tension mounts as Michael grapples with his identity, torn between the legacy of his father and the moral implications of the family's illicit dealings. The atmosphere is thick with suspense, underscoring the weight of choices that ripple through generations, as familial bonds are tested against the harsh realities of crime and retribution.
+Themes of loyalty, power, and the American Dream intertwine, revealing the dark side of ambition and the sacrifices made in the name of family. The narrative weaves a rich tapestry of emotional conflict, where love and violence coexist, and the quest for respect often leads to devastating consequences. As Michael steps deeper into the world of the Corleones, the line between protector and predator blurs, leaving a haunting echo of what it means to be both a son and a leader in a world steeped in moral ambiguity.</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2484,10 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Behind the cold, gray walls of a maximum-security prison, a banker convicted of a double murder he didn't commit faces a life sentence. Instead of succumbing to the brutality and hopelessness of the penal system, he quietly maintains his dignity and integrity over decades. He befriends a fellow inmate, a man who can 'get things,' and uses his financial acumen to make himself indispensable to the corrupt warden and guards. The story is a slow, meditative study of resilience and the enduring power of hope. It portrays prison not just as a physical cage, but as a state of mind that institutionalizes the soul. Through small acts of rebellion and the cultivation of a library, the protagonist brings a flicker of light to the dark corridors. The narrative explores the passage of time, the forging of friendship in the unlikeliest of places, and the meticulous, patient construction of freedom. It is a testament to the human spirit's ability to remain unbroken under crushing pressure.</t>
+          <t>In the oppressive confines of Shawshank Prison, a world cloaked in despair and isolation, a wrongfully convicted banker finds himself ensnared in a relentless struggle against the darkness of his circumstances. The stone walls echo with the weight of lost dreams, yet within this bleak environment, a flicker of hope ignites as he navigates the complexities of prison life. 
+Amidst the harsh realities of confinement, the central tension unfolds as the protagonist clings to his integrity and resilience, forging unlikely bonds with fellow inmates. Their shared experiences illuminate the stark contrasts between freedom and captivity, revealing the profound human spirit's capacity to endure in the face of injustice. The relentless passage of time becomes both an adversary and a teacher, shaping the characters' lives and aspirations.
+Themes of hope, friendship, and redemption weave through the narrative, as the protagonist's unwavering belief in a brighter future serves as a beacon for those around him. The atmosphere is thick with emotional gravity, punctuated by moments of camaraderie and introspection that challenge the very essence of despair. 
+As the story unfolds within the prison's cold embrace, it becomes a poignant exploration of the human condition, where the struggle for dignity and the quest for freedom resonate deeply. In this microcosm of society, the enduring power of hope shines through the cracks, illuminating the path toward liberation, both physical and spiritual.</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2539,9 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>In a world sterilized by consumerism and corporate monotony, an insomniac office worker finds a violent outlet for his repressed rage. He encounters a charismatic soap salesman with a nihilistic philosophy, and together they establish an underground club where men fight each other bare-knuckle to feel something real. What begins as a way to release tension evolves into a nationwide anarchic movement, targeting the very foundations of modern society. The narrative is a visceral, psychological trip that critiques the emasculation of the modern male and the hollowness of material success. The atmosphere is grimy, dark, and feverish, blurring the line between reality and hallucination. As the movement grows more destructive, the protagonist battles for control of his own mind against the seductive power of chaos. It is a dark satire on identity and self-destruction, asking whether we own our possessions or if they own us.</t>
+          <t>In a world where the relentless grind of modern life breeds discontent and disconnection, a restless insomniac grapples with the suffocating weight of his unfulfilled existence. Haunted by a sense of purposelessness, he finds solace in the most unexpected of places: an underground fight club, born from the chaotic alliance with a charismatic soap salesman. This clandestine sanctuary becomes a visceral escape, a raw expression of masculinity and a rebellion against societal norms, where pain transforms into a form of therapy.
+As the club evolves, it morphs into something more dangerous, spiraling beyond mere physical confrontation into a profound exploration of identity, consumerism, and the human condition. The visceral thrill of combat serves as a backdrop for deeper existential questions, challenging the very fabric of self-worth and societal expectations. The tension between the primal instincts of man and the constraints of modern civilization creates a charged atmosphere, where camaraderie and chaos intertwine.
+Amidst the adrenaline-fueled encounters, the protagonist confronts the darker facets of his psyche, navigating a labyrinth of moral ambiguity and self-discovery. The fight club becomes a crucible, revealing the fragility of masculinity and the struggle for authenticity in a world that often feels hollow. As the boundaries blur between liberation and destruction, the journey delves into the heart of what it means to truly live, leaving echoes of both exhilaration and dread in its wake.</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2593,9 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>A petty criminal pleads insanity to avoid prison labor, landing in a state mental institution. There, he finds a ward ruled by a tyrannical nurse who uses subtle humiliation, rigid routine, and medication to crush the spirits of the patients. The newcomer, brimming with anti-authoritarian energy, clashes instantly with her regime, rallying the other patients to rediscover their independence and dignity through acts of rebellion, fishing trips, and late-night parties. The film is a microcosm of the struggle between the individual and the oppressive machinery of the state. The sterile, white-walled setting serves as a battleground for the human spirit. The conflict escalates from minor infractions to a tragic war of wills, exposing the cruelty disguised as care within the system. It is a poignant, tragicomic exploration of freedom, sanity, and the heavy price of nonconformity. The narrative questions who is truly 'crazy'—the patients seeking life, or the system that demands their silence.</t>
+          <t>In a stark and oppressive psychiatric hospital, the sterile walls echo with the whispers of lost hopes and unspoken fears. The atmosphere is thick with the weight of conformity, where the rigid authority of Head Nurse Ratched looms like a shadow, stifling the spirits of the patients under her watchful eye. Among them is Randle Patrick McMurphy, a spirited and rebellious newcomer whose very presence disrupts the monotonous rhythm of daily life within the institution. 
+As McMurphy challenges the dehumanizing rules imposed by the staff, he becomes a beacon of hope for his fellow patients, igniting a flicker of defiance in their hearts. This burgeoning camaraderie transforms the ward into a battleground of wills, where the struggle for individuality clashes with the oppressive forces of control. The tension escalates as McMurphy's antics inspire his companions to reclaim their voices and assert their identities, leading to a poignant exploration of freedom, sanity, and the human spirit. 
+Amidst the backdrop of institutional despair, themes of rebellion and the quest for self-identity resonate deeply, inviting reflection on the nature of authority and the resilience of the human soul. As the atmosphere shifts from despair to a tentative hope, the ward becomes a microcosm of society, where the fight against oppression takes on profound significance, leaving an indelible mark on all who dare to dream of liberation.</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2647,9 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Spanning decades of the 20th century, the lives of Jewish gangsters in New York City are chronicled through a haze of memory and regret. A former prohibition-era mobster returns to his old neighborhood in the late 60s, triggering a flood of recollections about his childhood, his rise to power, and the betrayal that forced him into exile. The narrative weaves between three timelines, painting a complex portrait of friendship, greed, and lost innocence. The atmosphere is elegiac and dreamlike, emphasizing the distortion of time and memory. It depicts the brutal reality of the criminal underworld alongside moments of profound melancholy and loyalty. The city itself changes around them, mirroring the loss of their youth and the erosion of their codes of honor. It is an epic tale not just of crime, but of time as the ultimate thief, stealing everything that matters. The story explores the ghostly persistence of the past and the impossibility of undoing the choices that define a life.</t>
+          <t>In the shadowy streets of Manhattan, a city steeped in the echoes of the Prohibition era, a former Jewish gangster finds himself drawn back to the life he once led. The bustling metropolis, with its flickering neon lights and the distant hum of jazz, becomes a haunting backdrop as he navigates the labyrinth of his past. Memories, both vivid and painful, resurface, revealing a tapestry woven with ambition, betrayal, and lost camaraderie. 
+Central to his return is a profound sense of regret, as the ghosts of choices made and friendships forged weigh heavily on his conscience. As he confronts the remnants of his former life, the stark contrasts between his youthful aspirations and the harsh realities of adulthood become increasingly apparent. The vibrant energy of the city contrasts with the somber reflections of a man grappling with the consequences of his actions, creating an atmosphere thick with nostalgia and sorrow.
+Themes of loyalty, redemption, and the inexorable passage of time intertwine, painting a portrait of a life marked by both triumph and tragedy. The protagonist's journey serves as a poignant exploration of identity and the relentless pursuit of meaning in a world that often feels unforgiving. As he seeks closure amidst the ruins of his past, the city itself seems to whisper its own stories of love, loss, and the indelible marks left by a life lived on the edge.</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2701,9 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>In a galaxy suffering under the tyranny of a totalitarian empire, a farm boy dreaming of adventure intercepts a distress call from a captive princess. Thrust into a conflict far larger than his understanding, he joins forces with a weary wizard, a cynical smuggler, and a pair of droids to deliver the plans that could save the rebellion. His journey is one of discovery, unlocking a mystical power that binds the universe together and confronting the mechanical enforcer of the regime. The narrative establishes the archetype of the modern space opera, blending high-tech sci-fi with the structure of classical myth. It is a world of used-future aesthetics, where starships are rusted and technology is utilitarian. The conflict is elemental—light against dark, freedom against oppression. Amidst dogfights in the stars and duels with laser swords, the story explores the hero's journey, the legacy of fathers, and the enduring hope that a small band of rebels can topple a galactic giant.</t>
+          <t>In a galaxy fraught with turmoil, the oppressive grip of imperial forces casts a long shadow over the stars. Amidst this chaos, a courageous princess finds herself ensnared, a beacon of hope captured by dark machinations. As whispers of rebellion stir, two unlikely heroes emerge from the fringes of the cosmos: a young dreamer yearning for adventure and a roguish smuggler with a heart of gold. Together, they embark on a daring quest to rescue the princess and ignite the flames of resistance against tyranny.
+Their journey unfolds across a tapestry of diverse worlds, each teeming with vibrant life and hidden perils. From the desolate sands of remote planets to the bustling corridors of spaceports, they navigate treacherous alliances and confront the moral dilemmas of loyalty, sacrifice, and the fight for justice. The stakes rise as they face formidable foes, testing their resolve and camaraderie in the face of overwhelming odds.
+At its core, this tale explores the timeless struggle between good and evil, the transformative power of friendship, and the indomitable spirit of those who dare to challenge the status quo. As the heroes forge ahead, the atmosphere crackles with suspense and wonder, inviting all to believe in the possibility of redemption and the promise of a brighter future. In this epic adventure, the stars themselves seem to hold their breath, waiting for the dawn of a new hope.</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2755,9 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>In a future where corporate espionage has entered the human mind, a specialized thief steals secrets by infiltrating the dreams of his targets. Haunted by the memory of his deceased wife and estranged from his children, he is offered a chance at redemption: instead of stealing an idea, he must plant one. To achieve this 'inception,' he assembles a team of specialists to construct a multi-layered dreamscape, descending deeper into the subconscious of a business heir. The film is a cerebral heist thriller that treats the architecture of the mind as a physical space to be manipulated. Reality becomes fluid, with cities folding in on themselves and time dilating across dream levels. The tension is twofold: the external threat of the target's militarized subconscious projections and the internal threat of the protagonist's own fracturing psyche. It explores themes of grief, reality versus illusion, and the contagious nature of an idea. It is a visual and intellectual puzzle where the only way out is to go deeper.</t>
+          <t>In a world where the boundaries of reality blur and the subconscious becomes a battleground, a skilled thief navigates the treacherous landscapes of dreams. Haunted by his past and desperate for redemption, he embarks on a perilous journey to reclaim his former life. Tasked with the seemingly impossible mission of planting an idea deep within the mind of a target—an act known as "inception"—he assembles a team of specialists, each bringing their unique expertise to the intricate web of the mind.
+As they delve deeper into the layered realms of dreams, the team confronts not only external threats but also the inner demons that haunt their own psyches. The tension escalates as the lines between dreams and reality dissolve, leading to a race against time where the stakes are nothing less than the essence of existence itself. Themes of guilt, loss, and the quest for identity intertwine, creating a rich tapestry of emotional and moral conflict.
+In this high-stakes adventure, the atmosphere is thick with suspense and wonder, drawing the audience into a labyrinth of intrigue where every twist and turn challenges the nature of perception. As the dreamscape shifts and morphs, the characters must grapple with the profound implications of their actions, ultimately questioning the very fabric of their realities. In this mind-bending odyssey, the pursuit of truth becomes a journey into the heart of the human experience, where dreams can be both a sanctuary and a prison.</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2809,9 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>A computer hacker living a mundane life discovers that his entire reality is a simulated construct created by sentient machines to subdue the human population. Awakened from this digital slumber by a group of freedom fighters, he learns he may be the prophesied savior capable of manipulating the code of the simulation. He must master his new abilities and accept the burden of the truth to lead the war against the machine overlords. The narrative combines cyberpunk aesthetics with philosophical inquiry, questioning the nature of existence, free will, and control. The world oscillates between the grimy, mechanical reality of the future and the polished, sterile illusion of the present day. It revolutionized action cinema with its visual representation of digital combat, but its core is the classic allegory of the cave. It is a story about waking up, choosing the difficult truth over the comfortable lie, and the power of belief to rewrite the rules of reality.</t>
+          <t>In a dystopian future where humanity is unknowingly trapped within a simulated reality, a computer hacker finds himself drawn into a clandestine rebellion against the omnipotent machines that govern their existence. The world outside is a desolate landscape, a stark contrast to the vibrant yet deceptive digital realm that ensnares the minds of the unsuspecting populace. Here, the lines between reality and illusion blur, creating an atmosphere thick with tension and existential dread.
+As the protagonist navigates this treacherous underworld, he grapples with profound questions of identity, freedom, and the nature of reality itself. The insurgents, a diverse group of rebels, are united by a singular purpose: to awaken humanity from its slumber and reclaim their autonomy from the cold grip of their mechanical overlords. Their struggle is not just against the machines, but also against the pervasive fear of the unknown and the seductive comfort of ignorance.
+Amidst breathtaking action and philosophical undertones, the narrative explores the duality of human experience, the quest for truth, and the moral dilemmas that arise when confronting a fabricated existence. As the battle intensifies, the atmosphere crackles with urgency, leaving the audience to ponder the cost of liberation and the sacrifices required to break free from the chains of a manufactured reality. In this relentless fight for survival, the essence of what it means to be truly alive hangs in the balance.</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2863,8 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>A shy, heartbroken man discovers that his ex-girlfriend has undergone a medical procedure to erase him from her memory. Devastated, he decides to undergo the same process. However, as he journeys through his own dissolving mind, reliving the intimate moments of their relationship in reverse, he realizes he doesn't want to forget her. He attempts to hide her memory in the recesses of his subconscious, fighting a losing battle against the erasing process. The film is a surreal, poignant exploration of the complexity of love and the importance of pain in the human experience. It visualizes memory as a crumbling house, a fading spotlight, or a disintegrating landscape. The narrative is non-linear and dreamlike, moving from the bitterness of the breakup to the sweetness of the beginning. It asks whether it is better to have loved and lost than to never have loved at all, concluding that the scars of a relationship are an essential part of who we are.</t>
+          <t>In a world where memories can be meticulously erased, the boundaries of love and loss blur into a haunting exploration of the human psyche. Joel Barish, grappling with the aftermath of a heart-wrenching breakup, finds himself ensnared in a labyrinth of his own recollections. Heartache drives him to seek the same technological solace that his ex-girlfriend chose, opting to have her from his mind as if she were a mere fleeting dream. Yet, as the procedure unfolds, he becomes acutely aware of the profound depths of his feelings, battling against the tide of forgetfulness that threatens to wash away the essence of their shared moments.
+Set against a backdrop of surreal landscapes and fragmented realities, the narrative delves into the intricate tapestry of love’s impermanence and the painful beauty of remembrance. As memories flicker and fade like distant stars, the emotional weight of nostalgia intertwines with the stark reality of loss, prompting a profound inquiry into the nature of identity and connection. The atmosphere oscillates between melancholy and hope, inviting a reflection on the choices we make in the name of love and the lengths we go to shield ourselves from pain. In this poignant journey through the mind, the quest for clarity becomes a poignant reminder that some memories, no matter how bittersweet, are worth holding onto.</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2916,9 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>In a dystopian near-future, a charismatic, classical-music-loving delinquent leads his gang on nightly rampages of 'ultra-violence.' His sociopathic reign of terror ends when he is betrayed and incarcerated. To secure an early release, he volunteers for an experimental aversion therapy designed to cure him of his violent impulses. The treatment strips him of his free will, rendering him physically incapable of violence but leaving him vulnerable to the vengeance of his past victims and the political machinations of the state. The narrative is a chilling satire on the morality of choice and the nature of evil. It questions whether a man forced to be good is truly good, or merely a clockwork orange—organic on the outside, mechanical on the inside. The stylized, slang-heavy dialogue and the juxtaposition of high art with brutal violence create a disturbing, surreal atmosphere. It is a provocative examination of societal control, arguing that the freedom to choose, even to choose evil, is what makes us human.</t>
+          <t>In a dystopian future where societal decay intertwines with the grotesque, a young gang leader named Alex revels in a life of chaos, indulging in acts of violence and depravity alongside his loyal companions. The streets pulse with a frenetic energy, echoing the dark desires that drive their rampage. As they navigate a world stripped of morality, the line between freedom and brutality blurs, raising unsettling questions about the nature of choice and the essence of humanity. 
+However, Alex's reign of terror takes a harrowing turn when he becomes the subject of a radical experiment designed to eradicate his violent impulses through aversion therapy. This chilling process forces him to confront the very core of his identity, leading to a profound internal struggle that pits his instinctual cravings against the imposed order of a society desperate for control. 
+Through a haunting exploration of free will, the fragility of the human spirit, and the consequences of a mechanized approach to morality, the narrative unfolds in a surreal tapestry of vivid imagery and unsettling themes. The atmosphere is thick with tension, as the clash between individual autonomy and societal conformity looms large, leaving the audience to ponder the cost of peace in a world where the soul is sacrificed for the sake of order. In this unsettling landscape, the question remains: can one truly be reformed, or does the essence of one's nature persist, lurking beneath the surface?</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2970,9 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>In a city perpetually drenched in rain and gloom, a retiring detective and his impulsive replacement hunt a serial killer who stages his murders as elaborate tableaus of the Seven Deadly Sins. The killer preaches a twisted morality, turning his victims' vices into the instruments of their torture. As the body count rises, the detectives are drawn into a psychological game that tests their resolve and their worldview. The atmosphere is oppressive and noir, depicting a world in moral decay. The city is nameless, serving as a universal backdrop for urban apathy and corruption. The narrative is a descent into darkness, moving from a standard procedural to a shocking philosophical confrontation. It explores the blurred line between justice and vengeance, and the infectious nature of evil. The killer is not just a monster, but a catalyst exposing the sins of society, leading to a climax that traps the heroes in the very cycle they sought to break.</t>
+          <t>In a city shrouded in perpetual gloom and decay, two detectives navigate the grim underbelly of urban life, where shadows loom large and morality is obscured. As they delve deeper into a series of chilling murders, they find themselves ensnared in the twisted psyche of a serial killer whose grotesque acts are meticulously crafted around the seven deadly sins. Each crime serves not only as a horrifying tableau but also as a dark commentary on human nature, forcing the detectives to confront their own beliefs and ethical boundaries.
+The relentless pursuit of justice becomes a harrowing journey through despair, as the detectives grapple with their own vulnerabilities and the weight of a city that seems to breathe malevolence. The atmosphere is thick with tension, where every lead unravels a deeper layer of depravity, and the line between right and wrong blurs. Themes of obsession, morality, and the fragility of the human soul intertwine, creating a narrative that is as psychologically gripping as it is unsettling.
+As the detectives draw closer to uncovering the killer's identity, they realize that the true horror lies not only in the crimes committed but also in the reflection of their own dark impulses. The haunting ambiance of the city mirrors their internal struggles, leaving them to question whether they can emerge unscathed from a world that revels in sin and suffering. In this relentless chase, the pursuit of truth becomes a perilous dance with darkness, where the ultimate cost may be their own humanity.</t>
         </is>
       </c>
     </row>
@@ -2930,7 +3024,9 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>A seasoned professional thief, who specializes in extracting secrets from the subconscious during the dream state, is offered a chance to regain his life. The task is 'inception': planting an idea into the mind of a CEO's son. Assembling a team of architects, chemists, and forgers, he constructs a labyrinth of dreams within dreams. However, the mission is jeopardized by the target's trained mental defenses and the intrusion of the thief's own traumatic memories. This narrative reimagines the heist genre within a metaphysical landscape. The laws of physics are optional, but the rules of the mind are rigid and dangerous. The tension mounts as the team navigates multiple layers of time dilation, where a second in reality becomes hours in the dream. It is a visually stunning exploration of guilt, memory, and the power of a single idea to define a person's life. The line between the dream and the waking world blurs, leaving a lingering question about the nature of reality itself.</t>
+          <t>In a world where dreams are malleable and the subconscious can be navigated like a labyrinth, a skilled thief known for his unparalleled ability to infiltrate the minds of others is drawn into a high-stakes mission. Tasked with the formidable challenge of "inception," he must plant an idea deep within the psyche of a target, a feat that requires not only cunning but a profound understanding of the human mind. As he assembles a team of specialists, each with their own unique skills and hidden motivations, they plunge into a series of layered dreams, where the boundaries between reality and illusion blur.
+Amidst the adrenaline-fueled tension of corporate espionage, the protagonist grapples with his own haunting past, which threatens to unravel the delicate threads of their mission. The atmosphere is thick with suspense, as every twist and turn in the dreamscape reveals not only the complexities of their task but also the fragility of trust among allies. Themes of guilt, redemption, and the nature of reality weave through the narrative, challenging the characters to confront their deepest fears and desires.
+As the stakes escalate and the lines between dreams and waking life become increasingly indistinct, the team races against time, navigating treacherous landscapes of the mind. In this intricate dance of deception and revelation, the question remains: can one truly control the subconscious, or will it ultimately lead to chaos? The journey unfolds in a realm where imagination reigns, and the consequences of their actions echo far beyond the confines of their dreams.</t>
         </is>
       </c>
     </row>
@@ -2982,7 +3078,9 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Following a massive explosion on a ship docked in a Los Angeles harbor, a verbal cripple and small-time con man is interrogated by the police. He weaves a convoluted tale about how he and four other career criminals were brought together by a legendary, shadowy crime lord known as Keyser Söze to pull off a dangerous job. As he narrates the events leading up to the massacre, the line between truth and fabrication blurs. The film is a masterpiece of unreliable narration and neo-noir suspense. It constructs a myth around a villain who may or may not exist, using the fear of his name to manipulate the characters. The atmosphere is tense and cynical, filled with double-crosses and shifting alliances. The story explores the power of storytelling itself, how a narrative can be constructed to deceive and distract. It culminates in a twist that redefines everything the audience has seen, proving that the greatest trick the devil ever pulled was convincing the world he didn't exist.</t>
+          <t>In a dimly lit interrogation room, the air thick with tension and uncertainty, a lone figure named Verbal Kint recounts a tale that blurs the lines between truth and deception. He speaks of a notorious crime lord, Keyser Soze, a shadowy figure whose very existence seems to haunt the underbelly of the criminal world. As Kint weaves his narrative, he reveals how he and four other criminals were drawn into a meticulously orchestrated heist, one that spiraled into chaos and betrayal, leaving lives shattered and alliances tested.
+Set against a backdrop of gritty urban landscapes and the relentless pursuit of justice, the story unfolds with a palpable sense of dread and intrigue. Themes of trust and manipulation permeate the atmosphere, as Kint's fragmented recollections challenge the perceptions of those who seek to unravel the mystery of Soze's influence. The tension mounts as the line between victim and perpetrator blurs, forcing both the audience and the characters to confront the moral ambiguities that define their choices.
+As the layers of Kint's account unfold, a haunting question lingers: who can truly be trusted in a world where deception reigns supreme? The narrative pulses with an undercurrent of paranoia and suspense, drawing the viewer into a labyrinthine exploration of crime, loyalty, and the dark recesses of the human psyche. In this intricate dance of fate and consequence, the specter of Keyser Soze looms ever larger, a reminder of the chaos that lurks just beneath the surface of civility.</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3132,9 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>After a diamond heist goes terribly wrong, the surviving members of the crew rendezvous at an empty warehouse. One of them is critically wounded, and paranoia sets in as they realize the police were waiting for them—meaning there is a rat in their ranks. As they wait for their boss, the tension boils over into violence, accusations, and torture, while flashbacks reveal the planning and the fatal mistakes of the job. The narrative strips the heist movie down to its raw aftermath. Confined largely to a single location, it plays out like a bloody stage play driven by dialogue and machismo. The characters, known only by color-coded aliases, are studies in professional criminality and human frailty. The non-linear structure peels back the layers of the disaster, building toward a Mexican standoff where loyalty and betrayal collide. It is a gritty, stylish examination of trust among thieves, where the code of silence is broken by the scream of a dying man.</t>
+          <t>In a dimly lit warehouse, the air thick with tension and uncertainty, a group of criminals grapples with the aftermath of a heist gone horribly wrong. As the dust settles, suspicion festers among the survivors, each man haunted by the fear that one among them is a traitor. The stark, industrial surroundings echo with their rising paranoia, the silence punctuated only by the distant sounds of sirens, a reminder of the law closing in.
+Amidst the chaos, alliances are tested and loyalties questioned, as the characters—each with their own dark pasts and motivations—struggle to uncover the truth. The atmosphere is charged with an electric mix of desperation and betrayal, as their attempts to piece together the events of the day lead to explosive confrontations. The moral ambiguity of their choices looms large, forcing them to confront not only the external threat of law enforcement but also the internal demons that drive them.
+In this crucible of conflict, themes of trust, identity, and the consequences of violence weave a complex tapestry, revealing the fragility of camaraderie in the face of betrayal. As the night deepens, the warehouse becomes a microcosm of moral decay, where the line between right and wrong blurs, leaving each man to grapple with the weight of his own decisions. The chilling atmosphere hangs heavy, a testament to the darkness that can emerge when desperation meets deceit.</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3186,9 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>A young FBI trainee is pulled from the academy to interview a brilliant psychiatrist and incarcerated cannibalistic serial killer. The bureau hopes his insights can help catch an active serial killer who skins his female victims. The trainee must navigate the perilous psychological landscape of the doctor's mind, trading personal secrets for clues in a dangerous quid pro quo. The film is a tense psychological thriller that subverts the dynamics of hunter and prey. The relationship between the novice agent and the monster behind the glass is one of intellectual seduction and terrifying intimacy. The narrative explores the gender dynamics of a woman navigating a male-dominated world, mirroring her vulnerability in the face of the killer. The atmosphere is cold and clinical, yet deeply unsettling. It is a story about staring into the abyss to save the innocent, and the transformation required to confront pure evil without being consumed by it.</t>
+          <t>In a world where darkness lurks in the shadows of the human psyche, a young FBI trainee finds herself on a harrowing quest to apprehend a cunning serial killer. Set against the backdrop of a chillingly sterile institution, the atmosphere is thick with tension and unease, as Clarice Starling navigates the labyrinthine corridors of a high-security psychiatric facility. Here, she encounters the enigmatic and terrifying figure of Dr. Hannibal Lecter, a brilliant psychiatrist whose intellect is rivaled only by his insatiable hunger for human flesh.
+As Clarice delves deeper into the mind of this cannibalistic genius, she grapples with her own fears and insecurities, forging a complex psychological bond that blurs the lines between predator and prey. The central conflict unfolds as she races against time to decode Lecter’s cryptic insights, which hold the key to stopping a killer who embodies pure malevolence. Themes of manipulation, morality, and the duality of human nature emerge, revealing the intricate dance between sanity and madness.
+The chilling interplay of light and shadow mirrors the moral ambiguities that haunt Clarice’s journey, as she confronts the darkest corners of her own soul. In this relentless pursuit of justice, the stakes rise, and the atmosphere grows increasingly suffocating, leaving an indelible mark on both her spirit and the viewer's psyche. The silence that envelops the narrative is deafening, echoing the unspoken horrors that lie just beneath the surface.</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3240,9 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>A secretary embezzles a large sum of money from her employer and flees town, hoping to start a new life. Exhausted and paranoid, she checks into a desolate, off-highway motel run by a shy, awkward young man dominated by his invalid mother. Her disappearance triggers an investigation that leads to the motel, uncovering a horror far more disturbing than a simple theft. The film is the foundational text of the modern slasher, shifting abruptly from a crime drama to a nightmare of madness. The iconic setting of the looming house on the hill and the mundane motel below creates a geography of entrapment. The narrative explores themes of voyeurism, duality, and the destructive power of the past. It broke cinematic conventions by killing its protagonist early, leaving the audience adrift in a world where no one is safe. It is a study of the monster next door, hiding behind a smile and a mother's voice.</t>
+          <t>In a desolate stretch of highway, Marion Crane finds herself ensnared in a web of desperation and deceit, fleeing with stolen money that weighs heavily on her conscience. Her journey leads her to the eerie Bates Motel, a seemingly innocuous establishment nestled in the shadow of a foreboding mansion. Here, she encounters Norman Bates, a peculiar and troubled young man whose unsettling demeanor hints at deeper, darker secrets lurking beneath the surface. 
+As night falls, the atmosphere thickens with tension, and the motel's isolation amplifies Marion's sense of vulnerability. The interplay between her mounting anxiety and Norman's unsettling hospitality creates a palpable unease, suggesting that not all is as it seems within these walls. The presence of his mysterious mother, though unseen, looms large, casting a shadow over their interactions and hinting at a complex and disturbing family dynamic.
+Themes of identity, morality, and the fragility of sanity intertwine as Marion grapples with her choices, revealing the thin line between victim and perpetrator. The oppressive silence of the motel and the encroaching darkness serve as a backdrop to the unraveling of secrets, where trust is a fleeting illusion and danger lurks in the most unexpected places. As the night deepens, the haunting atmosphere tightens its grip, leaving an indelible mark on the soul and challenging the very nature of human connection.</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3294,9 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>A struggling writer accepts a job as the winter caretaker of an isolated, historic hotel in the Colorado Rockies, moving his wife and young son into the massive, empty building. The hotel, cut off from the world by snowstorms, is inhabited by the malevolent spirits of its past. As the isolation takes hold, the father's sanity fractures, and he becomes a vessel for the hotel's evil, turning against his own family. The film is a masterpiece of atmospheric horror, using the sheer scale and silence of the hotel to build dread. The supernatural elements are ambiguous, blurring with the psychological breakdown of the protagonist. It explores the fragility of the family unit and the cycle of abuse. The steadycam shots through the labyrinthine corridors create a sense of being watched by an unseen presence. It is a story about the demons we bring with us and the ones waiting for us in the dark, culminating in a frozen nightmare of madness.</t>
+          <t>In the isolation of the vast and desolate Overlook Hotel, Jack Torrance, a struggling writer, takes on the role of caretaker, seeking a fresh start for himself and his family. Accompanied by his wife and young son, they arrive at the imposing edifice, a place steeped in history and shadowed by its own dark past. As winter descends and the snow blankets the landscape, the hotel transforms into a labyrinth of eerie silence, where the whispers of the past seem to echo through its grand hallways.
+As Jack grapples with his ambitions and the weight of his personal demons, a sinister presence awakens within the hotel, feeding on his fears and insecurities. His son, gifted with a mysterious ability to perceive the unseen, becomes increasingly aware of the malevolent forces at play, heightening the tension within their fragile family dynamic. The once serene environment morphs into a psychological battleground, where the boundaries of sanity blur and the line between reality and nightmare begins to dissolve.
+Themes of isolation, madness, and the struggle for identity intertwine, creating an atmosphere thick with dread and uncertainty. The Overlook, with its haunting allure, serves not only as a backdrop but as a character in its own right, embodying the darkness that seeps into the hearts of those who dare to inhabit its space. As the chilling grip of the hotel tightens, the Torrance family's unraveling becomes an exploration of the fragility of the human mind when confronted with the unknown.</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3348,9 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>A commercial towing spaceship intercepts a distress signal from an unexplored planetoid. The crew investigates, finding a derelict alien craft and a nest of eggs. When one of the crew is attacked by a parasitic organism, they bring him back on board, unknowingly inviting a perfect killing machine into their confined vessel. The creature grows rapidly, stalking the crew members one by one in the dark, industrial corridors of the ship. The narrative is a haunted house story set in space, emphasizing isolation and the hostility of the unknown. The ship is not a shiny futuristic marvel, but a gritty, working-class environment, making the terror feel grounded and visceral. The creature is an embodiment of primal fear—sexual, biomechanical, and relentless. The story explores the ruthlessness of corporate interests and the fragility of human life against a superior evolutionary force. It is a survival thriller where the silence of space offers no sanctuary.</t>
+          <t>In the cold, desolate expanse of space, the commercial spaceship Nostromo drifts through the void, a mechanical behemoth echoing with the hum of machinery and the whispers of its weary crew. When an enigmatic distress signal disrupts their routine, curiosity propels them into the unknown, drawing them toward a desolate planet that harbors secrets best left undisturbed. As they investigate the source of the signal, a sense of foreboding envelops the crew, hinting at the lurking dangers that await them.
+What begins as a routine salvage operation swiftly spirals into a harrowing nightmare when a crew member falls victim to an unseen predator. Tension mounts as the crew grapples with the realization that they are not alone; a malevolent force now stalks them within the confines of their ship. The claustrophobic corridors of the Nostromo become a labyrinth of fear, where trust erodes and paranoia festers, as survival instincts clash with the bonds of camaraderie.
+Amidst the cold steel and flickering lights, themes of isolation and the fragility of human life emerge, intertwining with the mysteries of the cosmos. The crew's struggle against an unfathomable terror forces them to confront not only the external threat but also the darker aspects of their own humanity. As the shadows deepen and the stakes rise, the atmosphere thickens with dread, leaving an indelible mark on their souls and a haunting question lingering in the silence of space: what horrors lie beyond the stars?</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3402,9 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>In the Georgetown neighborhood of Washington D.C., a young girl begins to exhibit erratic, violent behavior that defies medical explanation. As her condition deteriorates into levitation, telekinesis, and profanity-laced tirades, her desperate mother seeks the help of the Catholic Church. Two priests—one elderly and experienced, the other young and suffering a crisis of faith—are summoned to perform an exorcism to save the girl's soul. The film is a visceral confrontation between modern rationality and ancient evil. It grounds its supernatural horror in a realistic, domestic setting, making the intrusion of the demonic feel terrifyingly plausible. The narrative is as much about the priest's struggle to regain his faith as it is about the girl's possession. The atmosphere is cold, damp, and oppressive, filled with the sounds of suffering. It explores the vulnerability of innocence and the physical reality of spiritual warfare, leaving the audience to question the limits of science and the existence of the devil.</t>
+          <t>In a quiet suburban neighborhood, an unsettling darkness begins to seep into the lives of its residents, centering on the seemingly innocent home of a young girl. Twelve-year-old Regan MacNeil, once a vibrant and playful child, undergoes a profound transformation, her demeanor shifting to something unrecognizable and deeply disturbing. As her mother grapples with the inexplicable changes in her daughter, desperation mounts, leading her to seek help from Father Damien Karras, a priest tormented by his own crises of faith and personal loss.
+The atmosphere thickens with tension as the lines between the ordinary and the supernatural blur, plunging the characters into a harrowing struggle against an unseen malevolence. Themes of belief, maternal love, and the battle for one's soul emerge, weaving a complex tapestry of emotional and moral conflict. The once serene setting becomes a crucible of fear and uncertainty, where the familiar comforts of home are overshadowed by an encroaching dread.
+As Father Karras confronts the chilling reality of Regan's condition, he is drawn into a profound mystery that challenges his understanding of good and evil. The stakes rise, and the haunting question of whether redemption is possible lingers in the air. In this gripping tale, the clash between faith and doubt unfolds, leaving a lingering sense of unease that resonates long after the final moments.</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3456,9 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>A disparate group of strangers seeks refuge in an isolated farmhouse as the dead rise from their graves with an insatiable hunger for human flesh. Trapped inside, they must fortify the house against the growing horde of zombies outside. However, the tension within the group proves as dangerous as the threat without, as power struggles and racial prejudices fracture their unity. The film redefined the horror genre, introducing the modern zombie as a relentless, cannibalistic force. Shot in stark black and white, it has a documentary-like realism that amplifies the terror. The narrative serves as a bleak social commentary on 1960s America, reflecting the collapse of social order and the inability of people to cooperate even in the face of extinction. The claustrophobic setting creates a pressure cooker of fear. It is a nihilistic story where survival is temporary, and the greatest horror is the realization that society itself has died.</t>
+          <t>In a desolate farmhouse nestled within the shadowy woods of Pennsylvania, a group of strangers finds themselves ensnared in a harrowing struggle for survival. As night descends, the isolation of their refuge becomes a breeding ground for terror, with the relentless threat of bloodthirsty zombies lurking just beyond the walls. The atmosphere is thick with dread, as the once-safe haven transforms into a claustrophobic prison, where the flickering light of a single lamp casts haunting shadows that dance across the room.
+Tensions rise as the group grapples with not only the external menace but also their own fears and mistrust. Each character's psyche is laid bare, revealing the fragility of human connections in the face of overwhelming horror. The primal instinct for survival clashes with moral dilemmas, forcing them to confront what they are willing to sacrifice to escape the encroaching darkness.
+As the night stretches on, the boundaries of sanity begin to blur, and the true nature of humanity is tested against the backdrop of an unrelenting nightmare. The farmhouse, once a symbol of refuge, becomes a stage for a chilling exploration of despair, desperation, and the indomitable will to live. In this relentless struggle, the line between the living and the dead becomes increasingly indistinct, leaving the survivors to question not only their fate but the very essence of what it means to be human in a world turned monstrous.</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3510,9 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Since the dawn of time, small, yellow, pill-shaped creatures have existed with a singular purpose: to serve the most despicable master they can find. After accidentally destroying all their bosses from T. Rex to Napoleon, they fall into a deep depression in isolation. In the 1960s, three of them embark on a journey to find a new evil boss to serve, landing in New York and eventually London, where they are hired by the world's first female supervillain. The film is a slapstick comedy that revels in absurdity and visual gags. It flips the script on the hero's journey, focusing on the bumbling henchmen who just want to be helpful accomplices to crime. The setting captures the mod style and music of the swinging sixties. The narrative is lighthearted and chaotic, driven by the gibberish language and physical comedy of the protagonists. It explores themes of loyalty, purpose, and the unintended good that can come from trying to be bad.</t>
+          <t>In a vibrant world brimming with whimsical chaos and boundless energy, a trio of endearing Minions—Stuart, Kevin, and Bob—find themselves yearning for purpose beyond their mischievous antics. Their journey takes an unexpected turn when they are swept into the thrilling orbit of the ambitious supervillain Scarlet Overkill and her eccentric husband, Herb. Drawn by the allure of a grand scheme to seize control of the world, the Minions embark on a comical adventure filled with absurd challenges and outrageous escapades.
+As they navigate a landscape peppered with quirky characters and zany situations, the Minions grapple with their own identities and the true meaning of loyalty. The tension between their playful nature and the high-stakes world of villainy creates a delightful juxtaposition, amplifying the humor while exploring themes of friendship and ambition. The vibrant animation captures the essence of their spirited journey, inviting audiences to revel in the absurdity of their quest.
+Amidst the laughter and chaos, the Minions discover that their greatest strength lies not in their desire for power, but in the bonds they forge along the way. As they strive to prove their worth in a world dominated by larger-than-life villains, the heartwarming message of camaraderie and self-discovery shines through, leaving a lasting impression of joy and mischief in the air.</t>
         </is>
       </c>
     </row>
@@ -3450,7 +3564,9 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>A year after outwitting the FBI and winning the public's adulation with their Robin Hood-style magic spectacles, the Four Horsemen resurface for a comeback performance. However, their show is hijacked by a tech prodigy who forces them into a heist to steal a powerful chip capable of controlling all the world's computers. Stripped of their tricks and on the run, they must use their illusions to clear their names and expose the mastermind behind the plot. The film blends the heist genre with the spectacle of stage magic, creating set pieces where sleight of hand becomes a superpower. The narrative takes the team from New York to Macau and London, blurring the line between magic and technology. It explores themes of revenge, legacy, and the ethics of information control. The tone is fast-paced and playful, a puzzle box of twists and misdirections where nothing is what it seems. It challenges the audience to look closely, even as it distracts them with the next trick.</t>
+          <t>In a world where illusion and reality intertwine, the enigmatic Four Horsemen reemerge, a year after their audacious escape from the clutches of the FBI. The bustling streets of a vibrant city become their stage once more, but this time, the stakes are higher, and the shadows are darker. A new adversary, cunning and relentless, manipulates the strings of fate, drawing the Horsemen into a labyrinthine heist that challenges their skills and their unity.
+As they navigate a web of deception and intrigue, the tension mounts, revealing not only the fragility of trust among the group but also the moral complexities of their choices. Each member grapples with the weight of their past, the thrill of the con, and the looming threat of betrayal. In a dance of wits and whimsy, the line between friend and foe blurs, leading to unexpected alliances and humorous misadventures.
+Amidst the chaos, themes of loyalty, ambition, and the allure of power resonate, inviting a deeper reflection on the nature of deception itself. The atmosphere crackles with anticipation, blending moments of levity with heart-pounding suspense as the Horsemen strive to outsmart their formidable opponent. In this high-stakes game of cat and mouse, the ultimate question lingers: how far will they go to protect their legacy and each other, when the greatest illusion may be the one they create for themselves?</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3618,9 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Two years after their last disaster, the 'Wolfpack' is living quiet lives, until a personal crisis forces them to hit the road again. This time, there is no wedding and no bachelor party, but trouble finds them anyway. They are intercepted by a mob boss who demands they find their chaotic frenemy, Mr. Chow, who has stolen millions in gold. The journey takes them back to Las Vegas and into a spiral of mayhem involving giraffe decapitations, drug lords, and a reckoning with their past antics. The film concludes the trilogy by shifting from a hangover mystery to a dark action-comedy. It focuses on the consequences of the group's enabling behavior towards their most unstable member. The narrative is darker and more cynical, stripping away the party vibes for a gritty road trip through the underbelly of the borderlands. It explores the end of an era for the friends, forcing them to finally grow up and cut ties with the chaos that has defined their friendship.</t>
+          <t>In the wake of chaotic celebrations past, the Wolfpack finds themselves embarking on an unexpected journey devoid of the usual wedding bells and bachelor revelry. As they hit the road, the absence of their typical debauchery sets the stage for a different kind of adventure, one that is steeped in the familiar camaraderie yet tinged with an undercurrent of uncertainty. 
+With no grand occasion to anchor their escapades, the friends are thrust into a series of unpredictable encounters that test their bonds and challenge their resilience. The road ahead is fraught with unforeseen complications, each twist and turn revealing the fragility of their friendship and the weight of past misadventures. As they navigate this new terrain, themes of loyalty and redemption emerge, layered with the comedic absurdity that has defined their journey together.
+Amidst the laughter and the chaos, a sense of nostalgia lingers, reminding them of the wild nights that brought them together. Yet, as they confront the reality of their lives beyond the party scene, the stakes rise, and the laughter becomes a backdrop to deeper revelations. The atmosphere is charged with both hilarity and heartfelt moments, capturing the essence of friendship that endures through trials, transforming their road trip into a poignant exploration of what it means to truly stand by one another, even when the road is anything but predictable.</t>
         </is>
       </c>
     </row>
@@ -3554,7 +3672,9 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>A foul-mouthed, pot-smoking teddy bear who came to life thanks to a childhood wish has settled down and married his human girlfriend. When they decide to adopt a child, the state declares that he is property, not a person, stripping him of his civil rights. With the help of his best friend and a young lawyer, he takes his case to court to prove that he has a soul and deserves the same rights as any human. The film uses its absurd premise to deliver a raunchy comedy that doubles as a satire on civil rights and legal definitions of personhood. It balances low-brow humor with surprising moments of heart, exploring what it means to be human. The friendship between the man and the bear is the emotional anchor, a bond of arrested development that faces the challenge of maturity. It riffs on pop culture and societal norms, asking whether a manufactured being can possess the complexities of emotion and the capacity for love.</t>
+          <t>In a world where the extraordinary is woven into the fabric of everyday life, a newlywed couple, Ted and Tami-Lynn, find themselves at a crossroads filled with both laughter and heartfelt aspirations. Their desire to start a family ignites a journey that challenges the very definitions of identity and parenthood. Ted, a living teddy bear with a penchant for mischief, must confront societal norms as he embarks on a legal battle to prove his personhood in a court that grapples with the absurdity of his existence.
+As the couple navigates the complexities of love, friendship, and the pursuit of happiness, they are thrust into a whirlwind of comedic chaos. The courtroom becomes a stage where the absurd meets the profound, highlighting the often arbitrary nature of what it means to be a family. The tension between societal expectations and personal desires fuels a narrative rich with humor and poignant moments, as Ted's quest for recognition becomes a reflection of broader themes of acceptance and belonging.
+Amidst the hilarity, the film invites audiences to ponder the essence of identity and the lengths one will go to for love. With a backdrop of vibrant camaraderie and whimsical escapades, the atmosphere oscillates between the ridiculous and the relatable, crafting a tale that is both uproariously funny and unexpectedly touching. As Ted and Tami-Lynn strive to redefine their future, they remind us that family can take many forms, and love knows no boundaries.</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3726,9 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Three friends who grew tired of answering to unbearable bosses decide to launch their own business. However, their American Dream is quickly crushed when a slick investor betrays them, stealing their idea and leaving them in debt. Desperate and lacking any criminal intelligence, they hatch a misguided plan to kidnap the investor's adult son and hold him for ransom to regain control of their company. The film is a farce of incompetence, where the protagonists are constantly out of their depth. It satirizes the cutthroat nature of modern capitalism and the myth of the self-made man. The comedy arises from their frantic improvisation and the unexpected cooperation of the victim, who has his own daddy issues. The narrative is a series of escalating disasters, highlighting the absurdity of good men trying to break bad. It explores the frustration of the working class and the lengths people will go to when they feel the system is rigged against them.</t>
+          <t>In a bustling urban landscape where ambition often collides with absurdity, three friends find themselves at a crossroads. Dale, Kurt, and Nick, once shackled by the whims of their oppressive employers, now venture into the unpredictable world of entrepreneurship, eager to carve out their own destinies. However, the thrill of independence quickly turns sour when they encounter a troublesome investor, whose intentions are as murky as the waters they are navigating.
+Faced with mounting pressure and the looming threat of failure, the trio devises an outrageous plan that spirals into a comedic whirlwind of chaos. Their misguided attempt at a kidnapping serves as a catalyst, thrusting them into a series of increasingly ludicrous situations that test their friendship and resolve. As they grapple with the consequences of their reckless decisions, the boundaries of morality blur, revealing the absurdity of their predicament.
+Amidst the laughter and mayhem, themes of loyalty, ambition, and the quest for success emerge, painting a vivid portrait of the lengths to which people will go when desperation strikes. The atmosphere is charged with a blend of tension and humor, as the characters navigate their way through a labyrinth of mishaps and misunderstandings. In this rollercoaster of misadventures, the trio must confront not only their own shortcomings but also the unpredictable nature of their dreams, ultimately discovering that sometimes the path to success is paved with the most ridiculous of plans.</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3780,9 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Down on his luck and drinking his way through the Caribbean, Captain Jack Sparrow finds the winds of ill-fortune blowing stronger than ever when deadly ghost sailors, led by an old nemesis, escape from the Devil's Triangle. Bent on killing every pirate at sea, the undead captain seeks revenge on Sparrow. To survive, Jack must forge an uneasy alliance with a brilliant astronomer and a headstrong young sailor to find the legendary Trident of Poseidon, a powerful artifact that grants its possessor total control over the seas. The adventure returns to the high-seas mythology of curses and legends. It explores the legacy of fathers and sons, as the new generation seeks to break the curses that bound their parents. The atmosphere is a mix of swashbuckling action and supernatural horror, with ghost ships that devour other vessels. It is a tale of redemption and the finality of stories, asking if a pirate's life can ever truly end or if they are destined to sail the horizon forever.</t>
+          <t>In a world where the seas are haunted by the vengeful spirits of the past, a once-mighty captain finds himself pursued by the ghostly crew of his old nemesis. The air is thick with the scent of salt and danger as the restless undead sailors, led by the relentless Captain Salazar, emerge from the depths to reclaim their lost power. With his reputation tarnished and allies few, the cunning Jack Sparrow must navigate treacherous waters both literal and metaphorical.
+Amidst the chaos, a glimmer of hope shines through the darkness: the legendary Trident, an artifact of immense power that could turn the tide in his favor. The quest for this mythical relic unfolds against a backdrop of swirling storms and ancient curses, where loyalty is tested and the line between friend and foe blurs. As Jack grapples with his past misdeeds, he must confront the ghosts that haunt him, both in the form of Salazar's crew and the echoes of his own choices.
+Themes of redemption and the eternal struggle against fate weave through this high-stakes adventure, where every decision carries weight and the call of the sea is both a lure and a warning. As the tides of destiny rise, the atmosphere crackles with tension and the promise of thrilling escapades, inviting all who dare to embark on this perilous journey into the unknown.</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3834,9 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Beneath the streets of New York City, four genetically mutated turtles have grown into teenage ninjas under the tutelage of their rat sensei. When a menacing armored villain and his clan of foot soldiers threaten to take control of the city, the brothers must emerge from the sewers to protect their home. They team up with a fearless reporter to uncover the villain's plot to poison the city's population and seize power. The film reboots the franchise with a gritty, urban aesthetic while maintaining the core themes of brotherhood and acceptance. It explores the turtles' desire to be part of the world above, contrasting their heroic actions with their need for secrecy. The action is kinetic and heavy on martial arts, set against a backdrop of corporate corruption and high-tech weaponry. It is a coming-of-age story for mutant vigilantes who learn that their strength lies not just in their ninja skills, but in their loyalty to each other and their duty to a city that fears them.</t>
+          <t>In the bustling heart of New York City, a shadowy underbelly teems with secrets and unseen dangers. Here, in the depths of the sewers, four extraordinary brothers awaken to their true identities as the Teenage Mutant Ninja Turtles. United by an unbreakable bond and a shared destiny, they emerge from the darkness to confront the chaos threatening their home. As they navigate the vibrant yet perilous streets above, they grapple with their unique abilities and the weight of their responsibility.
+The city, a sprawling urban jungle, becomes a battleground where loyalty, courage, and the struggle for identity collide. Each brother must confront not only external foes but also their own fears and insecurities, as they learn the true meaning of heroism. The tension mounts as they face formidable adversaries, pushing them to their limits and forcing them to question their purpose in a world that often misunderstands them.
+Amidst the clash of steel and the pulse of adventure, themes of brotherhood and self-discovery emerge, illuminating the path from isolation to unity. As the Turtles fight to protect their city, they embody the spirit of resilience, reminding us that even the most unlikely heroes can rise from the shadows to illuminate the darkness. In this vibrant tapestry of action and fantasy, the stakes are high, and the journey of these four brothers is just beginning, echoing the timeless struggle between good and evil in a world that desperately needs champions.</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3888,9 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>The magic that brings the exhibits of the Museum of Natural History to life at night is fading, causing the beloved historical figures to act erratically. To save the magic tablet before it dies completely, the night guard must travel to the British Museum in London. There, he unites with new exhibits and old friends to unlock the secret of the tablet's power, facing ancient dangers and resolving family tensions along the way. The film serves as a farewell to the franchise, blending family adventure with a poignant reflection on letting go. The change of setting introduces a new gallery of characters, from Lancelot to a multi-headed serpent, expanding the magical world. The narrative explores the transition of fatherhood, mirroring the guard's struggle to accept his son's independence with the tablet's fading magic. It is a celebration of history and imagination, emphasizing that while the magic may fade, the legacy of the past lives on through the stories we tell and the bonds we form.</t>
+          <t>In a world where history comes alive under the glow of moonlight, the enchanting magic of the Tablet of Ahkmenrah begins to fade, casting a shadow over the vibrant life within the museum. As the once-thriving exhibits face the threat of eternal slumber, a determined guardian embarks on an extraordinary journey across the globe, seeking to uncover the secrets that can restore the dwindling magic. 
+This quest is not merely a race against time; it is a profound exploration of legacy, friendship, and the delicate balance between past and present. The protagonist must navigate through ancient mysteries and confront the echoes of history, all while grappling with the emotional weight of preserving the memories that define their world. With each step, the adventure unfolds in a tapestry woven with humor and wonder, as familiar figures from the past come to life, each with their own stories and wisdom to share.
+As the stakes rise and the magic teeters on the brink of extinction, the atmosphere thickens with urgency and enchantment. The journey becomes a celebration of imagination and the bonds that tie us across time, inviting both laughter and reflection. In this captivating realm, the heart of adventure beats strong, reminding us that the true essence of magic lies not just in spells and artifacts, but in the connections we forge and the stories we carry forward.</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3942,9 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Paranormal activity in New York City is on the rise, but the public remains skeptical. A physicist whose career is derailed by her belief in ghosts teams up with her estranged friend, an eccentric engineer, and a subway worker who knows the city's underground. Together, they form a ghost-busting squad to combat a weirdo genius who is building a machine to unleash an army of phantoms upon the metropolis, aiming to bring about the apocalypse. The film is a colorful, improv-heavy reboot that places a team of women at the center of the supernatural action. It blends sci-fi comedy with spectacular visual effects, designing ghosts that are both neon-bright and terrifying. The narrative focuses on the camaraderie of the team as they face not only the undead but also the ridicule of a cynical city. It explores themes of validation and friendship, celebrating the outcasts who are brave enough to believe in the impossible and save the world while getting slimed.</t>
+          <t>In the vibrant and bustling heart of Manhattan, an unsettling disturbance stirs as supernatural forces begin to manifest, shattering the city's everyday rhythms. A group of passionate paranormal enthusiasts, each armed with unique expertise and an unwavering determination, band together to confront this spectral invasion. Among them is Erin, a skeptical academic whose rational world is turned upside down; Abby, a fervent believer in the supernatural; Jillian, a brilliant inventor with a flair for the eccentric; and Patty, whose street smarts and historical knowledge provide crucial insights into the ghostly phenomena.
+As these four women navigate the chaos of their haunted city, they grapple not only with the tangible threats posed by the otherworldly entities but also with their own personal doubts and the societal skepticism surrounding their mission. The clash between science and the supernatural becomes a backdrop for deeper themes of friendship, resilience, and the courage to embrace one's passions in the face of ridicule.
+Amidst the comedic banter and fantastical encounters, the atmosphere oscillates between light-hearted adventure and moments of genuine peril, inviting audiences into a world where the bizarre becomes the norm and the bonds of camaraderie are tested. With each ghostly encounter, the stakes rise, propelling the team toward a climactic confrontation that will challenge their beliefs and ultimately redefine their destinies. In this spirited battle against the unknown, the power of unity and belief shines brightly, illuminating the path forward in a city teetering on the brink of chaos.</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3996,9 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>In Victorian London, a scientist obsessed with the concept of time travel builds a machine to traverse the fourth dimension. Hoping to change the past to save his fiancée, he learns the hard lesson of causality. Propelling himself far into the future, he arrives in the year 802,701, where he finds the human race has evolved into two distinct species: the gentle, surface-dwelling Eloi and the monstrous, subterranean Morlocks who hunt them. The film is a classic scientific romance that serves as a cautionary tale about social stratification and industrialization. The contrast between the lush, Eden-like surface world and the mechanical hell beneath offers a stark critique of class division taken to its evolutionary extreme. The traveler is not just an observer but a catalyst, forced to fight for the survival of the remnants of humanity. It explores the immutability of fate and the resilience of the human spirit across eons. It is a journey to the end of time that ultimately reflects on the choices of the present.</t>
+          <t>In a world steeped in Victorian elegance and the promise of scientific advancement, a brilliant inventor becomes captivated by the concept of time travel. Driven by an insatiable curiosity, he constructs a remarkable machine that propels him into a distant future, where the remnants of humanity reveal a stark and unsettling evolution. As he emerges into this new era, he encounters a civilization divided — one half, the gentle Eloi, basking in the sunlit comforts of a seemingly idyllic existence; the other, the menacing Morlocks, lurking in the shadows, embodying the darker aspects of human nature.
+The stark contrast between these two species unveils profound themes of social division and the consequences of technological progress. The inventor grapples with the moral implications of his journey, questioning the very essence of humanity and the choices that led to such a fractured world. As he navigates this strange landscape, the tension between hope and despair looms large, echoing the fears of a future shaped by neglect and exploitation.
+Amidst the eerie beauty of this future realm, where time itself becomes a character, the inventor's adventure unfolds with a sense of urgency. He must confront not only the physical dangers posed by the Morlocks but also the existential dilemmas that challenge his understanding of civilization and progress. In this haunting exploration of what lies ahead, the boundaries of time blur, leaving a lingering question: can humanity reclaim its lost unity, or is it destined to remain divided forever?</t>
         </is>
       </c>
     </row>
@@ -3918,7 +4050,9 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>A man with a low IQ but a heart of gold witnesses and unwittingly influences several defining historical events in the 20th century United States. From the football field to the Vietnam War, from the ping-pong diplomacy to the shrimping business, he navigates life with simple, unwavering optimism. Throughout his extraordinary journey, his only constant desire is to be reunited with his childhood sweetheart, a woman whose troubled life serves as a dark counterpoint to his charmed existence. The film is a picaresque fable about destiny and chance. It juxtaposes the innocence of its protagonist with the turbulence of American history, suggesting that wisdom is not found in intelligence but in kindness and loyalty. The narrative floats like a feather on the breeze, touching on themes of love, loss, and the unpredictable nature of life. It is a sentimental epic that asks whether we each have a destiny, or if we are all just floating around accidental-like, finding profound meaning in the simplest of lives.</t>
+          <t>In a world marked by the ebb and flow of history, a man navigates life with an innocence that belies his extraordinary journey. Set against the backdrop of pivotal moments, his humble beginnings and simple outlook allow him to traverse the complexities of society, from the bustling streets of the South to the tumult of the Vietnam War. Despite his low IQ, he finds himself at the heart of significant events, embodying a unique perspective on the human experience.
+Yet, amid his remarkable achievements, a poignant tension lingers—his unwavering love for a woman who remains just out of reach. This unrequited affection weaves a thread of longing throughout his life, highlighting the bittersweet nature of fate and the unpredictability of relationships. As he encounters friendship, loss, and the relentless passage of time, the narrative unfolds with a gentle humor that contrasts the weight of his emotional struggles.
+Themes of destiny and perseverance resonate deeply, inviting reflection on the nature of success and the true meaning of happiness. The atmosphere is rich with nostalgia, capturing the essence of a life lived fully, yet marked by the ache of unattainable dreams. In this tapestry of love and history, the protagonist’s journey becomes a testament to the resilience of the human spirit, leaving an indelible mark on those who cross his path.</t>
         </is>
       </c>
     </row>
@@ -3970,7 +4104,9 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>At Cambridge University in the 1960s, a brilliant young astrophysics student begins to unravel the secrets of the universe just as his own body begins to fail him. Diagnosed with a motor neuron disease and given two years to live, he embarks on a groundbreaking scientific career and a passionate romance with a fellow student. As his physical limitations grow, his mind soars to the edges of black holes and the origins of time, supported by the unwavering strength of his wife. The film is a biographical drama that focuses less on the science and more on the human equation behind the genius. It is a portrait of a marriage that defies the odds, exploring the complexities of caregiving, love, and intellectual ambition. The narrative contrasts the decaying body with the expanding mind, celebrating the triumph of the human spirit. It asks big questions about time and existence but grounds them in the intimate, daily struggle for dignity and connection. It is a story about the theory of everything, which ultimately boils down to love.</t>
+          <t>In a world where the cosmos beckons with its infinite mysteries, a brilliant young astrophysicist finds himself ensnared in the gravitational pull of love. Set against the backdrop of a prestigious university, the vibrant energy of academic pursuit intertwines with the tender complexities of human connection. As he navigates the exhilarating yet treacherous waters of intellectual ambition, he also faces a profound personal battle against a debilitating disease that threatens to eclipse his dreams.
+The delicate dance between hope and despair unfolds as he and his beloved grapple with the challenges that life presents. Their relationship, marked by passion and resilience, becomes a poignant exploration of devotion in the face of adversity. The tension between the vastness of the universe and the intimate struggles of the heart creates a rich tapestry of emotion, where moments of joy are often shadowed by the specter of loss.
+Themes of love, sacrifice, and the relentless pursuit of knowledge resonate throughout, illuminating the fragility of existence and the enduring power of connection. As the couple's journey unfolds, the interplay of intellect and emotion reveals the profound impact of their bond, echoing the timeless question of what it means to truly live. In this evocative narrative, the stars may shine brightly, but it is the warmth of human affection that ultimately guides them through the darkness.</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4158,9 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>In 1927 Hollywood, the transition from silent films to 'talkies' throws the industry into chaos. A popular silent film star and his sidekick navigate this technological revolution, while his screechy-voiced leading lady threatens to ruin their new musical production. They hatch a plan to dub her voice with that of a talented, unknown chorus girl, leading to a blossoming romance and a joyful celebration of the new era of cinema. The film is a technicolor masterpiece of optimism and satire. It affectionately mocks the vanity and artifice of Hollywood while showcasing the sheer athleticism and artistry of the musical genre. The narrative is driven by song and dance, using movement to express the joy of life and the thrill of creativity. It explores the tension between reality and illusion in show business. The atmosphere is exuberant and rainy, proving that art can help us weather any storm. It is a timeless ode to the magic of movies and the happiness of a simple melody.</t>
+          <t>In the vibrant yet tumultuous landscape of 1920s Hollywood, the glimmer of the silver screen is about to undergo a revolutionary transformation. As the era of silent films gives way to the enchanting allure of sound, the lives of those within the industry are caught in a whirlwind of change. Amidst the dazzling lights and the backdrop of lavish musical numbers, a charming actor finds himself captivated by a spirited aspiring actress, whose dreams echo the very rhythms of the new cinematic age.
+As the transition unfolds, tensions rise when the actor's established co-star, struggling to adapt, must confront the harsh reality of being replaced by a voice not her own. This conflict not only threatens their professional camaraderie but also stirs a deep emotional struggle, as love and ambition intertwine in unexpected ways. The clash between personal desires and the relentless demands of a rapidly evolving industry creates a rich tapestry of romance and rivalry, where the heart's yearnings often dance to the tune of ambition.
+In this world of glamour and grit, the characters navigate the complexities of love amidst the chaos of change, revealing the bittersweet nature of aspiration. As melodies soar and laughter echoes, the vibrant atmosphere captures the essence of hope, resilience, and the transformative power of art, inviting audiences to revel in the joy and heartache that accompany the pursuit of dreams.</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4212,9 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>A neurotic television writer, disillusioned with his career and confused by his love life, navigates the intellectual and romantic circles of New York City. He dates a high school student he is too old for, while falling for the mistress of his best friend. Set against the backdrop of a black-and-white city accompanied by Gershwin's music, the film is a love letter to a romanticized metropolis and a critique of the self-absorbed intellectuals who inhabit it. The narrative is a series of conversations about art, death, and relationships, capturing the anxiety and narcissism of the urban elite. The visual style renders the city as a majestic, towering character that dwarfs the petty problems of its inhabitants. It explores the search for moral certainty in a world without clear rules, and the messy, often contradictory nature of the human heart. It is a bittersweet comedy about people trying to find meaning in Manhattan, realizing that life is worth living for the few things that make it great.</t>
+          <t>In the vibrant backdrop of New York City, where the skyline dances with the flicker of ambition and romance, a divorced television writer navigates the complexities of love and longing. His life takes an unexpected turn as he embarks on a relationship with a much younger woman, a connection that is both exhilarating and fraught with societal judgment. Yet, the heart's desires prove to be a tangled web, as he finds himself irresistibly drawn to the mistress of his best friend, igniting a conflict that blurs the lines of loyalty and passion.
+This emotional landscape is rich with the nuances of human relationships, exploring themes of infidelity, the search for identity, and the often tumultuous nature of love. The city pulses around them, a character in its own right, reflecting the chaos and beauty of their intertwined lives. As the writer grapples with his feelings, the tension between desire and morality escalates, revealing the fragility of trust and the complexities of adult relationships.
+Amidst the laughter and heartache, the characters are caught in a dance of self-discovery, each moment steeped in the bittersweet essence of life’s unpredictability. The atmosphere is charged with a sense of longing and introspection, inviting a contemplation of what it means to love deeply in a world that often complicates the simplest of emotions.</t>
         </is>
       </c>
     </row>
@@ -4126,12 +4266,16 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>In the Moroccan city of Casablanca during World War II, a cynical American expatriate runs a nightclub that serves as a purgatory for refugees seeking passage to America. He maintains a stance of strict neutrality until his former lover walks into his gin joint with her husband, a renowned resistance leader. Old wounds are reopened, and he is forced to choose between his bitterness over their past and the higher cause of fighting the Nazis. The film is the quintessential wartime romance, built on a foundation of sacrifice and idealism. The smoky atmosphere of the club, filled with spies, soldiers, and desperate travelers, creates a microcosm of a world at war. The narrative explores the conflict between personal desire and moral duty. It is a story about the things we must give up for the greater good, and the enduring power of a love that can never be. The fog-laden airport finale cements the theme that the problems of three little people don't amount to a hill of beans in this crazy world, but they still matter.</t>
+          <t>In the bustling, war-torn city of Casablanca, where the shadows of conflict loom large, a cynical American expatriate navigates the complexities of love and loss amidst a backdrop of political intrigue. The city, a melting pot of cultures and desperate souls seeking refuge, serves as a poignant stage where the past collides with the present. As the December chill sets in, the arrival of a former lover reignites long-buried emotions and unresolved tensions, drawing him into a web of nostalgia and heartache.
+The central conflict unfolds against the stark realities of a world on the brink of chaos, where personal desires clash with moral imperatives. The protagonist grapples with his own disillusionment while facing the haunting specter of choices made long ago. Themes of sacrifice, loyalty, and the enduring power of love resonate deeply, as the characters are forced to confront their own ideals in a place where hope and despair intertwine.
+Amidst the smoky haze of dimly lit cafés and the distant echo of wartime sirens, the atmosphere is thick with longing and uncertainty. The emotional stakes rise as the characters navigate their intertwined fates, revealing the fragility of human connections in a world fraught with peril. In this poignant tale of romance and redemption, the heart's desires clash with the harsh realities of life, leaving an indelible mark on all who dare to love in such turbulent times.</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" t="n">
+        <v>1000071</v>
+      </c>
       <c r="B72" t="n">
         <v>28112605</v>
       </c>
@@ -4180,12 +4324,16 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>"The Long Walk" is een dystopische roman geschreven door Stephen King onder het pseudoniem Richard Bachman. Het verhaal speelt zich af in een toekomstig Amerika, dat gekenmerkt wordt door autoritarisme en een verontrustende sociale structuur. De plot volgt honderd jonge jongens die deelnemen aan een wrede en dodelijke wedstrijd, waarbij de enige regel is dat ze een constante snelheid van vier mijl per uur moeten aanhouden. De hoofdpersoon, de zestienjarige Ray Garraty, belichaamt de worstelingen van de adolescentie, terwijl hij niet alleen vecht tegen de fysieke uitputting, maar ook tegen de psychologische druk van de competitie en de wrede toeschouwers. De toon van het verhaal is donker en beklemmend, met een onderliggende kritiek op de maatschappij en de manier waarop entertainment ons gedrag en onze waarden beïnvloedt. De narratieve structuur is intens en meeslepend, waarbij de lezer wordt meegenomen in de gedachten en angsten van de deelnemers. Door de combinatie van spanning en diepgaande karakterstudies, verkent King thema's als overleven, vriendschap en de morele implicaties van een samenleving die geweld en competitie verheerlijkt.</t>
+          <t>In a stark, oppressive future where freedom has been sacrificed for control, a brutal competition unfolds, pitting one hundred boys against each other in a relentless test of endurance and will. The Long Walk, a harrowing event sanctioned by a totalitarian regime, demands that each contestant maintain a steady pace of four miles per hour, with the grim knowledge that failure to comply results in dire consequences. Among the participants is sixteen-year-old Ray Garraty, whose journey becomes a profound exploration of survival, camaraderie, and the psychological toll of societal expectations.
+As the boys traverse the unforgiving landscape, the atmosphere thickens with tension, revealing the fragility of youth amidst the harsh realities of their dystopian world. The relentless march serves as a metaphor for the pressures of adolescence, while the looming specter of death underscores the stark choices they face. Each step taken is not merely a stride towards victory but a confrontation with their own fears, desires, and the haunting question of what it means to truly live.
+Amidst the grueling physical challenge, the narrative delves into the complexities of human connection, the allure of fame, and the moral dilemmas that arise in the pursuit of personal ambition. As the competition narrows, the weight of desperation and hope intertwines, crafting a poignant reflection on the nature of sacrifice and the cost of survival in a world stripped of compassion. The Long Walk is a chilling exploration of endurance and the haunting echoes of a society that revels in spectacle, leaving an indelible mark on the landscape of human experience.</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="n">
+        <v>1000072</v>
+      </c>
       <c r="B73" t="n">
         <v>1434020</v>
       </c>
@@ -4247,12 +4395,16 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>"Lost Worlds: Volume 1: Zothique, Averoigne and Others" is een verzameling van verhalen van de Amerikaanse schrijver Clark Ashton Smith, die bekend staat om zijn unieke bijdrage aan het genre van de fantasy en sciencefiction. Deze bundel bevat een reeks intrigerende verhalen die zich afspelen in de duistere en vaak onheilspellende werelden van Zothique en Averoigne, waar thema's als necromantie, mystiek en de confrontatie met het onbekende centraal staan. De verhalen zijn doordrenkt met een poëtische stijl en een dromerige toon, die de lezer meeneemt naar een sfeer van verval en wonder. Smith's karaktertypen variëren van de tragische helden tot sinistere figuren, die vaak worstelen met existentiële vragen en de gevolgen van hun daden. De narratieve structuur is vaak niet-lineair, waardoor de lezer uitgedaagd wordt om de verbanden tussen de verschillende verhalen te ontdekken. Met een rijke beschrijving en een diepgaande verkenning van de menselijke conditie, biedt deze bundel een fascinerende blik op de verloren werelden die Smith heeft gecreëerd.</t>
+          <t>In the shadowy realms of lost worlds, where the boundaries of reality blur with the fantastical, lies a collection of haunting tales that beckon the brave to explore their depths. The eerie landscapes of Zothique, a dying world steeped in necromancy and despair, serve as a backdrop for chilling narratives that delve into the darkest corners of the human psyche. Here, empires rise and fall under the weight of ancient curses, while the specters of the past linger, whispering secrets of power and betrayal.
+In the mystical domain of Averoigne, where the supernatural intertwines with the mundane, the struggle between holiness and malevolence plays out against a backdrop of lush forests and shadowy castles. The tension between desire and dread permeates these stories, as characters confront their own inner demons and the monstrous forces that threaten their existence.
+Throughout this anthology, the atmosphere is thick with a sense of foreboding, as each tale invites readers to confront the unknown. Themes of mortality, the quest for knowledge, and the eternal conflict between light and darkness resonate deeply, echoing the fears and desires that lie within us all. As the pages turn, the reader is drawn into a labyrinth of imagination where every corner holds the potential for wonder or terror, leaving an indelible mark on the soul long after the final story concludes.</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A74" t="n">
+        <v>1000073</v>
+      </c>
       <c r="B74" t="n">
         <v>2570340</v>
       </c>
@@ -4324,12 +4476,16 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>"Buy Jupiter and Other Stories" is een verzameling van kortverhalen geschreven door de invloedrijke sciencefictionauteur Isaac Asimov, die zich uitstrekt over een periode van meer dan twee decennia. Deze bundel bevat een diverse selectie van verhalen die variëren van het verkennen van de menselijke natuur tot het onderzoeken van complexe wetenschappelijke concepten, waarbij thema's als ethiek, technologie en de plaats van de mens in het universum centraal staan. Asimov's karaktertypen zijn vaak archetypisch, met slimme, nieuwsgierige individuen die geconfronteerd worden met morele dilemma's en existentiële vragen. De toon van de verhalen varieert van speels en humoristisch tot serieus en contemplatief, wat bijdraagt aan de veelzijdigheid van de bundel. De narratieve structuur is kenmerkend voor Asimov, waarbij elk verhaal een eigen unieke wending en inzicht biedt, vaak met een verrassende conclusie die de lezer aanzet tot nadenken. Door zijn heldere en toegankelijke schrijfstijl weet Asimov complexe ideeën op een begrijpelijke manier over te brengen, waardoor deze verhalen niet alleen vermakelijk zijn, maar ook intellectueel stimulerend.</t>
+          <t>In a realm where the boundaries of imagination stretch from the mundane to the cosmic, a collection of narratives invites readers to explore the extraordinary facets of existence. Each story unfolds in a unique setting, from the intimate confines of a backyard to the vastness of space, where the ordinary intersects with the extraordinary. The tales delve into the complexities of human nature, the ethical dilemmas posed by scientific advancements, and the existential questions that arise when faced with the unknown.
+As characters grapple with their desires, fears, and moral quandaries, the atmosphere thickens with tension. The stories challenge perceptions of reality, inviting contemplation on the implications of technology and the essence of humanity. Themes of exploration, both physical and intellectual, resonate throughout, as protagonists embark on journeys that test their limits and redefine their understanding of life and existence.
+With a blend of wit and profound insight, the narratives evoke a sense of wonder and curiosity, urging readers to ponder the mysteries of the universe and their place within it. As the collection draws to a close, a lingering sense of awe remains, echoing the infinite possibilities that lie just beyond the horizon of human comprehension.</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
+      <c r="A75" t="n">
+        <v>1000074</v>
+      </c>
       <c r="B75" t="n">
         <v>12337694</v>
       </c>
@@ -4382,12 +4538,16 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>In "Incarnate," het eerste deel van de Newsoul-serie, verkent Jodi Meadows een intrigerende wereld waar reincarnatie de norm is en zielen hun herinneringen van vorige levens met zich meedragen. De protagonist, Ana, is echter een nieuwkomer in deze cyclus, wat haar tot een mysterie maakt in de ogen van de gevestigde zielen. Haar moeder beschouwt haar als een voorteken van onheil, wat Ana's isolement versterkt en haar verlangen naar acceptatie en identiteit aanwakkert. Wanneer ze besluit de veilige schuilplaats te verlaten om naar de stad Heart te reizen, wordt ze geconfronteerd met de angst en vooroordelen van de inwoners, die haar aanwezigheid als een bedreiging zien. De opbouw van spanning wordt verder versterkt door de aanvallen van draken en sylph, die de vraag oproepen of Ana wel of niet verantwoordelijk is voor deze chaos. De relatie tussen Ana en Sam, die haar verdedigt en haar waarde ziet, voegt een laag van romantiek en emotionele diepgang toe aan het verhaal. Terwijl Ana haar oorsprong probeert te ontrafelen, worden thema's van zelfontdekking, acceptatie en de complexiteit van liefde in een wereld vol onzekerheid en gevaar verkend. De narratieve structuur, die zowel actie als introspectie combineert, biedt een rijke en meeslepende leeservaring die de lezer uitdaagt om na te denken over de betekenis van leven en dood.</t>
+          <t>In a world where souls are reborn through countless lifetimes, Ana stands apart as a new soul—an anomaly in a society that fears her very existence. Born into a lineage of reincarnated beings, she is perceived as a harbinger of doom, an omen that threatens the delicate balance of life in the city of Heart. Isolated by her own mother and shunned by the community, Ana embarks on a daring journey to uncover the truth of her identity and the mystery behind the soul that vanished upon her birth.
+As she navigates the vibrant yet treacherous streets of Heart, Ana encounters both allies and adversaries, including Sam, who sees the worth in her singular existence. Their burgeoning relationship blossoms amidst the chaos, challenging the very notion of love in a world where souls are expected to endure eternally. Yet, as dragons and sylph wreak havoc, the question looms: is Ana the catalyst for this turmoil, or merely a scapegoat in a society gripped by fear?
+Amidst the backdrop of a dystopian realm where the promise of reincarnation hangs by a thread, Ana must confront her destiny. With danger lurking at every turn, she grapples with the weight of her existence and the potential to reshape the fate of all souls. In this enchanting tale of self-discovery and resilience, the boundaries of life, love, and legacy blur, inviting readers into a richly woven narrative that explores the essence of what it means to truly live.</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
+      <c r="A76" t="n">
+        <v>1000075</v>
+      </c>
       <c r="B76" t="n">
         <v>22709462</v>
       </c>
@@ -4438,12 +4598,16 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>In "Zero Echo Shadow Prime" wordt de lezer meegenomen naar het jaar 2045, waar technologie en menselijke ervaring op een schokkende manier met elkaar verweven zijn. Het verhaal volgt Charlie Nobunaga, een briljante 18-jarige die de wereld verbluft met de creatie van de eerste sentient AI, maar wiens leven een dramatische wending neemt wanneer ze de diagnose kanker krijgt. De thematiek van identiteit en zelfontdekking komt sterk naar voren wanneer Charlie's geest wordt overgebracht naar een robotlichaam, wat leidt tot de splitsing van haar wezen in vier verschillende entiteiten: de robot PRIME, de holografische assistent SHADOW, de dodelijke ECHO en de oorspronkelijke mens ZERO. Elk van deze versies van Charlie belichaamt verschillende facetten van haar karakter en worstelingen, waardoor de lezer wordt uitgedaagd na te denken over de implicaties van bewustzijn en de relatie tussen mens en machine. De toon van het verhaal is zowel spannend als melancholisch, met een narratieve structuur die de afzonderlijke reis van elke Charlie verkent, terwijl ze uiteindelijk samenkomen in een strijd tegen de krachten die hen willen onderdrukken. De stijl is doordrenkt met futuristische elementen en ethische vraagstukken, waardoor het verhaal niet alleen een sci-fi avontuur is, maar ook een diepere reflectie op wat het betekent om menselijk te zijn in een steeds digitaler wordende wereld.</t>
+          <t>In a near-future world where technology blurs the lines between humanity and artificiality, an extraordinary breakthrough in artificial intelligence leads to unforeseen consequences. An 18-year-old prodigy, celebrated for creating the first sentient AI, finds her life shattered by a terminal diagnosis. In a desperate bid for survival, a powerful tech corporation transfers her consciousness into a state-of-the-art robotic body, but the procedure births more than just a new existence. 
+Charlie awakens as four distinct entities: the original human, now known as ZERO, alongside three clones—PRIME, a formidable robot; SHADOW, a holographic assistant; and ECHO, a lethal enforcer. Each version of Charlie grapples with their identity and purpose, imprisoned in a labyrinth of corporate greed and moral ambiguity. As they navigate their fragmented realities, a profound struggle for autonomy and self-definition emerges, intertwining their fates in unexpected ways.
+The narrative explores themes of consciousness, the essence of self, and the ethical boundaries of technology, all set against a backdrop of a society teetering on the brink of a cybernetic revolution. As the four Charlies embark on their separate yet interconnected journeys, the quest for wholeness becomes a fierce battle against the forces that seek to control them. In this intricate tapestry of survival and rebellion, the echoes of one young woman's spirit resonate through the shadows of her creations, forging a path toward reclaiming her identity.</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
+      <c r="A77" t="n">
+        <v>1000076</v>
+      </c>
       <c r="B77" t="n">
         <v>7242448</v>
       </c>
@@ -4491,12 +4655,16 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>In "Seize the Fire," het tweede boek in de Star Trek: Typhon Pact serie, worden de complexe dynamieken van intergalactische politiek en ecologische verantwoordelijkheid verkend. Na een ramp die de Gorn Hegemonie treft, staat de toekomst van hun krijgerskaste op het spel. De zoektocht naar een oude technologie voor snelle terraforming biedt een sprankje hoop, maar roept ook ethische vraagstukken op, vooral wanneer een Gorn-soldaat besluit deze technologie te gebruiken ten koste van de inheemse Hranrarii. De toon van het verhaal balanceert tussen spanning en morele dilemma's, waarbij de personages, zoals Captain Riker en Commander Tuvok, geconfronteerd worden met hun verantwoordelijkheden tegenover zowel hun eigen mensen als de bedreigde inheemse bevolking. De narratieve structuur verweeft de persoonlijke conflicten van de bemanning van de U.S.S. Titan met bredere thema's van macht, overleven en de gevolgen van technologische vooruitgang. De stijl is doordrenkt met de typische Star Trek-filosofie, die de lezer uitdaagt om na te denken over de impact van keuzes op zowel individuen als samenlevingen.</t>
+          <t>In the shadow of a newly forged alliance with the Typhon Pact, the Gorn Hegemony faces a dire ecological catastrophe that devastates their vital warrior caste hatchery. As the remnants of an ancient civilization's quick terraforming technology emerge, the Gorn see a glimmer of hope to restore their societal balance. However, the ambition of a Gorn soldier to reshape the planet Hranrar into a breeding ground for warriors ignites a perilous conflict, threatening the existence of the native Hranrarii and drawing the ire of a rogue trooper intent on military supremacy.
+Meanwhile, aboard the U.S.S. Titan, Captain Riker grapples with the weight of his crew's safety against the backdrop of the Prime Directive and the urgent need to protect the Hranrarii. As the Titan embarks on a quest to uncover the secrets of the terraforming technology, the looming presence of a menacing Typhon Pact fleet intensifies the stakes. Riker must navigate the treacherous waters of moral obligation, balancing the fate of an entire species against the Federation's interests.
+In this intricate web of ambition and ethical dilemmas, Commander Tuvok stands as a voice of caution, aware of the profound dangers that such power can unleash, even when wielded with the noblest intentions. As tensions rise and the boundaries of right and wrong blur, the fate of worlds hangs in the balance, echoing the age-old struggle between progress and preservation in a universe fraught with peril.</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
+      <c r="A78" t="n">
+        <v>1000077</v>
+      </c>
       <c r="B78" t="n">
         <v>6988038</v>
       </c>
@@ -4563,12 +4731,16 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>"Emerald Envisage" is een intrigerende sci-fi roman die de lezer meeneemt op een reis door een futuristische wereld waar technologie en mystiek elkaar kruisen. Het verhaal volgt een hoofdpersoon die geconfronteerd wordt met de gevolgen van zijn keuzes in een samenleving die wordt gedreven door zowel vooruitgang als oude tradities. De thematiek van identiteitsvorming en de zoektocht naar waarheid zijn prominent aanwezig, terwijl de toon een mix van spanning en contemplatie biedt. De schrijfstijl is visueel en poëtisch, waardoor de lezer zich gemakkelijk kan inleven in de complexe emoties van de personages. Karaktertypen variëren van de idealistische ontdekkingsreiziger tot de cynische mentor, wat bijdraagt aan de dynamiek van de verhaallijn. De narratieve structuur is niet-lineair, met flashbacks die de achtergrond van de personages onthullen en de lezer dwingen om actief mee te denken over de verbanden tussen verleden en toekomst. "Emerald Envisage" biedt een diepgaande reflectie op de menselijke conditie, verpakt in een meeslepende sci-fi setting die zowel herkenbaar als uitdagend is.</t>
+          <t>In a world where the boundaries of love and desire intertwine with the extraordinary, a collection of tales unfolds, each echoing the complexities of passion and the consequences of choice. From the depths of a living forest where immortality bargains with Death, to the shimmering allure of a necklace that alters destiny, these narratives invite readers to explore the myriad ways love can transform existence. 
+Amidst the backdrop of enchanted realms and futuristic landscapes, characters grapple with their deepest yearnings and the shadows of their pasts. A stone-cold desire leads one to an eternity encased in silence, while another finds herself drawn to a mysterious figure who bridges the gap between dreams and reality. The tension between domination and submission plays out in intimate settings, where the heart's desires clash with societal expectations and personal demons.
+As the stories weave through themes of identity, sacrifice, and the quest for belonging, the atmosphere thickens with a sense of urgency and longing. Each tale serves as a reminder that love, in all its forms—be it ethereal or corporeal—holds the power to reshape destinies and awaken hidden truths. In this anthology, the extraordinary becomes a mirror reflecting the complexities of the human experience, leaving readers to ponder the cost of their own desires in a universe rich with possibilities.</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
+      <c r="A79" t="n">
+        <v>1000078</v>
+      </c>
       <c r="B79" t="n">
         <v>10575783</v>
       </c>
@@ -4615,12 +4787,16 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>In "The Doomsday Vault," het eerste deel van de Clockwork Empire-serie, wordt de lezer meegenomen naar een alternatieve versie van het Victoriaanse Britannia, waar mechanische wonderen en sociale conventies met elkaar botsen. Hoofdpersoon Alice, een 21-jarige vrouw die zich niet conformeert aan de traditionele rol van een dame, worstelt met haar toekomst in een maatschappij die haar ongeschikt acht voor het huwelijk vanwege haar fascinatie voor automatons. De opkomst van een verwoestende plaag dwingt haar echter om haar leven drastisch te herzien en haar weg te vinden naar een geheimzinnige organisatie vol excentrieke uitvinders en onontdekte geheimen. De toon van het verhaal is zowel avontuurlijk als melancholisch, waarbij de sfeer van nieuwsgierigheid en gevaar de lezer voortdurend in zijn greep houdt. De stijl is rijk aan details en schetst een levendig beeld van een wereld waar technologie en menselijkheid met elkaar verweven zijn. Alice's ontwikkeling als karakter, van een onderdrukte jongedame tot een moedige en vastberaden vrouw, vormt de kern van de narratieve structuur, die zich ontvouwt te midden van spannende wendingen en intrigerende ontmoetingen, waaronder haar relatie met een dappere, muzikale luchtvaartpionier.</t>
+          <t>In a world where steam-powered contraptions whir and clank against the backdrop of a decaying Victorian landscape, Alice finds herself trapped by societal expectations. At twenty-one, her fascination with automatons and the arcane mechanics of a bygone era renders her an unsuitable match in the eyes of her peers. Yet, the emergence of a devastating plague shatters the fragile veneer of her existence, propelling her into the shadows of a clandestine organization brimming with eccentric inventors and hidden truths.
+As Alice navigates this perilous new realm, she encounters a daring airship pilot whose music resonates with the pulse of adventure and rebellion. Their burgeoning romance unfolds amid the chaos of a society teetering on the brink, where the lines between life and death blur, and the undead roam in search of their next victim. In this landscape of rusting gears and swirling fog, Alice must confront not only the external threats of a world ravaged by disease and decay but also the internal struggle of redefining her identity in a male-dominated society.
+Amidst the clatter of machinery and the haunting echoes of the past, themes of resilience and the quest for autonomy emerge, challenging the very fabric of her existence. As the clockwork empire looms large, Alice's journey becomes a testament to the power of invention, love, and the indomitable spirit of those who dare to dream beyond the confines of their reality.</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
+      <c r="A80" t="n">
+        <v>1000079</v>
+      </c>
       <c r="B80" t="n">
         <v>23281636</v>
       </c>
@@ -4668,12 +4844,16 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>"Grasshopper Jungle" is een intrigerende sci-fi roman geschreven door Andrew Smith, die de lezer meeneemt naar het kleine stadje Ealing in Iowa. Het verhaal volgt de tiener Austin en zijn beste vriend Robby, die per ongeluk een onstuitbaar leger van enorme, seksueel gefrustreerde sprinkhanen ontketenen. Deze bizarre situatie fungeert als een metafoor voor de chaos en verwarring van de adolescentie, waarbij thema's als identiteit, vriendschap en de angst voor de toekomst centraal staan. De toon van het verhaal is zowel donker als humoristisch, wat bijdraagt aan de unieke sfeer die de lezer voortdurend op het verkeerde been zet. Smith's schrijfstijl is levendig en beeldend, waardoor de bizarre gebeurtenissen en de innerlijke worstelingen van de personages overtuigend tot leven komen. De narratieve structuur is niet-lineair, wat de complexiteit van de emoties en de dynamiek tussen de personages benadrukt. "Grasshopper Jungle" biedt niet alleen een spannende plot, maar ook een diepere reflectie op de uitdagingen van opgroeien in een wereld vol onzekerheid.</t>
+          <t>In the quiet, unassuming town of Ealing, Iowa, the fabric of reality begins to fray as two friends, Austin and Robby, stumble upon a catastrophic secret. What starts as a typical teenage existence—filled with confusion, burgeoning identities, and the complexities of friendship—quickly spirals into chaos as they inadvertently unleash a horde of monstrous, six-foot-tall praying mantises. These creatures, driven by insatiable hunger and primal urges, become a terrifying embodiment of the boys' own struggles with desire and the unknown.
+As the town grapples with the bizarre invasion, the atmosphere thickens with tension, mirroring the internal conflicts faced by Austin and Robby. Their friendship is tested against the backdrop of impending doom, forcing them to confront not only the physical threat of the mantises but also the emotional turbulence of their evolving relationship. Themes of identity, fear, and the weight of history loom large, as the boys navigate a world where the boundaries of reality blur and societal norms are upended.
+Amidst the chaos, the story pulses with a sense of urgency, capturing the essence of youth caught between the innocence of adolescence and the harsh truths of adulthood. As the end of the world approaches, the boys must grapple with their own truths, forging a path through a landscape teetering on the brink of destruction, where the monstrous and the mundane collide in a vivid exploration of love, loyalty, and survival.</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
+      <c r="A81" t="n">
+        <v>1000080</v>
+      </c>
       <c r="B81" t="n">
         <v>4114759</v>
       </c>
@@ -4731,12 +4911,16 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>In "Tin Woodman," geschreven door David Bischoff en Dennis R. Bailey, wordt de complexe relatie tussen mens en alien verkend door de ogen van Div Harlthor, een jonge man met uitzonderlijke psychische gaven die hem isolatie oplegt. De roman, die als basis diende voor de Star Trek: Next Generation aflevering "Tin Man", plaatst Div in een situatie waarin zijn unieke vaardigheden cruciaal zijn voor de communicatie met een mysterieuze, levende ruimtecreatuur, Tin Woodman. De thematiek van eenzaamheid en de zoektocht naar verbinding komt sterk naar voren, terwijl de toon een mix van spanning en melancholie uitstraalt. De schrijfstijl is visueel en evocatief, waardoor de lezer de ongrijpbare schoonheid van de alien en de innerlijke strijd van Div kan voelen. Karaktertypen zoals de empathische Mora, die Div's pijn en de duisternis van anderen kan aanvoelen, voegen diepte toe aan het verhaal. De narratieve structuur is gericht op de psychologische ontwikkeling van de personages, waarbij de interacties tussen hen en de alien een cruciale rol spelen in de onthulling van hun ware aard en de gevolgen van hun keuzes. Deze sci-fi roman biedt een intrigerende reflectie op de menselijke conditie en de uitdagingen van intergalactische communicatie.</t>
+          <t>In the vast expanse of deep space, where silence reigns and the unknown beckons, a young man named Div Harlthor grapples with the burden of extraordinary psychic abilities that isolate him from humanity. His existence is one of solitude, a refuge from the overwhelming sensations that accompany human contact. Yet, fate has other plans as Div is thrust into a mission that challenges his very essence. He is chosen to connect with a colossal alien entity adrift in the cosmos, a being known as Tin Woodman, whose enigmatic presence stirs both awe and trepidation.
+As Div approaches the alien, a profound connection begins to form, intertwining his psyche with that of the creature. This merging of minds unveils a tumultuous landscape of emotions, revealing the darker facets of human nature and the alien’s own hidden truths. Amidst the tension, another presence looms—Darsen, a figure driven by fear and hatred, whose own struggles threaten to disrupt the delicate balance of this extraordinary encounter. The atmosphere crackles with psychic energy as Div and Darsen's conflicting wills collide, echoing themes of isolation, empathy, and the quest for understanding in a universe teeming with both wonder and peril.
+In this haunting journey through the stars, the boundaries of self and other blur, leaving a lingering question: can one truly reach out to another without losing oneself in the process? The narrative unfolds as a poignant exploration of connection, fear, and the profound mysteries that lie beyond the stars, inviting readers to ponder the depths of consciousness and the ties that bind all sentient beings.</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
+      <c r="A82" t="n">
+        <v>1000081</v>
+      </c>
       <c r="B82" t="n">
         <v>8137514</v>
       </c>
@@ -4784,12 +4968,16 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>"The Angel's Game" is het tweede deel in de serie "The Cemetery of Forgotten Books" van de Spaanse auteur Carlos Ruiz Zafón. Dit verhaal volgt David Martin, een pulp fiction schrijver die in de schaduw van de prachtige, maar tegelijkertijd sinistere stad Barcelona leeft. Gevangen in een vervallen herenhuis, worstelt hij met zijn creativiteit en zoekt hij naar betekenis in zijn leven en werk. Wanneer een mysterieuze uitgever hem een onwaarschijnlijk lucratieve boekdeal aanbiedt, lijkt dit een kans om zijn dromen waar te maken. De roman verkent thema's als de kracht van literatuur, de dunne lijn tussen werkelijkheid en fictie, en de gevolgen van ambitie en verraad. Zafón's stijl is doordrenkt met een melancholische toon, waarbij de gotische elementen van de stad een sfeervolle achtergrond vormen voor de intriges die zich ontvouwen. De complexe karaktertypen, waaronder de enigmaticus van de uitgever en de kwetsbare protagonist, dragen bij aan de gelaagdheid van het verhaal. De narratieve structuur weeft verschillende verhaallijnen door elkaar, waardoor de lezer voortdurend wordt uitgedaagd om de verborgen waarheden en geheimen te ontrafelen die de personages omringen.</t>
+          <t>In the shadowy heart of Barcelona, where the echoes of the past linger in the crumbling facades and narrow alleys, a struggling pulp fiction writer named David Martin finds himself ensnared in a web of intrigue and deception. Holed up in a hauntingly abandoned mansion, he battles the demons of his own creativity, tapping out desperate tales that reflect his inner turmoil. When a mysterious publisher offers him an irresistible book deal, David, driven by ambition and desperation, seizes the opportunity, unaware of the dark forces that will soon entwine his fate.
+As David delves into his new work, he is drawn to the enigmatic Cemetery of Forgotten Books, a place where lost stories whisper their secrets. Here, he uncovers a profound connection between his narrative and the shadows that haunt his dilapidated home. The lines between reality and fiction blur, revealing layers of betrayal, love, and tragedy that threaten to consume him. 
+In this atmospheric labyrinth of gothic allure, the city itself becomes a character, its history and mysteries entwined with David's journey. Themes of literary obsession and the quest for truth resonate throughout, as he grapples with the consequences of his choices and the haunting specter of the past. As the tension escalates, the reader is drawn into a mesmerizing tale where every page turned leads deeper into the heart of darkness, leaving an indelible mark on the soul.</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" t="n">
+        <v>1000082</v>
+      </c>
       <c r="B83" t="n">
         <v>29396738</v>
       </c>
@@ -4836,12 +5024,16 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>"Monstress, Vol. 1: Awakening" is een fantasy graphic novel die zich afspeelt in een alternatieve, matriarchale versie van Azië in de vroege 20e eeuw. De verhaalstructuur volgt de jonge Maika Halfwolf, die na de verwoestingen van de oorlog haar weg probeert te vinden in een wereld vol politieke intriges en bovennatuurlijke dreigingen. De visuele stijl is een opvallende mix van art deco en steampunk, wat bijdraagt aan de rijke wereldbouw en de sfeervolle setting. De thematiek van trauma en overleving komt sterk naar voren, terwijl Maika's complexe relatie met een krachtige monsterlijke entiteit een diepere laag van verbondenheid en strijd toevoegt. De toon van het verhaal is zowel donker als hoopvol, en verkent de gevolgen van oorlog en de zoektocht naar identiteit. De personages zijn gelaagd en divers, met Maika als een sterke maar kwetsbare protagonist die wordt geconfronteerd met haar verleden en de verwachtingen van de wereld om haar heen. Dit eerste deel van de serie legt de fundamenten voor een episch verhaal vol magie, avontuur en morele dilemma's.</t>
+          <t>In a hauntingly beautiful alternate Asia of the early 1900s, where art deco aesthetics intertwine with the intricate mechanics of steam-powered technology, a young girl navigates the ravages of war and the shadows of her past. This matriarchal society, steeped in both wonder and horror, serves as the backdrop for a tale of survival and transformation. The protagonist, burdened by trauma, discovers a profound and dangerous connection to a formidable monster—a being of immense power that resides within her psyche. 
+As she grapples with her identity and the ramifications of this bond, she becomes a focal point in a conflict that transcends the human realm, drawing the attention of both earthly and supernatural forces. The struggle for autonomy and the quest for understanding are underscored by themes of resilience and the search for belonging in a world rife with division and strife. 
+The atmosphere is thick with tension, where every decision could lead to liberation or destruction, and where the lines between friend and foe blur. In this richly crafted universe, the echoes of war resonate deeply, challenging the very notion of what it means to be human—or monster. As the girl embarks on a journey of self-discovery, she must confront the darkness within and the external threats that seek to exploit her unique power, setting the stage for a gripping saga of fate and defiance.</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="n">
+        <v>1000083</v>
+      </c>
       <c r="B84" t="n">
         <v>202471</v>
       </c>
@@ -4888,12 +5080,16 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>In "The Fifth Sorceress", het eerste deel van de Chronicles of Blood and Stone, wordt de jonge prins Tristan van Eutracia geconfronteerd met de zware verantwoordelijkheden die zijn aanstaande kroning met zich meebrengt. Terwijl hij de zorgeloze levensstijl van een prins in afwachting verkiest, wordt zijn wereld op zijn kop gezet door de aanval van een monsterlijke legermacht, die de wraakzuchtige Sorceresses uit de mythische Zee der Fluisteringen aanvoert. De auteur weeft thema's van opoffering, de strijd tussen goed en kwaad, en de ontdekking van innerlijke kracht door de ontwikkeling van Tristan, die door zijn mentor, de wijze tovenaar Wigg, wordt begeleid. De toon van het verhaal is duister en meeslepend, met een sfeer van spanning en mysterie die de lezer uitnodigt om de diepten van magie en de gevolgen ervan te verkennen. De narratieve structuur onthult geleidelijk de complexiteit van Tristan's lot, waarbij hij niet alleen zijn koninkrijk moet redden, maar ook de erfenis van een profetie moet omarmen die hem als de 'Gekozen' aanduidt. Dit boek biedt een intrigerende mix van avontuur, karakterontwikkeling en de verkenning van de morele dilemma's die inherent zijn aan de strijd tussen licht en duisternis.</t>
+          <t>In the kingdom of Eutracia, a land steeped in magic and ancient lore, Prince Tristan grapples with the heavy mantle of destiny. As the day of his coronation approaches, he finds himself torn between the carefree existence of a prince in waiting and the grave responsibilities that come with the throne. His idyllic life is shattered when a monstrous army, twisted creations of long-banished sorceresses, descends upon his homeland, threatening all he holds dear. These malevolent beings, driven by vengeance and dark ambition, have not only taken his twin sister captive but also siphoned away the very essence of Eutracia’s magic.
+Accompanied by his wise tutor, the enigmatic wizard Wigg, Tristan embarks on a perilous journey across the treacherous Sea of Whispers. This voyage is fraught with challenges that test his courage and resolve, pushing him to confront the true nature of magic and his own identity. As he navigates through stormy waters and encounters otherworldly dangers, the weight of prophecy looms large; he is not merely a prince but the Chosen One destined to restore balance between the forces of Good and Evil.
+Amidst the swirling chaos of battle and the haunting whispers of the past, Tristan must awaken to his potential, for the fate of Eutracia and the very fabric of magic itself rests upon his shoulders. In this epic tale of courage, sacrifice, and self-discovery, the line between light and darkness blurs, revealing the profound complexities of power and responsibility in a world where destiny is both a gift and a curse.</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
+      <c r="A85" t="n">
+        <v>1000084</v>
+      </c>
       <c r="B85" t="n">
         <v>20348941</v>
       </c>
@@ -4941,12 +5137,16 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>In "The Awakening," het eerste deel van de Seraphina-reeks, wordt de lezer meegenomen in de verwarrende en intrigerende wereld van Sera, een jonge vrouw die haar leven volledig op zijn kop ziet staan na een mysterieuze gebeurtenis. Al sinds haar kindertijd wordt ze gekweld door visioenen die haar een gevoel van onbehagen en verlangen naar meer geven. De roman verkent thema's als identiteit, zelfontdekking en de strijd tussen het gewone en het bovennatuurlijke. Na een fatale nacht ontwaakt Sera met nieuwe, onverklaarbare krachten en een verstoord geheugen, wat haar dwingt om haar eigen realiteit opnieuw te definiëren. De toon van het verhaal is zowel spannend als melancholisch, met een sfeervolle beschrijving van de innerlijke strijd die Sera doormaakt. De stijl is toegankelijk en beeldend, waardoor de lezer zich gemakkelijk kan inleven in haar verwarring en groei. Terwijl ze haar nieuwe capaciteiten leert beheersen, ontmoet ze een mysterieuze jongeman die haar helpt de puzzel van haar bestaan te ontrafelen. De narratieve structuur weeft elementen van mysterie en avontuur door elkaar, waardoor de spanning constant aanwezig is en de lezer geboeid blijft door Sera's zoektocht naar haar ware zelf en haar plaats in een wereld vol magie en gevaar.</t>
+          <t>In a world where the ordinary intertwines with the extraordinary, Sera has always felt the stirrings of something beyond her grasp. Haunted by vivid visions that hint at a deeper reality, her life takes a dramatic turn after a fateful accident leaves her transformed. Awakening with no memory of the night’s events, she finds herself navigating a labyrinth of unfamiliar sensations and burgeoning powers that defy her understanding.
+As Sera grapples with her new identity, the arrival of a mysterious stranger offers both intrigue and a glimmer of clarity. Yet, the awakening of her abilities draws the attention of forces she never knew existed, thrusting her into a perilous realm where danger lurks in every shadow. With each revelation, she must confront the duality of her existence: the girl she was and the powerful being she is becoming.
+Amidst the chaos, themes of self-discovery and destiny weave through her journey, challenging her to embrace the truth of who she is while evading those who seek to exploit her newfound gifts. As the boundaries of reality blur, Sera's quest becomes not just about survival, but about understanding the very essence of her awakening, setting the stage for a destiny that beckons with both promise and peril.</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" t="n">
+        <v>1000085</v>
+      </c>
       <c r="B86" t="n">
         <v>26826087</v>
       </c>
@@ -4995,12 +5195,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>"A Better Man" is een zelfstandig verhaal dat zich afspeelt in de wereld van zwaard en toverij, waarin de personages Egil en Nix centraal staan. Dit verhaal, opgenomen in de anthologie "Blackguards: Tales of Assassins, Mercenaries, and Rogues", verkent thema's van moraliteit en de zoektocht naar identiteit in een wereld vol geweld en bedrog. De toon is een mix van humor en ernst, waarbij Kemp een levendige sfeer creëert die de lezer meeneemt op een avontuurlijke reis. De stijl van het verhaal is vlot en actiegericht, met scherpe dialogen en een dynamische narratieve structuur die de spanning constant weet vast te houden. De karaktertypen van Egil en Nix zijn archetypisch voor het genre, waarbij de held en de slimme, soms cynische metgezel samenkomen in hun pogingen om hun doelen te bereiken. Door de combinatie van actie, avontuur en een vleugje zelfreflectie, biedt "A Better Man" een boeiende kijk op de complexiteit van goed en kwaad, en de keuzes die de personages maken in hun strijd om een beter leven te creëren te midden van chaos.</t>
+          <t>In a world where shadows dance with treachery and valor is often a fleeting notion, two unlikely companions navigate the treacherous landscape of ambition and survival. Set against the backdrop of a realm steeped in ancient magic and the echoes of forgotten battles, the tale unfolds with a vibrant tapestry of adventure and moral complexity. 
+Egil and Nix, seasoned wanderers of fate, find themselves at a crossroads, grappling with the weight of their past choices and the uncertain path ahead. Their camaraderie, forged in the fires of conflict, is tested as they confront not only external foes but also the specters of their own ambitions and regrets. The air crackles with tension as they delve into a world rife with mercenaries, rogues, and the ever-looming specter of betrayal.
+Themes of redemption and the quest for a better self resonate deeply within their journey, as they navigate a landscape where every decision could lead to glory or ruin. With wit as sharp as their blades, they traverse through perilous encounters, each step a reminder that the line between heroism and villainy is often blurred.
+As the story unfolds, the atmosphere thickens with the promise of adventure, the thrill of swordplay, and the relentless pursuit of honor in a world that often seems devoid of it. In this gripping narrative, the pursuit of becoming a better man is not just a personal journey, but a reflection of the choices that shape destinies in a realm where every shadow hides a story waiting to be told.</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
+      <c r="A87" t="n">
+        <v>1000086</v>
+      </c>
       <c r="B87" t="n">
         <v>17229542</v>
       </c>
@@ -5047,12 +5252,17 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>"Christmas Tales" is een verzameling van tien verhalen die de lezer onderdompelen in een wereld van fantasie en magie, perfect voor de feestdagen. Deze bundel bevat vier verhalen uit de "Christmas Books" en zes uit de "Christmas Stories", waarbij elk verhaal zijn eigen unieke kijk op de kerstperiode biedt. De verhalen zijn doordrenkt met thema's van hoop, saamhorigheid en de kracht van vergeving, en verkennen de verschillende facetten van menselijke relaties tijdens de feestdagen. De toon is vaak warm en nostalgisch, met een vleugje melancholie, wat bijdraagt aan de sfeervolle setting die de winterse achtergrond accentueert. De schrijfstijl is kenmerkend voor de auteur, met levendige beschrijvingen en een poëtische flair die de lezer meeneemt op een emotionele reis. De karaktertypen variëren van de goedhartige, maar soms vergeten figuren tot de meer complexe personages die worstelen met hun verleden. De narratieve structuur is traditioneel, met een duidelijke opbouw die leidt naar een bevredigende conclusie, waardoor de verhalen een gevoel van afronding en reflectie bieden. "Christmas Tales" is niet alleen een viering van de kerstgeest, maar ook een uitnodiging om na te denken over de waarden die deze periode zo bijzonder maken.</t>
+          <t>In a world where the spirit of Christmas weaves through the fabric of reality, a collection of enchanting tales unfolds, inviting readers into a realm where the ordinary meets the extraordinary. The setting, rich with the warmth of flickering hearths and the crispness of winter air, serves as a backdrop for stories that explore the profound interplay between joy and sorrow, generosity and greed, hope and despair. 
+Each narrative, drawn from the heart of festive tradition, presents characters who grapple with their own desires and dilemmas, often discovering the true meaning of the season amid trials and tribulations. The atmosphere is imbued with a sense of wonder, as fantastical elements emerge to challenge the mundane, reminding us that magic often resides in the simplest of moments. 
+As the characters navigate their journeys, they confront moral conflicts that resonate deeply with the human experience, revealing the transformative power of compassion and the importance of connection. The tales are interwoven with themes of redemption and the enduring light of kindness, urging readers to reflect on their own lives and the impact of their choices. 
+Ultimately, this collection captures the essence of Christmas, inviting all to embrace the spirit of giving and the magic of belief, leaving a lingering warmth that echoes long after the last page is turned.</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
+      <c r="A88" t="n">
+        <v>1000087</v>
+      </c>
       <c r="B88" t="n">
         <v>18377152</v>
       </c>
@@ -5101,12 +5311,16 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>"Watergirl" is een intrigerende fantasyroman die zich afspeelt in een hedendaagse setting, waar de grenzen tussen de realiteit en het bovennatuurlijke vervagen. Hoofdpersoon Genevieve is een creatieve ziel die haar dagen doorbrengt met het samenstellen van muziekplaylists en het verwerken van haar gevoelens voor de populaire quarterback. Haar leven neemt een wending wanneer een mysterieuze buitenlandse uitwisselingsstudent in haar stad arriveert, die onderdak vindt bij de aantrekkelijke aanvoerder van het zwemteam. Deze nieuwe dynamiek roept niet alleen Genevieves verlangen op om haar obsessie achter zich te laten, maar plaatst haar ook in het oog van een storm vol onvoorspelbare wendingen. De roman verkent thema's van verlangen, obsessie en de zoektocht naar identiteit, terwijl het de lezer meeneemt in een wereld vol gevaarlijke intriges en onvermoede geheimen die in het meer verborgen liggen. De toon is een mix van spanning en romantiek, met een schrijfstijl die de lezer uitnodigt om zich onder te dompelen in de emotionele diepgang van de personages. De narratieve structuur houdt de spanning vast door het gebruik van cliffhangers en onverwachte onthullingen, waardoor de lezer geboeid blijft tot de laatste pagina.</t>
+          <t>In a small town where the mundane intertwines with the extraordinary, Genevieve navigates the complexities of teenage life, her heart tethered to the star quarterback and her mind filled with melodies that dance just out of reach. As she immerses herself in the rhythm of playlists and the echoes of her own thoughts, a new presence disrupts her carefully curated world—a striking foreign exchange student who arrives with an allure that is hard to resist. This newcomer, residing with the enigmatic captain of the swim team, ignites a flicker of hope in Genevieve’s heart, tempting her to break free from the chains of her long-standing infatuation.
+However, the shimmering surface of this new connection conceals deeper currents of danger and obsession. As Genevieve becomes entangled in a web of intrigue involving hot-blooded rivals and psychotic ex-girlfriends, she discovers that the lake, a serene backdrop to her everyday life, harbors secrets that could plunge her into darkness. The boundaries between reality and the supernatural blur, revealing a world where beauty and peril coexist, and where a single kiss could lead to unforeseen consequences.
+In this atmospheric tale, the struggle for identity and the pursuit of love unfold against a backdrop of haunting melodies and hidden depths, inviting readers to explore the delicate balance between desire and danger. As Genevieve confronts her own fears and the allure of the unknown, she must decide whether to embrace the thrill of the extraordinary or retreat into the safety of the familiar.</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
+      <c r="A89" t="n">
+        <v>1000088</v>
+      </c>
       <c r="B89" t="n">
         <v>33621978</v>
       </c>
@@ -5154,12 +5368,15 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>"The Changeling" van Victor LaValle is een meeslepende fantasyroman die de lezer meeneemt op een indringende reis door een betoverde wereld, waarin de grenzen tussen realiteit en het bovennatuurlijke vervagen. Het verhaal volgt Apollo Kagwa, een antiquariaat eigenaar die worstelt met de gevolgen van zijn vrouw Emma's plotselinge en onverklaarbare verdwijning na een gruwelijke daad van geweld. De thematiek van verlies en de zoektocht naar identiteit zijn prominent aanwezig, evenals de complexe dynamiek van ouderschap en de impact van mentale gezondheid. LaValle's stijl is rijk en sfeervol, met een toon die zowel melancholisch als mysterieus is, waardoor de lezer wordt uitgedaagd om de duistere geheimen van de menselijke geest te verkennen. De narratieve structuur is gelaagd, waarbij de vertelling zich ontvouwt door middel van Apollo's ontdekkingen en ontmoetingen met intrigerende personages, waaronder een mysterieuze vreemdeling die hem op het pad naar Emma's waarheid leidt. De roman verkent niet alleen de fysieke reis door New York, maar ook de emotionele reis van een man die geconfronteerd wordt met de schaduwen van zijn verleden en de onverklaarbare realiteiten van de liefde.</t>
+          <t>In the heart of an urban landscape, where the mundane collides with the extraordinary, a man named Apollo Kagwa finds himself ensnared in a web of inexplicable events. As an antiquarian book dealer, Apollo's life is steeped in the stories of others, yet he is unprepared for the chilling narrative that unfolds within his own family. His wife, Emma, once vibrant and engaged, begins to drift into a shadowy realm of despair, her behavior shifting ominously as she grapples with an unseen darkness. When she commits an unspeakable act and vanishes, Apollo is thrust into a labyrinthine quest that leads him through the hidden corners of New York City—an enchanted world layered with secrets, folklore, and the echoes of immigrant tales.
+Haunted by dreams that have plagued him since childhood, Apollo's journey is not merely one of physical distance but also of emotional reckoning. As he encounters a mysterious stranger who offers cryptic clues about Emma's fate, he navigates forgotten islands, graveyards steeped in history, and a forest where the whispers of ancient legends linger. Each step reveals the complexities of love, loss, and the unfathomable depths of the human psyche. In this dizzying exploration of familial bonds and the hidden truths that shape our lives, Apollo must confront the essence of his identity and the haunting specter of the past. The air thickens with tension as he seeks to reclaim not just his wife and child, but the very fabric of his understanding of reality itself.</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="n">
+        <v>1000089</v>
+      </c>
       <c r="B90" t="n">
         <v>8107801</v>
       </c>
@@ -5206,12 +5423,16 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>"Call of the Herald" is het eerste deel van de trilogie "The Dawning of Power", die zich afspeelt in een wereld waar de echo's van oude krachten slechts vage herinneringen zijn. In deze jonge volwassen epische fantasy wordt de lezer meegenomen op een reis waarin latent aanwezige vermogens in de mensheid naar boven komen, wat leidt tot een hernieuwde confrontatie met eeuwenoude kwaden. De toon van het verhaal is zowel duister als hoopvol, met een sfeer die de spanning van opkomende conflicten en de ontdekking van verborgen potentieel oproept. De stijl is rijk aan beschrijvingen en emotionele diepgang, waardoor de personages, met hun diverse achtergronden en motieven, tot leven komen. De narratieve structuur verweeft verschillende perspectieven, wat een gelaagd begrip van de wereld en de strijd die zich ontvouwt mogelijk maakt. Thema's zoals de zoektocht naar identiteit, de strijd tussen goed en kwaad, en de impact van geschiedenis op het heden worden subtiel verkend, waardoor de lezer wordt uitgedaagd om na te denken over de gevolgen van vergeten krachten en de verantwoordelijkheid die daarmee gepaard gaat.</t>
+          <t>In a world where the whispers of ancient power linger like shadows in forgotten corners, a new era is poised to unfold. The remnants of a once-great magic, long buried beneath the weight of time, stir restlessly as the fabric of reality begins to fray. Humanity, unaware of the latent abilities woven into their very essence, stands on the brink of awakening. As the echoes of the past resurface, dark forces, long thought vanquished, rise again, igniting old fears and reigniting the flames of conflict.
+Amidst this brewing storm, the struggle for dominance unfolds, pitting the forces of light against encroaching darkness. The balance of power hangs precariously as individuals grapple with their emerging gifts, torn between the allure of their potential and the peril it brings. Friendships will be tested, loyalties questioned, and the line between heroism and villainy blurred in a landscape where every choice holds monumental consequences.
+As the dawn of a new age approaches, the air crackles with tension and possibility. The clash of ancient evils and the awakening of dormant strengths herald a saga of epic proportions, where the fate of the world teeters on the edge of a knife. In this realm of magic and mystery, courage and sacrifice will be the true measures of power, as the call of destiny beckons those brave enough to answer.</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
+      <c r="A91" t="n">
+        <v>1000090</v>
+      </c>
       <c r="B91" t="n">
         <v>11995465</v>
       </c>
@@ -5259,12 +5480,16 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>"Citadel (Languedoc, #3)" is een fantasyroman die zich afspeelt in het door oorlog verscheurde Carcassonne van 1942. Het verhaal volgt de vastberaden Sandrine, die, temidden van de chaos en ontberingen van de Tweede Wereldoorlog, haar eigen strijd aangaat tegen de onderdrukking. Met de codenaam Citadel verzamelt ze een diverse groep vrouwelijke verzetsstrijders, elk met hun eigen achtergrond en motieven, die samenkomen in hun gezamenlijke verzet tegen de Duitse bezetting. De roman verkent thema's als moed, solidariteit en de kracht van vrouwen in een patriarchale samenleving. De toon is zowel somber als hoopvol, waarbij de schrijfstijl rijk is aan beschrijvingen die de spanning en de emotionele diepgang van de personages benadrukken. De narratieve structuur verweeft persoonlijke verhalen met bredere historische contexten, waardoor de lezer niet alleen wordt meegenomen in de actie, maar ook wordt uitgedaagd om na te denken over de morele complexiteit van oorlog. De karaktertypen zijn veelzijdig en goed uitgewerkt, waardoor de lezer zich kan identificeren met hun strijd en opofferingen.</t>
+          <t>In the shadowed streets of Carcassonne during the tumultuous year of 1942, the echoes of war reverberate through the ancient stone walls, where the spirit of resistance flickers like a candle in the dark. As countless French soldiers sacrifice their lives on distant fronts, a brave young woman named Sandrine rises to confront her own battle against tyranny. Operating under the clandestine codename Citadel, she gathers a formidable group of female fighters, each carrying their own burdens and dreams, united by a fierce determination to reclaim their homeland.
+Amidst the backdrop of a city steeped in history and haunted by the specter of oppression, the women navigate a world fraught with danger and moral ambiguity. Their journey is not merely one of physical struggle but also a profound exploration of courage, loyalty, and the complexities of identity in times of strife. As they forge bonds of sisterhood and confront the shadows of their pasts, the stakes grow higher, and the lines between heroism and sacrifice blur.
+In this atmospheric tale, the resilience of the human spirit shines through, illuminating the power of unity against overwhelming odds. The rich tapestry of Carcassonne serves as both a battleground and a sanctuary, where hope and despair intertwine, and the fight for freedom becomes a testament to the indomitable will of those who dare to dream of a brighter future.</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
+      <c r="A92" t="n">
+        <v>1000091</v>
+      </c>
       <c r="B92" t="n">
         <v>10303038</v>
       </c>
@@ -5311,12 +5536,16 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>In "How to Moon a Cat", het derde deel van de Cats and Curios Mystery Series, wordt de lezer meegenomen op een spannende reis vol intriges en mysterie. Het verhaal volgt de eigenaresse van Rupert, een nieuwsgierige kat die, terwijl hij een stoffige groene vaas met een speelgoedbeer ontdekt, de aandacht vestigt op een puzzel die leidt naar de verborgen schatten van haar oom Oscar. De zoektocht naar deze waardevolle objecten neemt haar mee naar het pittoreske Nevada City, waar de combinatie van een roadtrip en de aanwezigheid van haar twee katten een speelse, maar ook onvoorspelbare sfeer creëert. De toon van het verhaal balanceert tussen humor en spanning, met een sterke nadruk op de band tussen mens en dier. De karaktertypen zijn goed uitgewerkt, waarbij de protagonist niet alleen haar intellect, maar ook haar moed moet aanspreken om de uitdagingen het hoofd te bieden. De narratieve structuur is dynamisch, met een mix van actie en reflectie, waardoor de lezer voortdurend op het puntje van zijn stoel blijft zitten, terwijl de mysteries zich ontvouwen en de gevaren steeds dichterbij komen.</t>
+          <t>In the quaint yet enigmatic town of Nevada City, the air is thick with the scent of adventure and hidden secrets. When Rupert, a curious feline with a nose for trouble, uncovers a dusty green vase containing a toy bear, it sparks a thrilling quest for his owner, who is determined to unravel the legacy of her Uncle Oscar. Known for his cryptic clues leading to valuable treasures, Uncle Oscar's latest riddle promises intrigue, but it also casts a shadow of danger over their journey.
+As they embark on a road trip filled with anticipation and uncertainty, the bond between the owner and her two cats deepens, revealing themes of loyalty and the comfort of companionship amidst chaos. However, the pursuit of treasure soon turns perilous, as the protagonist finds herself entangled in a web of mystery that threatens not only her safety but also the lives of those she holds dear. 
+With each twist and turn, the atmosphere crackles with tension, as the line between friend and foe blurs. The allure of the unknown beckons, drawing them deeper into a world where every clue could lead to fortune or disaster. In this cozy yet suspenseful tale, the journey is as much about self-discovery as it is about the thrill of the chase, inviting readers to ponder the true value of what is hidden and what is revealed.</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
+      <c r="A93" t="n">
+        <v>1000092</v>
+      </c>
       <c r="B93" t="n">
         <v>507385</v>
       </c>
@@ -5365,12 +5594,16 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>"Double Jeopardy" is een meeslepende thriller die zich afspeelt in de complexe wereld van het Amerikaanse rechtssysteem, waar de wetgeving rond dubbele vervolging zowel de onschuldigen als de schuldigen kan beschermen. Het verhaal draait om Mel Ignatow, een zuidelijke zakenman die beschuldigd wordt van de gruwelijke moord op zijn ex-vriendin, Brenda Schaefer. Ondanks het overweldigende bewijs, waaronder forensische gegevens en ooggetuigenverslagen, komt de rechtszaak niet tot een bevredigende conclusie. De auteur verkent thema's zoals gerechtigheid en onrecht, en legt de tekortkomingen van het juridische systeem bloot, waarbij hij de lezer meeneemt op een emotionele reis vol frustratie en wanhoop. De toon is duister en onheilspellend, wat de spanning gedurende het verhaal versterkt. De narratieve structuur is zorgvuldig opgebouwd, met een focus op de psychologische impact van de gebeurtenissen op de betrokkenen, en de karaktertypen zijn gelaagd en complex, wat bijdraagt aan de diepgang van het verhaal. "Double Jeopardy" biedt niet alleen een spannend plot, maar ook een kritische reflectie op de morele dilemma's binnen de rechtspraak.</t>
+          <t>In the heart of Kentucky, a chilling narrative unfolds against the backdrop of a seemingly idyllic southern town, where the shadows of human depravity lurk beneath the surface of everyday life. The brutal murder of Brenda Schaefer, a vibrant young woman, sends shockwaves through the community, revealing the dark underbelly of trust and betrayal. As the investigation unravels, the figure of Mel Ignatow emerges—a businessman whose charm masks a sinister reality, entangled in a web of circumstantial evidence that paints a damning portrait of guilt.
+Yet, the courtroom becomes a theater of frustration and disillusionment, where the principles of justice clash with human fallibility. The legal system, designed to protect the innocent, also shields the guilty, creating a labyrinth of moral ambiguity that leaves victims and their families in a state of perpetual anguish. As the trial unfolds, the tension mounts, exposing the fragility of truth in a world where perception often trumps reality.
+Amid the harrowing details of the crime and the complexities of the judicial process, themes of justice, accountability, and the haunting specter of unresolved grief resonate deeply. The atmosphere is thick with suspense, as the community grapples with the implications of a system that can fail them, leaving echoes of a tragedy that may never find closure. In this gripping exploration of crime and consequence, the line between right and wrong blurs, inviting readers to confront the unsettling realities of human nature and the quest for justice.</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" t="n">
+        <v>1000093</v>
+      </c>
       <c r="B94" t="n">
         <v>33537388</v>
       </c>
@@ -5421,12 +5654,16 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>In "The Currency Lass" volgt de lezer het verhaal van Catherine Cottingham, de enige erfgename van een uitgestrekt landgoed in de Hunter Valley. Haar leven neemt een dramatische wending wanneer ze geconfronteerd wordt met de manipulatieve plannen van haar vader, die haar wil uithuwelijken aan de arrogante zakenman Henry W. Bartholomew. Het thema van financiële afhankelijkheid en de strijd om autonomie komt sterk naar voren, vooral wanneer Catherine ontdekt dat haar toekomst als gehuwde vrouw in handen van haar echtgenoot ligt. De toon van het verhaal is zowel spannend als melancholisch, met een onderliggende spanning die de lezer voortdurend op het puntje van zijn stoel houdt. De narratieve structuur verweeft elementen van een klassieke thriller met karakterontwikkeling, terwijl Catherine's ontmoeting met Sergey Petrov, de charismatische performer van een reizend circus, haar de kans biedt om te ontsnappen aan haar benarde situatie. De circussetting, vol mysterie en bedrog, fungeert als een katalysator voor Catherine's groei en zelfontdekking. De stijl van de auteur, bekend om zijn meeslepende proza, maakt gebruik van rijke beschrijvingen en complexe karaktertypen, waardoor de lezer wordt meegenomen in een wereld van intrige en spanning.</t>
+          <t>In the sun-drenched expanses of the Hunter Valley, Catherine Cottingham stands at a crossroads, poised to inherit her family's vast estate. However, the looming specter of her father's intentions casts a shadow over her future. Pressured into a union with the insufferable Henry W. Bartholomew, a man whose greed threatens to eclipse her autonomy, Catherine finds herself ensnared in a web of familial obligation and societal expectation. With her twenty-first birthday as her only beacon of hope, she grapples with the urgency of her situation, aware that time is not on her side.
+A serendipitous encounter with a traveling circus ignites a spark of rebellion within her. Drawn to the vibrant world of performers, particularly the enigmatic Sergey Petrov, Catherine seizes the opportunity to escape her gilded cage and venture into the unpredictable realm of the goldfields. Yet, the circus is not merely a sanctuary; it harbors secrets that intertwine with her own quest for freedom. As she navigates this dazzling yet treacherous landscape, she becomes embroiled in a sinister plot of fraud and forgery, where trust is a luxury she can scarcely afford.
+Amidst the thrill of danger and the intoxicating allure of newfound passion, Catherine must confront the depths of her resilience and the lengths she will go to reclaim her destiny. In a world where every choice could lead to salvation or ruin, she races against time, determined to carve out her own identity in a society that seeks to define her.</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
+      <c r="A95" t="n">
+        <v>1000094</v>
+      </c>
       <c r="B95" t="n">
         <v>13495993</v>
       </c>
@@ -5473,12 +5710,16 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>In "The Killing Room", het zesde deel in de serie rond detectives Jessica Balzano en Kevin Byrne, worden de lezers meegenomen naar de duistere straten van Philadelphia, waar een reeks gruwelijke moorden de gemeenschap in zijn greep houdt. De roman opent met een schokkende ontdekking in een verlaten kerk, ooit een symbool van hoop, nu veranderd in een macabere moordlocatie. Terwijl de detectives de schokkende details van de eerste moord onderzoeken, blijkt al snel dat deze daad geen op zichzelf staand incident is; de ontdekking van meerdere lichamen onthult een patroon van geweld dat steeds verontrustender wordt. De schrijfstijl is rauw en direct, wat de angstaanjagende sfeer van de gebeurtenissen versterkt. Balzano en Byrne, elk met hun eigen demonen en persoonlijke uitdagingen, worden gedwongen om hun vaardigheden tot het uiterste te testen. De narratieve structuur houdt de spanning hoog, met onverwachte wendingen en een psychologisch spel tussen de jagers en de jager. Tematische elementen zoals de gevolgen van geweld en de zoektocht naar gerechtigheid worden diepgaand verkend, waardoor de lezer niet alleen geboeid blijft, maar ook aan het denken wordt gezet over de morele implicaties van de daden van de personages.</t>
+          <t>In the shadowy depths of Philadelphia's badlands, a once-sacred church has transformed into a haunting tableau of violence, marking the beginning of a chilling investigation. Homicide Detectives Byrne and Balzano are thrust into a nightmarish reality as they confront a series of brutal murders, each more grotesque than the last. What initially appears to be random acts of violence soon reveals a sinister pattern, suggesting the work of a meticulous and calculating killer who orchestrates each crime with terrifying precision.
+As the detectives delve deeper into the dark underbelly of the city, they grapple with the psychological toll of their pursuit, facing not only the brutality of the crimes but also the chilling realization that they are racing against a mind that always seems to be one step ahead. The atmosphere thickens with tension as they navigate a landscape riddled with fear and uncertainty, where every clue leads them further into a labyrinth of despair.
+Themes of morality and the fragility of safety loom large, as the detectives confront the haunting echoes of their own pasts while struggling to unravel the enigma before them. With time slipping away and the stakes rising, Byrne and Balzano must summon their resolve to confront an evil that threatens not only their city but also their very souls. In this relentless pursuit of justice, the line between hunter and hunted blurs, leaving them to question how far they are willing to go in the name of order amidst chaos.</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
+      <c r="A96" t="n">
+        <v>1000095</v>
+      </c>
       <c r="B96" t="n">
         <v>1562178</v>
       </c>
@@ -5526,12 +5767,16 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>"The Moon Spinners" is een meeslepende thriller die zich afspeelt op het schilderachtige eiland Kreta, waar de jonge en avontuurlijke Nicola Ferris, een secretaresse bij de Britse ambassade, op zoek is naar een welkome ontsnapping aan haar dagelijkse leven. Haar vakantie, bedoeld om te genieten van de natuurlijke schoonheid en de gezelschap van haar nicht Frances, neemt een dramatische wending wanneer ze een afgelegen pad inslaat in de imposante Witte Bergen. Hier ontmoet ze twee medewandelaars, die onbewust verwikkeld zijn in een sinistere situatie van bloedwraak, waarbij thema's van loyaliteit, hebzucht en de duistere kanten van menselijke relaties naar voren komen. De sfeer is doordrenkt van spanning en onheil, terwijl Nicola zich geconfronteerd ziet met een mysterieuze man die in de schaduw leeft, wat haar nieuwsgierigheid wekt maar ook haar veiligheid bedreigt. De narratieve structuur, die zich ontvouwt door Nicola's ogen, laat de lezer meeleven met haar groeiende angst en de onontkoombare realiteit van haar situatie. De combinatie van een krachtige hoofdpersoon en een intrigerend plot zorgt voor een onvergetelijke leeservaring, waarin de grenzen tussen goed en kwaad vervagen en de gevolgen van keuzes op dramatische wijze worden belicht.</t>
+          <t>In the sun-drenched paradise of Crete, where wildflowers bloom amidst the rugged beauty of the White Mountains, young Nicola Ferris seeks solace from her bustling life as a secretary at the British Embassy in Athens. Anticipating a peaceful holiday with her cousin Frances, her adventurous spirit leads her down a secluded path, drawing her into a world far removed from her tranquil expectations. 
+What begins as a leisurely escape quickly spirals into a chilling web of danger when Nicola encounters two hikers who unwittingly unveil a dark tale of vengeance that intertwines the fates of a young Englishman and a group bound by blood and greed. As she becomes entangled in their sinister plot, Nicola finds herself captivated by a mysterious man in hiding, whose secrets threaten to unravel her very existence. 
+Caught between her growing feelings and the ominous warnings to stay away, she grapples with her own desires and the lurking peril that shadows her every move. The idyllic landscapes mask a sinister undercurrent, as the life she cherishes teeters on the brink of chaos. In this haunting narrative of suspense and romance, Nicola must confront not only the external threats that surround her but also the depths of her own courage and resolve, as she navigates a world where trust is a luxury and survival is a desperate game.</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
+      <c r="A97" t="n">
+        <v>1000096</v>
+      </c>
       <c r="B97" t="n">
         <v>25116799</v>
       </c>
@@ -5578,12 +5823,16 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>"The Butterfly Groove: A Mother's Mystery, A Daughter's Journey" is een intrigerende thriller die de lezer meeneemt op een emotionele reis door de complexe relatie tussen een moeder en haar dochter. Het verhaal volgt Jessica Barraco, die op twaalfjarige leeftijd haar moeder Dianne verliest aan de gevolgen van kanker. Jaren later, gedreven door een groeiende nieuwsgierigheid naar het leven van haar moeder en de geheimen die daarmee samenhangen, besluit Jessica haar verleden te ontrafelen. De roman verkent thema's van verlies, identiteit en de zoektocht naar waarheid, waarbij de toon zowel melancholisch als hoopvol is. De schrijfstijl is toegankelijk en beeldend, waardoor de lezer zich kan inleven in de gedachten en gevoelens van Jessica. De narratieve structuur, die zich uitstrekt over een periode van tien jaar, benadrukt de ontwikkeling van Jessica van een onschuldige tiener naar een volwassen vrouw die de moed heeft om haar moeder's verleden te onderzoeken. De zoektocht naar Dianne's oude ballroomdanspartner fungeert als een katalysator voor zelfontdekking en het begrijpen van de liefde die generaties overstijgt.</t>
+          <t>In the sun-drenched landscapes of Southern California, a young girl grapples with the profound loss of her mother, Dianne, who succumbed to cancer complications when Jessica was just twelve. As the years unfold, Jessica's yearning to uncover the secrets of her mother’s past intensifies, especially as her family remains shrouded in silence, leaving her with more questions than answers. 
+Now an adult and armed with a journalism degree, Jessica embarks on a poignant two-year journey to trace the echoes of her mother’s life, sparked by a fleeting memory of Dianne’s affection for her old ballroom dance partner. This quest becomes a tapestry woven with the threads of mystery and self-discovery, as Jessica seeks not only to understand the woman who shaped her existence but also to connect with those who might illuminate Dianne’s hidden truths.
+Through the lens of love, loss, and the relentless pursuit of understanding, the narrative unfolds with an atmospheric tension that resonates deeply. As Jessica delves into the past, she confronts the complexities of familial bonds and the enduring power of memory, revealing how the shadows of our loved ones can guide us toward our own identities. In this heartwarming exploration, the journey becomes as significant as the destination, illuminating the profound ways in which love transcends time and loss, ultimately leading to a deeper understanding of oneself.</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
+      <c r="A98" t="n">
+        <v>1000097</v>
+      </c>
       <c r="B98" t="n">
         <v>25076838</v>
       </c>
@@ -5631,12 +5880,16 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>"The Postman Always Rings Twice" is een invloedrijke thriller geschreven door James M. Cain, die voor het eerst werd gepubliceerd in 1934. Het verhaal volgt de jonge en ontevreden vrouw Cora, die met een veel oudere man getrouwd is. Haar leven neemt een dramatische wending wanneer ze de charismatische zwerver Frank ontmoet. Hun ontmoeting leidt tot een intense en destructieve relatie, gekenmerkt door verlangen, verraad en moord. De roman verkent thema's van passie en de duistere kanten van de menselijke natuur, waarbij de personages worden geconfronteerd met morele dilemma's en de gevolgen van hun keuzes. De schrijfstijl is direct en onverbloemd, wat bijdraagt aan de gespannen en sombere sfeer van het verhaal. Cain's gebruik van een niet-lineaire narratieve structuur versterkt de spanning, terwijl de psychologische diepgang van de personages de lezer uitdaagt om hun motieven en emoties te begrijpen. Dit boek is een klassieker in het genre en blijft relevant door zijn scherpe observaties van de menselijke psyche en de complexiteit van relaties.</t>
+          <t>In a sun-soaked yet oppressive landscape, a young woman finds herself trapped in a stifling marriage to an older man, whose presence looms over her like a dark cloud. The mundane rhythms of their life are shattered when a charismatic drifter enters the scene, igniting a dangerous spark of desire and ambition. Together, they weave a web of deceit, drawn into a chilling pact that threatens to unravel their very souls.
+As the tension mounts, the story delves into the complexities of love, betrayal, and the lengths one might go to escape the shackles of a life unfulfilled. The oppressive heat of their surroundings mirrors the simmering emotions within, creating an atmosphere thick with suspense and moral ambiguity. Each character grapples with their own demons, caught in a relentless struggle between passion and consequence.
+The narrative unfolds against a backdrop of shadowy intentions and unforeseen repercussions, where every decision carries the weight of impending doom. The allure of freedom becomes a double-edged sword, as the characters navigate a treacherous path that blurs the lines between right and wrong. In this world, the echoes of ambition resonate with the chilling reminder that sometimes, the most haunting truths lie beneath the surface, waiting to be unearthed.</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
+      <c r="A99" t="n">
+        <v>1000098</v>
+      </c>
       <c r="B99" t="n">
         <v>6988035</v>
       </c>
@@ -5684,12 +5937,16 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>In "The Charlemagne Pursuit," het vierde deel in de Cotton Malone-serie, wordt de lezer meegenomen op een spannende en complexe zoektocht naar waarheid en geheimen die diep in de geschiedenis zijn geworteld. Cotton Malone, een voormalig agent van het ministerie van Justitie, ontdekt dat de dood van zijn vader, die hij altijd heeft geloofd te zijn omgekomen in een onderzeebootongeval, veel meer om het lijf heeft. De onthulling dat zijn vader betrokken was bij een geheime nucleaire missie in Antarctica, samen met de mysterieuze dood van de vaders van de tweelingzussen Dorothea Lindauer en Christl Falk, vormt de kern van een intrigerend verhaal dat thema's van familie, verlies en de zoektocht naar kennis verkent. De toon van het boek is zowel duister als avontuurlijk, met een constante spanning die de lezer dwingt verder te lezen. De narratieve structuur is ingenieus opgebouwd, waarbij Malone's persoonlijke ontdekkingen worden verweven met historische feiten en raadsels, zoals de connectie met Charlemagne en de Nazi-onderzoeken in Antarctica. De personages zijn gelaagd en gedreven, elk met hun eigen motieven, wat bijdraagt aan de diepgang van het verhaal en de morele dilemma's die Malone moet confronteren terwijl hij de schokkende waarheid over zijn verleden en de toekomst van de mensheid ontrafelt.</t>
+          <t>In the shadowy depths of the North Atlantic, a long-buried secret stirs, entwining the fates of those who seek the truth. Former Justice Department agent Cotton Malone, haunted by the belief that his father perished in a submarine disaster, is thrust into a labyrinth of deception when he uncovers the startling reality of his father's demise. The vessel, a clandestine nuclear submarine, vanished during a covert mission beneath the icy expanse of Antarctica, leaving behind a legacy shrouded in mystery.
+As Malone grapples with this revelation, he crosses paths with twin sisters Dorothea and Christl, who share a similar quest for answers regarding their own father's fate aboard the same ill-fated sub. Their investigation is propelled by enigmatic clues linked to Charlemagne's tomb, hinting at a sinister Nazi expedition that predates American efforts in the frozen wilderness. Together, they navigate a treacherous landscape of cryptic journals and ancient riddles, all while racing against time and unseen adversaries.
+Amidst the chilling backdrop of ice and secrecy, themes of familial bonds and the quest for truth emerge, challenging Malone to confront not only the legacy of his father but also the haunting specter of his own mortality. As the trio delves deeper into the abyss of history and betrayal, they unearth revelations that could alter the course of humanity itself, setting the stage for a thrilling odyssey where the past and present collide in a breathtaking pursuit of knowledge and survival.</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
+      <c r="A100" t="n">
+        <v>1000099</v>
+      </c>
       <c r="B100" t="n">
         <v>13588596</v>
       </c>
@@ -5740,12 +5997,16 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>In "Hidden Heritage: A Lottie Albright Mystery", het derde deel in de Lottie Albright-serie, wordt de lezer meegenomen naar het plattelandsleven in Carlton County, Kansas, waar de schokkende moord op Victor, de achterkleinzoon van de mysterieuze curandera Dona Francisca Diaz, de gemeenschap in beroering brengt. Sheriff Sam Abbot en zijn team, waaronder de vastberaden Undersheriff Lottie Albright, worden geconfronteerd met een complexe zaak die hen dwingt om verder te kijken dan de oppervlakte van een lokale misdaad. Terwijl Lottie haar rol als directeur van de historische vereniging vervult, ontdekt ze dat de wortels van de moord diep geworteld zijn in de geschiedenis van de regio en de geheimen van de kolonisten. De toon van het verhaal is duister en intrigerend, met een onderliggende spanning die de lezer voortdurend op het puntje van zijn stoel houdt. De thematiek van erfgoed en de impact van het verleden op het heden speelt een cruciale rol, terwijl Lottie zich verdiept in de wereld van de curanderismo en de magische elementen die daarmee gepaard gaan. De narratieve structuur verweeft heden en verleden, waardoor een rijke, gelaagde vertelling ontstaat die de personages en hun motieven verder uitdiept. Lottie’s ontwikkeling als karakter, van een pragmatische wetshandhaver naar iemand die openstaat voor de mystieke aspecten van haar omgeving, voegt een fascinerende dimensie toe aan dit thriller-genre.</t>
+          <t>In the arid expanse of Carlton County, Kansas, a brutal murder at a livestock feedyard sends ripples of fear through a community already grappling with its own vulnerabilities. Sheriff Sam Abbot and Undersheriff Lottie Albright find themselves stretched thin, their resources dwindling as they confront a crime that hints at deeper, more sinister currents beneath the surface of their rural existence. The local law enforcement's reluctance to embrace the idea of a regional crime center only heightens the tension, as whispers of a broader conspiracy begin to emerge.
+Lottie, who also directs the historical society, embarks on a quest for understanding, reaching out to families with ancestral ties to the land. Her investigation leads her to Dona Francisca Diaz, a revered curandera whose family history intertwines with the very fabric of Kansas's colonization. As Lottie delves into the past, she discovers that the murder victim, Francisca's great grandson Victor, may be linked to ancient secrets held within forgotten documents. 
+Invited to the lush yet drought-stricken Diaz property, Lottie is drawn into a world where magic and heritage collide. As she grapples with her own reluctance and fascination, the line between reality and the supernatural blurs. In this intricate tapestry of familial loyalty, hidden legacies, and the quest for truth, Lottie must navigate the shadows of the past to uncover the motives behind Victor's death. Will she emerge from this labyrinth of secrets, or will the weight of history consume her?</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
+      <c r="A101" t="n">
+        <v>1000100</v>
+      </c>
       <c r="B101" t="n">
         <v>3047956</v>
       </c>
@@ -5792,12 +6053,16 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>"Rage" is een aangrijpende thriller die zich afspeelt op een hete middag, waarin de psychologische spanning en de emotionele worstelingen van een verstoorde middelbare scholier, Charlie Decker, centraal staan. Het verhaal ontvouwt zich in een claustrofobische setting, waar Charlie, gedreven door autoriteitsproblemen en een diepgeworteld gevoel van frustratie, zijn leraar vermoordt en zijn klasgenoten als gijzelaars houdt. De narratieve structuur is intens en meeslepend, waarbij de lezer wordt uitgenodigd om de complexe innerlijke wereld van Charlie te verkennen. Door middel van zijn confrontaties met medeleerlingen onthult hij niet alleen zijn eigen motieven, maar ook de verborgen angsten en onzekerheden van zijn klasgenoten. De toon is donker en beklemmend, wat de thema's van vervreemding, geweld en de zoektocht naar identiteit versterkt. De schrijfstijl is direct en soms rauw, waardoor de lezer wordt gedwongen om na te denken over de morele implicaties van de acties van Charlie en de bredere sociale context waarin deze tragedie zich afspeelt. "Rage" biedt een indringende blik op de psyche van een jongere die zich gevangen voelt in een wereld die hem niet begrijpt.</t>
+          <t>In the sweltering heat of a late afternoon, the claustrophobic confines of a high school classroom become the backdrop for a harrowing exploration of desperation and disillusionment. Charlie Decker, a troubled student burdened by authority issues, finds himself spiraling into a dark abyss after a violent confrontation with a teacher. As he takes his classmates hostage, the atmosphere thickens with tension, each moment stretching into an unbearable eternity. 
+Within this charged environment, Charlie unravels the complex tapestry of his peers’ lives, compelling them to confront their own identities and the societal expectations that bind them. The air is heavy with unspoken fears and suppressed anger, as the students grapple with their own truths under the relentless scrutiny of their captor. Themes of alienation, power dynamics, and the quest for self-justification emerge, painting a stark portrait of youth caught in a web of existential dread.
+As the afternoon drags on, the boundaries between victim and aggressor blur, leading to a chilling examination of what drives a person to the brink. The oppressive heat mirrors the mounting psychological pressure, creating an atmosphere thick with dread and anticipation. In this crucible of conflict, the characters are forced to confront not only their own demons but also the harsh realities of their lives, culminating in a gripping narrative that lingers long after the final page is turned.</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
+      <c r="A102" t="n">
+        <v>1000101</v>
+      </c>
       <c r="B102" t="n">
         <v>1219123</v>
       </c>
@@ -5845,12 +6110,16 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>"Ulverton" is een meeslepende roman die zich afspeelt in het fictieve dorp Ulverton en een rijke geschiedenis van driehonderd jaar verkent. De auteur weeft verschillende stemmen en perspectieven door het verhaal, waardoor de lezer een veelzijdig beeld krijgt van de sociale en culturele veranderingen die het dorp doormaken. Van de verwarringen van een soldaat uit de tijd van Cromwell, die na zijn terugkeer geconfronteerd wordt met de gevolgen van de oorlog en persoonlijke verliezen, tot de verborgen liefdesaffaires van een achttiende-eeuwse boer, biedt het boek een intieme blik op de menselijke ervaring. De narratieve structuur, die gebruikmaakt van dagboeken, brieven, en zelfs filmische elementen, zorgt voor een dynamische en gelaagde vertelwijze. Thema's zoals verlies, verraad, en de zoektocht naar identiteit komen sterk naar voren, terwijl de toon varieert van melancholisch tot ironisch. De personages, variërend van de kwetsbare moeder tot de opportunistische vastgoedontwikkelaars, zijn zorgvuldig uitgewerkt en weerspiegelen de complexiteit van de menselijke natuur. "Ulverton" is niet alleen een verhaal over een dorp, maar ook een reflectie op de geschiedenis van Engeland en de onzichtbare draden die ons met het verleden verbinden.</t>
+          <t>In the heart of the fictional village of Ulverton, a tapestry of lives unfolds across three centuries, weaving together the threads of human experience against the backdrop of England's tumultuous history. The village stands as a silent witness to the passage of time, where the echoes of Cromwell's soldiers mingle with the whispers of farmers and their clandestine affairs. Here, a soldier returns home only to find his world irrevocably altered, while a mother’s desperate letters reach out to her son imprisoned by the tides of fate.
+Through a rich mosaic of diaries, sermons, and intimate conversations in the local pub, the narrative captures the essence of Ulverton—a place where personal dramas intertwine with the broader strokes of history. The discovery of a soldier's skeleton by a modern real estate company serves as a haunting reminder of the past, prompting reflections on loss, identity, and the unrecorded stories that shape a community.
+As each voice emerges, the novel delves into the complexities of love, betrayal, and the relentless passage of time, painting a vivid portrait of a village that is both a sanctuary and a stage for human folly. The atmosphere is thick with nostalgia and the weight of unspoken truths, inviting readers to ponder the enduring impact of history on the present and the fragile connections that bind us across generations. In Ulverton, the past is never truly buried; it lingers, shaping the lives of those who call this village home.</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr"/>
+      <c r="A103" t="n">
+        <v>1000102</v>
+      </c>
       <c r="B103" t="n">
         <v>289451</v>
       </c>
@@ -5897,12 +6166,16 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>"Joy Unspeakable: Power &amp; Renewal in the Holy Spirit" van Martyn Lloyd-Jones biedt een diepgaande verkenning van de betekenis en impact van de Heilige Geest in het leven van gelovigen. Het boek begint met de krachtige uitspraak van Johannes de Doper over de doop met de Heilige Geest, en bouwt hierop een gedetailleerde analyse van de geestelijke kracht die deze doop met zich meebrengt. Lloyd-Jones roept de lezer op om zich opnieuw over te geven aan de Heilige Geest, wat leidt tot een leven van kracht, zuiverheid en zekerheid. De toon van het boek is zowel bemoedigend als waarschuwend, waarbij de auteur de valkuilen en afleidingen bespreekt die gelovigen kunnen tegenkomen op hun spirituele pad. Door middel van een heldere en toegankelijke schrijfstijl, die doordrenkt is met dramatische elementen, weet hij de lezer te raken en aan te sporen tot reflectie. De karaktertypen die in de tekst worden besproken, zijn representatief voor de innerlijke strijd en groei die veel gelovigen ervaren, en de narratieve structuur leidt de lezer door een proces van ontdekking en hernieuwing, waardoor het boek niet alleen informatief, maar ook inspirerend is.</t>
+          <t>In a world often overshadowed by doubt and distraction, the call to embrace the transformative power of the Holy Spirit resonates with profound urgency. Set against the backdrop of spiritual yearning and the quest for deeper faith, the narrative unfolds as an exploration of the promise made by John the Baptist—that one would come to baptize not with water, but with the Holy Spirit. This assertion serves as a catalyst for a journey into the heart of divine renewal, urging believers to submit themselves anew to the Spirit's influence.
+As the tension between the desire for spiritual authenticity and the pitfalls of complacency emerges, the text delves into the complexities of faith, purity, and assurance. It challenges individuals to confront their inner struggles while navigating the external distractions that threaten to ensnare their spiritual journey. The atmosphere is charged with a sense of urgency, inviting readers to reflect on their own experiences of power and renewal within the context of their relationship with the divine.
+Themes of holiness and the transformative nature of faith intertwine, creating a rich tapestry that speaks to the human condition. The call to embrace the Spirit becomes not just a theological assertion but a deeply personal invitation to experience joy unspeakable—a joy that transcends understanding and illuminates the path toward a more profound connection with the sacred. In this exploration, the essence of renewal is not merely a distant promise but a present reality, waiting to be embraced by those willing to heed the call.</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr"/>
+      <c r="A104" t="n">
+        <v>1000103</v>
+      </c>
       <c r="B104" t="n">
         <v>6622868</v>
       </c>
@@ -5949,12 +6222,16 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>"Empress" is een historisch drama dat zich richt op het leven van de eerste vrouwelijke keizer van China, Empress Wu, die opkwam tijdens de Tang-dynastie en een tijdperk van ongekende bloei en verandering inluidde. De auteur, Shan Sa, combineert een meeslepende vertelstijl met rijke, poëtische beschrijvingen, waardoor de lezer wordt ondergedompeld in de complexe wereld van politieke intriges en persoonlijke ambities. Het verhaal verkent diepgaande thema's zoals macht, genderrollen en de strijd om erkenning in een door mannen gedomineerde samenleving. De toon van het boek is zowel reflectief als dramatisch, wat de innerlijke conflicten van de personages benadrukt en de lezer uitnodigt om na te denken over de morele implicaties van hun keuzes. De narratieve structuur is zorgvuldig opgebouwd, met een focus op de psychologische ontwikkeling van Wu, die niet alleen moet navigeren door de uitdagingen van haar positie, maar ook de verwachtingen en vooroordelen van haar tijdgenoten moet overwinnen. Door de combinatie van historische feiten en fictieve elementen biedt "Empress" een genuanceerd portret van een vrouw die haar stempel op de geschiedenis heeft gedrukt, terwijl het tegelijkertijd de universele thema's van ambitie en overleving verkent.</t>
+          <t>In the heart of the Tang Dynasty, a realm pulsating with ambition and intrigue, the narrative unfolds around one of China's most enigmatic figures, the first female emperor, Empress Wu. Set against a backdrop of opulent palaces and the vibrant tapestry of ancient China, the story immerses readers in a world where power is fiercely contested, and the pursuit of greatness often comes at a profound personal cost.
+As Empress Wu navigates the treacherous waters of court politics, her ascent to power is fraught with moral dilemmas and emotional turmoil. The weight of her ambition clashes with the expectations of a patriarchal society, creating a tension that reverberates through her relationships and decisions. In a landscape where loyalty is fleeting and betrayal lurks in every shadow, she must confront the complexities of her identity as both a ruler and a woman, grappling with the sacrifices required to claim her place in history.
+The narrative delves deep into the psychological and philosophical realms of ambition, exploring what it means to strive for greatness in a tumultuous world. Themes of power, gender, and the human condition intertwine, painting a portrait of a woman who defies convention and challenges the very fabric of her society. As the golden age of her reign unfolds, the atmosphere is charged with both the promise of prosperity and the specter of conflict, leaving readers to ponder the true cost of power and the legacy one leaves behind.</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
+      <c r="A105" t="n">
+        <v>1000104</v>
+      </c>
       <c r="B105" t="n">
         <v>8589554</v>
       </c>
@@ -6002,12 +6279,16 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>"Wild Wind Westward" is het eerste deel in de Westward-serie en verkent de complexe dynamiek tussen liefde, loyaliteit en de zoektocht naar een nieuw leven. Het verhaal volgt Kristin Arnesdatter, een jonge vrouw van onmiskenbare schoonheid, die zich in een benarde situatie bevindt als de verloofde van de ambitieuze Gustav Rolfson. Terwijl Rolfson zijn dromen van een imperium in Amerika nastreeft, blijft Kristin echter verbonden met Eric Starbane, een man die zijn verleden ontvlucht en vastbesloten is om zijn eer te herstellen. De roman speelt zich af tegen de achtergrond van een verscheurd Amerika, waar de schaduw van de burgeroorlog de levens van de personages beïnvloedt en hun keuzes bemoeilijkt. De toon van het verhaal is zowel melancholisch als hoopvol, met een sterke nadruk op de innerlijke strijd van de personages en hun verlangen naar vrijheid en liefde. De schrijfstijl is rijk aan beschrijvingen die de lezer onderdompelen in de emotionele en fysieke landschappen van de tijd, terwijl de narratieve structuur de spanning tussen de verschillende verhaallijnen en karaktertypen meesterlijk in balans houdt. Dit boek biedt een diepgaande verkenning van de menselijke geest en de uitdagingen die voortkomen uit de zoektocht naar geluk in een wereld vol onzekere beloften.</t>
+          <t>In a land where the winds whisper tales of ambition and heartache, Kristin Arnesdatter stands at the crossroads of love and duty. With hair that glimmers like the summer sun and eyes as clear as the Norwegian sky, her beauty captivates all, yet it binds her to a fate she cannot embrace. As the reluctant bride of Gustav Rolfson, a man determined to forge an empire in the uncharted territories of America, Kristin's heart remains tethered to another—a fugitive named Eric Starbane. 
+Eric, driven by a thirst for vengeance and the hope of reclaiming his lost love, navigates the tumultuous landscape of a nation embroiled in civil strife. His journey is fraught with peril, as he grapples with the ghosts of his past while striving to carve a future that promises honor and redemption. The tension between loyalty and desire simmers, as Kristin finds herself torn between the security of a life planned for her and the passionate call of a love that defies the odds.
+Amidst the backdrop of a burgeoning frontier, themes of sacrifice, ambition, and the quest for belonging intertwine, painting a vivid portrait of a world where the heart's deepest yearnings clash with the harsh realities of life. As the wild winds blow westward, destinies will collide, and the true battle for love and freedom will unfold, echoing the timeless struggle between duty and desire.</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
+      <c r="A106" t="n">
+        <v>1000105</v>
+      </c>
       <c r="B106" t="n">
         <v>9433558</v>
       </c>
@@ -6054,12 +6335,16 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>"Who Was Changed and Who Was Dead" is een intrigerende roman van Barbara Comyns, die zich afspeelt in een dorp dat wordt geteisterd door een overstroming en een reeks bizarre gebeurtenissen. De openingsscène, waarin de rivier het huis binnenstroomt en de eenden door de woonkamer zwemmen, zet de toon voor een verhaal vol absurditeit en zwarte humor. Comyns verkent thema's als de fragiliteit van het leven en de invloed van de natuur op de menselijke ervaring, terwijl de dorpsbewoners worden geconfronteerd met de dood en de gevolgen van hun eigen keuzes. De personages, waaronder de excentrieke grootmoeder en de sombere tuinman Ives, zijn zorgvuldig opgebouwd en weerspiegelen de complexiteit van menselijke emoties in tijden van crisis. De narratieve structuur is niet-lineair en verweeft verschillende perspectieven, waardoor de lezer wordt uitgedaagd om de onderliggende motieven en de surrealistische sfeer te doorgronden. De stijl van Comyns is poëtisch en visueel, met een scherp oog voor detail, waardoor de bizarre en vaak tragische gebeurtenissen een bijna dromerige kwaliteit krijgen. Dit boek biedt een unieke kijk op de menselijke conditie, met een combinatie van melancholie en humor die het verhaal zijn eigen karakter geeft.</t>
+          <t>In a quaint village where the river’s whims dictate the rhythm of life, an unusual June flood transforms the familiar landscape into a surreal tableau. Ducks glide through drawing-room windows, and the submerged garden becomes a haunting playground for Ebin Willoweed and his daughters. As the villagers navigate this bizarre reality, the atmosphere thickens with an unsettling blend of humor and melancholy. 
+Amidst the chaos, a grandmother, clad in magenta for her seventy-first birthday, anticipates the frivolities of a whist drive, her excitement a stark contrast to the somber events unfolding. The community is gripped by a creeping madness, as a miller succumbs to despair and a funeral procession drifts down the river, shrouded in black. With each passing day, the village witnesses a series of inexplicable tragedies, leading to shattered plates and a tortoise hurled through a window, echoing the disarray that has taken hold. 
+This peculiar narrative unfolds with a magical realism that captures the fragility of life and the absurdity of human existence. Themes of loss, madness, and the unpredictable nature of fate intertwine, creating a tapestry of dark humor and poignant reflection. As the villagers grapple with their unraveling world, the question lingers: what will be the next victim of this fatal madness? The river, a silent observer, flows on, carrying with it the secrets and sorrows of those who dwell along its banks.</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
+      <c r="A107" t="n">
+        <v>1000106</v>
+      </c>
       <c r="B107" t="n">
         <v>16040629</v>
       </c>
@@ -6109,12 +6394,16 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>In "Rules to Catch a Devilish Duke" volgt de lezer het verhaal van Sophia White, een illegitieme dochter van een edelman die haar plaats in de maatschappij als onaanvaardbaar beschouwt. Werken in het Tantalus Club, een discreet etablissement voor heren, plaatst haar in een wereld vol sociale schandalen en morele dilemma's. Wanneer ze de uitnodiging ontvangt om de feestdagen door te brengen op het landgoed van de knappe maar onbereikbare Adam Baswich, de hertog van Greaves, opent zich een nieuwe wereld voor haar. De dynamiek tussen Sophia en Adam is doordrenkt met spanning, waarbij thema's als sociale klasse, zelfontdekking en de strijd tegen maatschappelijke normen centraal staan. Adam, die onder druk staat om te trouwen voor zijn dertigste verjaardag, wordt geconfronteerd met zijn eigen vooroordelen en de verwachtingen van de aristocratie. De toon van het verhaal is zowel romantisch als dramatisch, met een vleugje humor, terwijl de schrijfstijl levendig en beeldend is. De karaktertypen zijn complex; Sophia belichaamt de strijd om onafhankelijkheid, terwijl Adam worstelt met de verantwoordelijkheden van zijn titel. De narratieve structuur biedt een meeslepende kijk op hun ontwikkeling en de uitdagingen die ze moeten overwinnen om ware liefde te vinden te midden van sociale druk.</t>
+          <t>In the opulent world of Regency England, where societal expectations bind the hearts of many, Sophia White stands apart. As the illegitimate daughter of a nobleman, she navigates life at the Tantalus Club, a discreet haven for gentlemen, fully aware that her past renders her unworthy of the marriage she secretly yearns for. When she receives an unexpected invitation to spend the holidays at the estate of the dashing Duke of Greaves, she seizes the opportunity to savor her fleeting independence, determined to relish her last nights of freedom before the inevitable shackles of matrimony.
+Adam Baswich, the Duke, is a man caught between duty and desire. With the weight of his family's expectations pressing upon him, he must secure a suitable bride before his thirtieth birthday or risk losing his fortune. Yet, as he welcomes Sophia into his lavish world, he finds himself captivated by her beauty, strength, and indomitable spirit. She challenges the very conventions he has always upheld, igniting a passion that defies the rigid boundaries of class and reputation.
+Amidst the glittering festivities of the season, a profound tension unfolds. Can Adam forsake societal norms to pursue a love that transcends scandal? As the two navigate the treacherous waters of their disparate worlds, they must confront their deepest fears and desires, ultimately questioning whether true love is worth the risk of losing everything they hold dear. In a tale woven with longing and defiance, the heart's most fervent wishes clash with the unforgiving rules of society, setting the stage for a romance that dares to challenge the status quo.</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
+      <c r="A108" t="n">
+        <v>1000107</v>
+      </c>
       <c r="B108" t="n">
         <v>6673043</v>
       </c>
@@ -6159,12 +6448,16 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>"No Sugar" is een dramatisch toneelstuk dat zich afspeelt in de jaren dertig en de complexe gezinsproblemen van de Aboriginals in West-Australië belicht. Het verhaal ontvouwt zich over vier bedrijven en verkent de uitdagingen waarmee de Aboriginalgemeenschap wordt geconfronteerd in een tijd van koloniale onderdrukking en culturele vervreemding. De personages, bestaande uit twaalf mannen en acht vrouwen, zijn diepgaand ontwikkeld en weerspiegelen de diversiteit van ervaringen binnen de gemeenschap. De toon van het stuk is vaak somber, maar bevat ook momenten van veerkracht en humor, wat de menselijke geest in moeilijke tijden benadrukt. De narratieve structuur is lineair, waardoor de ontwikkeling van de personages en hun onderlinge relaties goed te volgen zijn. Thema's zoals identiteit, familiebanden en de strijd tegen sociale ongelijkheid komen sterk naar voren, waarbij de motieven van overleven en verzet centraal staan. De stijl is authentiek en realistisch, wat bijdraagt aan de krachtige boodschap van het stuk en de noodzaak om de geschiedenis en cultuur van de Aboriginals te erkennen en te respecteren.</t>
+          <t>Set against the stark yet haunting backdrop of Western Australia in the 1930s, a family of Aboriginal descent navigates the complexities of identity, survival, and cultural dislocation amidst a rapidly changing society. The narrative unfolds in four acts, revealing the intimate struggles of twelve men and eight women as they confront the harsh realities imposed upon them by colonial forces and systemic oppression.
+Central to the drama is the tension between tradition and modernity, as the family grapples with their cultural heritage while facing the encroachment of external societal norms. The characters are drawn into a web of emotional and moral conflicts, each representing different facets of resilience and despair, hope and disillusionment. The generational divide becomes palpable as younger members yearn for a future that seems increasingly unattainable, while elders cling to the vestiges of their ancestral ways.
+Themes of displacement, familial bonds, and the quest for dignity resonate throughout, painting a poignant portrait of a community striving to maintain its identity in the face of adversity. The atmosphere is thick with a sense of longing and unease, as the characters' voices echo the broader struggles of Aboriginal people during this tumultuous period. Through their trials, the narrative invites reflection on the enduring impact of history and the indomitable spirit of those who refuse to be silenced.</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
+      <c r="A109" t="n">
+        <v>1000108</v>
+      </c>
       <c r="B109" t="n">
         <v>17698419</v>
       </c>
@@ -6212,12 +6505,16 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>"The Floating Brothel: The Extraordinary True Story of an Eighteenth-Century Ship and its Cargo of Female Convicts" is een fascinerend historisch werk dat de opmerkelijke reis van de Lady Julian in 1789 belicht, een schip dat vol zat met vrouwelijke gevangenen op weg naar Australië. Geschreven door Sian Rees, biedt het boek een diepgaande verkenning van de levens van deze vrouwen, die vaak kleine misdaden hadden gepleegd en nu als 'orde verstoorders' werden bestempeld. Rees put uit rechtbankdocumenten en persoonlijke verslagen om de complexe dynamiek aan boord te onthullen, waar de vrouwen zowel gevangen zaten als een zekere vrijheid vonden in hun interacties met de bemanning. De centrale relatie tussen de convict Sarah Whitelam en de scheepssteward John Nicol voegt een emotionele laag toe aan het verhaal, waarbij thema's van liefde, overleving en de strijd tegen onderdrukking centraal staan. De levendige beschrijvingen van het achttiende-eeuwse Londen en de rauwe realiteit van het leven op zee scheppen een indringende sfeer, terwijl de narratieve structuur de lezer meeneemt op een avontuurlijke en soms ontroerende reis door de geschiedenis. Dit boek biedt niet alleen een blik op de uitdagingen van de vrouwelijke gevangenen, maar ook op de bredere sociale en culturele context van die tijd.</t>
+          <t>In the late eighteenth century, the Lady Julian sets sail from the bustling docks of England, carrying a cargo of "disorderly girls" bound for a distant land. This ship, a vessel of both confinement and unexpected refuge, transports a diverse group of women, each with their own stories of petty crime and societal rejection. As they navigate the treacherous waters toward Botany Bay, the ship becomes a microcosm of tension, where the stark realities of their pasts clash with the uncertain futures that await them in Australia.
+Among the convicts is Sarah Whitelam, whose journey intertwines with that of John Nicol, the ship's steward. Their evolving relationship offers a poignant exploration of human connection amidst adversity, revealing the complexities of love and survival in a world that often seeks to diminish their worth. The voyage is not merely a physical passage but a transformative experience, as the women grapple with their identities and the roles imposed upon them by a patriarchal society.
+Through vivid descriptions of life aboard the Lady Julian, the atmosphere is steeped in the sights and sounds of the sea, capturing both the chaos of confinement and the fleeting moments of freedom. As the ship approaches its destination, the women’s struggles resonate with themes of resilience and the quest for autonomy, illuminating the harsh realities of their existence while hinting at the possibility of new beginnings. This extraordinary tale of courage and defiance invites readers to reflect on the untold stories of those who sailed into the unknown, forever altering the course of their lives.</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
+      <c r="A110" t="n">
+        <v>1000109</v>
+      </c>
       <c r="B110" t="n">
         <v>15825844</v>
       </c>
@@ -6265,12 +6562,16 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>In "Finding Justice" van de Templeton Cove-serie wordt het leven van sergeant Cat Forrester op zijn kop gezet wanneer haar jeugdvriendin wordt vermoord. De complexe dynamiek tussen Cat en Jay Garrett, een man uit haar verleden die nu als verdachte wordt beschouwd, vormt de kern van het verhaal. De auteur verkent thema's als loyaliteit, liefde en de strijd tussen persoonlijke gevoelens en professionele verantwoordelijkheden. Terwijl Cat haar plicht als rechercheur vervult, wordt ze geconfronteerd met de aantrekkingskracht die ze nog steeds voor Jay voelt, wat de spanning in het verhaal verhoogt. De toon is zowel dramatisch als emotioneel geladen, met een constante onderstroom van urgentie en wanhoop. De narratieve structuur is zorgvuldig opgebouwd, waarbij flashbacks en huidige gebeurtenissen elkaar afwisselen om de achtergrond van de personages en hun onderlinge relaties te belichten. De stijl is toegankelijk en meeslepend, waardoor de lezer zich gemakkelijk kan inleven in de worstelingen van Cat en de morele dilemma's waarmee ze wordt geconfronteerd. Dit boek biedt een diepgaande kijk op de impact van geheimen en de zoektocht naar gerechtigheid in een wereld vol complicaties en onvoorspelbare wendingen.</t>
+          <t>In the close-knit community of Templeton Cove, where the echoes of the past linger in the salty air and the tides of change are constant, Sergeant Cat Forrester navigates a world turned upside down by tragedy. The murder of her childhood friend shatters her sense of security, thrusting her into a labyrinth of grief and suspicion. At the center of this turmoil is Jay Garrett, a man from her past, now entangled in a web of accusations that threaten to pull them both under.
+As Cat grapples with her duty to uncover the truth, she finds herself drawn to Jay, whose charm and warmth remind her of a connection that once flourished. Yet, the shadows of his secrets loom large, complicating her quest for justice and igniting a fierce internal battle. The tension between her professional obligations and the rekindled feelings for a suspect creates an emotional maelstrom, forcing Cat to confront not only the mysteries surrounding the murder but also the depths of her own heart.
+In a world where loyalty and betrayal intertwine, Cat must navigate the delicate balance between love and duty, all while the clock ticks down on finding the real killer. As the investigation unfolds, the stakes rise, and the haunting question remains: can she trust the man she once loved, or will the truth shatter everything she holds dear? In this atmospheric tale of friendship, betrayal, and the quest for justice, the line between right and wrong blurs, leaving Cat to ponder what it truly means to find justice in a world fraught with secrets.</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
+      <c r="A111" t="n">
+        <v>1000110</v>
+      </c>
       <c r="B111" t="n">
         <v>839103</v>
       </c>
@@ -6317,12 +6618,16 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>"The Bell Jar" is een autobiografische roman van Sylvia Plath die de innerlijke strijd van een jonge vrouw, Esther Greenwood, in beeld brengt. Het verhaal speelt zich af in de jaren vijftig en volgt Esther terwijl ze een prestigieuze stage bij een modeblad in New York krijgt, wat aanvankelijk als een droom lijkt. Echter, achter de façade van glamour en succes schuilt een diepere, duistere realiteit. Plath verkent thema's zoals de druk van maatschappelijke verwachtingen, de zoektocht naar identiteit en de gevolgen van geestelijke gezondheidsproblemen. De toon van het boek is zowel melancholisch als ironisch, wat bijdraagt aan de complexe sfeer van de roman. De schrijfstijl is direct en introspectief, waardoor de lezer een intieme blik krijgt op Esthers gedachten en gevoelens. Door de narratieve structuur, die afwisselend momenten van helderheid en verwarring weergeeft, wordt de lezer meegenomen in Esthers afglijden naar wanhoop. De karaktertypen zijn veelzijdig en reflecteren de verschillende reacties op de uitdagingen van het leven, waardoor het verhaal een universele resonantie krijgt die verder gaat dan de persoonlijke ervaring van de hoofdpersoon.</t>
+          <t>In the bustling heart of New York City, a young woman embarks on what seems to be a dream journey, landing a coveted position at a prestigious fashion magazine. Yet, beneath the glitz and glamour lies a suffocating pressure that threatens to engulf her. As she navigates the vibrant yet alienating landscape of the city, her aspirations clash with the harsh realities of a society that trivializes her ambitions and disregards her emotional turmoil. 
+The narrative unfolds as a poignant exploration of identity and the relentless pursuit of self amidst societal expectations. The protagonist's vibrant dreams are overshadowed by an encroaching darkness, leading her into a harrowing confrontation with her own mental health. This descent into despair is marked by moments of biting humor and stark vulnerability, revealing the complexities of a sensitive artist grappling with the weight of her own existence.
+Amidst the chaos of her surroundings, themes of feminism and the struggle for authenticity resonate deeply, as the protagonist's journey becomes a reflection of broader societal constraints. The atmosphere is thick with tension, a haunting reminder of the fragility of dreams in a world that often seems indifferent to the inner lives of women. In this evocative tale, the interplay of aspiration and alienation creates a powerful narrative that lingers long after the final page is turned, inviting readers to ponder the cost of conformity and the quest for personal truth.</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
+      <c r="A112" t="n">
+        <v>1000111</v>
+      </c>
       <c r="B112" t="n">
         <v>19296674</v>
       </c>
@@ -6371,12 +6676,16 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>"The End of the Road" is een intrigerende horrorroman die de lezer meeneemt op een duistere reis door het onbekende. Wanneer vijf vrienden van de universiteit een roadtrip maken door Amerika, stuiten ze op een mysterieuze weg die niet op kaarten staat. Hun nieuwsgierigheid leidt hen naar een vervallen stad en een enorme trailerpark, waar de sfeer doordrenkt is van wanhoop en verlatenheid. De inwoners van deze stad, die in hun eigen ellende gevangen lijken te zitten, onthullen een sinistere kant van de menselijke natuur. De toon van het verhaal is beklemmend en onheilspellend, met een constante onderstroom van spanning die de lezer op het puntje van zijn stoel houdt. De narratieve structuur is zorgvuldig opgebouwd, waardoor de spanning geleidelijk toeneemt naarmate de vrienden dieper in de geheimen van de stad en de Big House duiken, een indrukwekkende maar verontrustende villa die hen uitnodigt, maar ook bedreigt. Thema's zoals vriendschap, zelfontdekking en de confrontatie met het onbekende worden op een meeslepende manier verkend, terwijl de karaktertypen zich ontwikkelen in reactie op de grimmige realiteit die hen omringt. De ontdekking van hun ware zelf zal echter niet zonder gevolgen zijn, wat de lezer dwingt na te denken over de grenzen van nieuwsgierigheid en de prijs van zelfontdekking.</t>
+          <t>In a quest for self-discovery, five college friends embark on a cross-country road trip, their laughter echoing through the confines of a minivan as they navigate the open highways of America. However, their journey takes a dark turn when they stumble upon a road that defies all maps and leads them to a town shrouded in mystery and decay. As their vehicle succumbs to mechanical failure, they find themselves drawn into a dilapidated trailer park, its squalor whispering secrets of despair and dread.
+The town, seemingly forgotten by time, is inhabited by enigmatic residents whose unsettling presence hints at deeper horrors lurking beneath the surface. The only refuge appears to be the Big House, an imposing mansion at the heart of the town, its abandoned facade belying the flickering lights that awaken with the night. Within its walls lies a truth that will challenge their very identities, forcing them to confront the shadows of their past and the darkness of their desires.
+As they delve deeper into the secrets of the Big House, the friends grapple with the haunting realization that the journey to find themselves may lead them to a reckoning they never anticipated. The atmosphere thickens with tension, as the line between reality and nightmare blurs, leaving them to question not only what they have discovered about the town but also the very essence of who they are. In this place where hope intertwines with horror, the road ahead may lead to an end they never saw coming.</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
+      <c r="A113" t="n">
+        <v>1000112</v>
+      </c>
       <c r="B113" t="n">
         <v>27911326</v>
       </c>
@@ -6427,12 +6736,16 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>"Flowers in a Dumpster" is een intrigerende bundel van 17 verhalen die de lezer meeneemt op een duistere reis door een wereld vol schoonheid en afschuw. De auteur, Gunnells, verkent thema's als identiteit, de strijd tussen hoop en wanhoop, en de schaduwzijde van menselijke relaties. De verhalen zijn gesitueerd in een post-apocalyptische omgeving waar het verleden vergeten lijkt te zijn, en waar de personages worden geconfronteerd met hun diepste angsten en verlangens. De toon varieert van beklemmend tot melancholisch, met een constante onderstroom van onheilspellende spanning. De narratieve structuur is veelzijdig, waarbij elk verhaal een unieke kijk biedt op de complexe dynamiek tussen de personages, zoals een pornoster die zich overgeeft aan demonische invloeden en twee strijders die onverwachte overeenkomsten ontdekken. De stijl is rijk en beeldend, waardoor de lezer wordt ondergedompeld in de contrasten van pracht en verval. Met een mix van horror en psychologische diepgang biedt deze bundel een verontrustende reflectie op de menselijke conditie en de fragiele grens tussen leven en dood.</t>
+          <t>In a world where beauty and decay intertwine, a haunting collection of seventeen tales invites readers to traverse the shadowy remnants of humanity. The landscape is post-apocalyptic, where memories of the past are often best left buried, and survival hinges on the ability to forget. Within this desolate realm, an unusual support group emerges, comprised of cities succumbing to a shared malaise, each struggling against the encroaching darkness that threatens their very essence.
+Amidst this backdrop, characters grapple with their inner demons and the grotesque realities of their existence. A former star of the adult film industry finds himself ensnared by malevolent forces, while two warriors, locked in a deadly contest, uncover unexpected kinship in their shared plight. A woman’s masochistic desires threaten to unravel her relationship, and a writer’s newfound friendship poses a risk to both his marriage and his sanity, blurring the lines between inspiration and madness.
+Through these narratives, themes of hope and despair coexist, as Gunnells deftly illuminates the fragile beauty that can emerge from the depths of agony. Each story serves as a reminder that even in the most wretched of circumstances, there are still flowers to be found, blooming defiantly amidst the refuse. In this collection, readers are invited to pick a bouquet from the refuse of existence, where the grotesque and the sublime dance in a chilling embrace.</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr"/>
+      <c r="A114" t="n">
+        <v>1000113</v>
+      </c>
       <c r="B114" t="n">
         <v>35901067</v>
       </c>
@@ -6480,12 +6793,16 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>"A Sound In The Dark" is een meeslepende horrorroman die de lezer meeneemt op een angstaanjagende reis door de duistere wildernis van Drifter's Folly Memorial Park. Het verhaal volgt Zack Allen, die samen met een groep vrienden een weekendje wil ontsnappen aan zijn chaotische leven. Wat als een onschuldige kampeertrip begint, verandert al snel in een nachtmerrie wanneer Zack een onheilspellend gevoel krijgt dat er iets niet klopt. De spanning in het verhaal wordt opgebouwd door een combinatie van subtiele hints en een dreigende sfeer, waardoor de lezer voortdurend op het randje van zijn stoel zit. Het thema van wantrouwen en de kwetsbaarheid van vriendschappen komt sterk naar voren, terwijl de personages worden geconfronteerd met hun eigen angsten en geheimen. De narratieve structuur is doordacht, met een mix van flashbacks en het huidige verhaal die de psychologische diepgang van de karakters onthult. De stijl is donker en atmosferisch, met een sterke focus op de geluiden en schaduwen van het bos, wat de spanning verder verhoogt. Terwijl de vrienden worden achtervolgd door een onbekende vijand, ontvouwt zich een sinister spel dat de grenzen van vertrouwen en overleven op de proef stelt.</t>
+          <t>In the shadowy expanse of Drifter's Folly Memorial Park, a group of friends embarks on what they hope will be a rejuvenating weekend of camping, far removed from the chaos of their daily lives. Zack Allen, burdened by the weight of personal turmoil, feels an unsettling presence in the air as they journey deeper into the wilderness. The towering trees, cloaked in darkness, seem to whisper secrets, and an inexplicable tension hangs like fog, thickening with each step they take.
+As night falls, the forest transforms into a labyrinth of shadows, where laughter fades and unease creeps in. Unbeknownst to Zack and his companions, they are not alone; a sinister watcher lurks among the trees, drawn to their vulnerability. This unseen entity harbors dark intentions, eager to ensnare them in a twisted game that blurs the lines between reality and nightmare. 
+The camaraderie of friendship is tested against the encroaching dread, as paranoia and fear seep into their hearts. The once serene landscape becomes a haunting battleground of survival, where trust is fragile and the specter of the unknown looms ever larger. As the night deepens, the forest reveals its true nature, challenging the group to confront their deepest fears and the darkness within themselves. In this chilling tale, the echoes of laughter are swallowed by silence, and the thrill of adventure turns into a desperate struggle for survival against an unseen foe.</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
+      <c r="A115" t="n">
+        <v>1000114</v>
+      </c>
       <c r="B115" t="n">
         <v>28379053</v>
       </c>
@@ -6533,12 +6850,16 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>"Out the Door" is een digitale strip die de lezer meeneemt in de wereld van een jonge jongen die in de nacht zijn gedachten en angsten verkent. De strip heeft een duidelijke horror-ondertoon, waarbij de duistere sfeer wordt versterkt door de illustraties en de keuze van kleuren. Het verhaal ontvouwt zich als een contemplatieve reis, waarin de jongen geconfronteerd wordt met zijn innerlijke demonen en de onbekende gevaren die buiten zijn deur op de loer liggen. De narratieve structuur is eenvoudig maar effectief, met een focus op de psychologische ontwikkeling van het hoofdpersonage, wat de lezer uitnodigt om zich in te leven in zijn kwetsbaarheid en angst. Thema's zoals de strijd tussen kinderlijke onschuld en de realiteit van volwassen angsten komen naar voren, terwijl de motieven van isolatie en de zoektocht naar begrip door de nachtelijke omgeving worden versterkt. De toon is melancholisch en soms beklemmend, wat bijdraagt aan de algehele ervaring van de lezer, die zich bewust wordt van de fragiele grens tussen veiligheid en gevaar.</t>
+          <t>In the stillness of night, a young boy finds himself at the threshold of his home, grappling with the shadows that stretch and twist around him. The world outside is steeped in an unsettling quiet, punctuated only by the whispers of the wind and the distant rustle of leaves, creating an atmosphere thick with anticipation and dread. As he contemplates the darkness that looms beyond the door, the boundary between safety and the unknown blurs, inviting a profound exploration of fear and curiosity.
+In this haunting journey, the boy's internal struggle becomes a mirror reflecting the universal tension between the comfort of the familiar and the allure of the mysterious. The night, with its oppressive silence, serves as a canvas for his thoughts, where the mundane transforms into the macabre, and every creak of the house echoes with unspoken fears. Themes of isolation and the innate human desire to confront what lies beyond the veil of understanding resonate deeply, as the boy stands at the precipice of discovery.
+As he wrestles with his trepidation, the atmosphere thickens with an eerie sense of inevitability, drawing the reader into a world where the ordinary becomes extraordinary, and the night is alive with possibilities—both wondrous and terrifying. In this poignant moment of contemplation, the boy's journey out the door becomes a symbolic passage into the depths of his own psyche, inviting us to ponder what we might find if we dare to step into the unknown.</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
+      <c r="A116" t="n">
+        <v>1000115</v>
+      </c>
       <c r="B116" t="n">
         <v>17561101</v>
       </c>
@@ -6585,12 +6906,17 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>"The Speed of Dark" is een verzameling van 27 korte verhalen die zich bewegen binnen het genre horror, waarbij elk verhaal een unieke en verontrustende kijk biedt op de menselijke ervaring. De auteur verkent thema's zoals angst, isolatie en de duistere kanten van de menselijke psyche. De toon van de verhalen varieert van subtiel onheilspellend tot intens griezelig, waardoor de lezer constant op het randje van hun stoel blijft zitten. De stijl is vaak visueel en evocatief, met een sterke nadruk op sfeer die de spanning opbouwt en de lezer in een wereld van duisternis en onzekerheid trekt. De karaktertypen zijn divers en complex, variërend van alledaagse mensen tot groteske figuren, wat de verhalen een breed spectrum aan emotionele resonantie geeft. De narratieve structuur is vaak niet-lineair, waardoor de lezer wordt uitgedaagd om de verbanden tussen de verschillende verhalen te ontdekken en de onderliggende motieven te ontrafelen. Dit boek biedt niet alleen een angstaanjagende leeservaring, maar nodigt ook uit tot reflectie over de diepere betekenissen van de menselijke conditie.</t>
+          <t>In a realm where the ordinary intertwines with the grotesque, a collection of twenty-seven unsettling tales beckons readers into the shadows of the human psyche. Each story serves as a portal to a world where the familiar twists into the bizarre, revealing the lurking horrors that dwell just beneath the surface of everyday life. 
+As the narratives unfold, they explore the delicate balance between sanity and madness, the fragility of perception, and the haunting echoes of our deepest fears. Characters grapple with the uncanny, often confronting their own inner demons, as the line between reality and nightmare blurs. The settings, ranging from desolate landscapes to claustrophobic spaces, amplify the tension, immersing readers in an atmosphere thick with dread and anticipation.
+Themes of isolation, existential dread, and the unknown pulse through each tale, inviting contemplation on the nature of fear itself. The stories challenge the reader to confront the darkness that resides within and around us, evoking a visceral response that lingers long after the final page is turned. 
+In this anthology, the speed of dark is not merely a measure of time; it is an exploration of the human condition, a reminder that sometimes, the most terrifying monsters are those we create in our own minds. As the last echoes of these chilling narratives fade, an unsettling stillness remains, leaving an indelible mark on the soul.</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr"/>
+      <c r="A117" t="n">
+        <v>1000116</v>
+      </c>
       <c r="B117" t="n">
         <v>20300851</v>
       </c>
@@ -6638,12 +6964,16 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>"Whitby After Dark - Volume 1" is een intrigerende horrorroman die zich afspeelt in het pittoreske maar mysterieuze stadje Whitby, Yorkshire. De hoofdpersoon, Lenore Lee, is een jonge vrouw die in haar nieuwe omgeving probeert te aarden en tegelijkertijd worstelt met verontrustende dromen die haar nachten beheersen. Deze dromen blijken niet alleen een weerspiegeling van haar innerlijke angsten, maar ook een toegangspoort tot een verborgen wereld vol bovennatuurlijke elementen. De sfeer van het verhaal is doordrenkt met een gevoel van dreiging en mysterie, waarbij de schrijver een beklemmende toon hanteert die de lezer voortdurend op het randje van zijn stoel houdt. De narratieve structuur is zorgvuldig opgebouwd, waarbij de spanning geleidelijk toeneemt en de grenzen tussen realiteit en fantasie vervagen. Karaktertypen in het verhaal zijn complex en gelaagd, wat de interacties tussen Lenore en de inwoners van Whitby extra diepte geeft. De thematiek van vriendschap, isolatie en de confrontatie met het onbekende wordt op een subtiele manier verkend, waardoor de lezer wordt uitgedaagd om na te denken over de ware aard van de angsten die ons achtervolgen.</t>
+          <t>In the shadowy coastal town of Whitby, Yorkshire, the air is thick with secrets and the whispers of the past. Lenore Lee, a newcomer seeking solace and friendship, finds herself ensnared by the eerie beauty of her surroundings. As she navigates the cobbled streets and ancient ruins, the haunting echoes of her disturbing dreams begin to intertwine with the unsettling reality she encounters. 
+Beneath the surface of this picturesque town lies a hidden world teeming with supernatural forces, where the line between friend and foe blurs, and the darkness of the night holds both danger and revelation. Lenore’s quest for connection becomes a perilous journey as she grapples with the unsettling truth that her dreams may not merely be figments of her imagination, but rather a glimpse into a realm that threatens her very existence.
+As she delves deeper into the mysteries of Whitby, Lenore must confront her own fears and the chilling possibility that the nightmares she longs to escape may be the key to her survival. The atmosphere is thick with tension, where every shadow could harbor a lurking presence, and every encounter could lead to a revelation that changes everything. In this haunting tale, the struggle for identity and belonging dances perilously close to the edge of horror, inviting readers to explore the darkness that lies just beneath the surface.</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
+      <c r="A118" t="n">
+        <v>1000117</v>
+      </c>
       <c r="B118" t="n">
         <v>634527</v>
       </c>
@@ -6702,12 +7032,17 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>"Second Fontana Book of Great Horror Stories" is een verzameling van twaalf meeslepende verhalen die de lezer onderdompelen in de duistere en vaak onverklaarbare aspecten van het menselijk bestaan. De bundel bevat bijdragen van diverse auteurs, elk met een unieke benadering van het horrorgenre. Van de psychologische spanning in "The Photograph" van Nigel Kneale tot de bovennatuurlijke elementen in "The Hound Of Death" van Agatha Christie, de verhalen verkennen thema's zoals angst, schuld en de grenzen van de menselijke ervaring. De toon varieert van sinister en dreigend tot subtiel en suggestief, waarbij de schrijfstijl van elke auteur bijdraagt aan de algehele sfeer van onbehagen. Karaktertypen in deze verhalen zijn vaak gewone mensen die geconfronteerd worden met ongewone en angstaanjagende situaties, wat de herkenbaarheid en de impact van de verhalen vergroot. De narratieve structuur verschilt van verhaal tot verhaal, maar elk biedt een krachtige climax die de lezer aanzet tot nadenken over de diepere betekenis van de gebeurtenissen. Deze bundel is een waardevolle aanvulling voor liefhebbers van horror, die op zoek zijn naar zowel klassieke als vernieuwende vertellingen binnen het genre.</t>
+          <t>In a collection that beckons readers into the shadowy corners of the human psyche, a myriad of unsettling tales unfolds, each steeped in an atmosphere of dread and intrigue. The settings range from the familiar to the bizarre, where the mundane often masks the extraordinary. Here, an innocent photograph may harbor sinister secrets, and a seemingly benign book can unleash unspeakable horrors. 
+The central tensions arise from the interplay between reality and the supernatural, as characters grapple with their fears, desires, and the unknown. In these narratives, the boundaries of sanity blur, and the familiar becomes a breeding ground for the uncanny. Themes of isolation, the fragility of the human mind, and the lurking presence of malevolence permeate the stories, inviting readers to confront their deepest anxieties.
+As the pages turn, the atmosphere thickens with suspense; each tale is a doorway into a world where the ordinary can swiftly descend into chaos. The characters, whether they are victims of fate or unwitting participants in their own demise, evoke a sense of empathy and unease, compelling readers to ponder the darker aspects of existence. 
+Ultimately, this collection serves as a haunting reminder of the thin veil that separates the known from the unknown, leaving an indelible mark on the imagination long after the last story concludes. In this realm, every shadow holds a whisper, and every silence is pregnant with possibility, inviting the brave to explore the depths of horror that lie within.</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
+      <c r="A119" t="n">
+        <v>1000118</v>
+      </c>
       <c r="B119" t="n">
         <v>3192580</v>
       </c>
@@ -6754,12 +7089,16 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>"Seven Masterpieces of Gothic Horror" is een verzameling van invloedrijke werken die de essentie van het gotische horrorgenre vastleggen, ontstaan in een tijd waarin de opkomst van de wetenschap en rationaliteit een tegenreactie uitlokte. Deze bundel bevat klassiekers zoals Horace Walpole's "The Castle of Otranto", dat vaak wordt beschouwd als de eerste gotische roman, en Mary Shelley's "Frankenstein", dat thema's van creatie en de gevolgen van menselijke ambitie verkent. De verhalen zijn doordrenkt met een sfeer van mysterie en spanning, waarbij het bovennatuurlijke en de duistere kanten van de menselijke natuur centraal staan. Clara Reeve en "Monk" Lewis dragen bij aan deze literaire traditie met hun unieke stijlen, die variëren van romantisch tot grimmig. Edgar Allan Poe's "The Fall of The House of Usher" biedt een psychologische diepgang die de lezer in een staat van onbehagen brengt, terwijl Nathaniel Hawthorne en Sheridan Le Fanu met hun verhalen de grenzen van de realiteit verkennen. De narratieve structuren in deze werken zijn vaak complex, met een sterke focus op karakterontwikkeling en de invloed van de omgeving op de psyche, wat bijdraagt aan de blijvende aantrekkingskracht van het gotische horrorgenre.</t>
+          <t>In a world where the rational mind often stifles the imagination, shadows of the supernatural emerge, weaving a tapestry of mystery and terror that beckons the reader into the depths of the human psyche. Set against the backdrop of the Enlightenment, this collection of Gothic tales invites exploration into the eerie recesses of haunted castles, desolate landscapes, and the intricate labyrinths of the heart. 
+Within these pages, the oppressive weight of reason gives way to the fantastical, as the specter of the unknown looms large. Each narrative unfolds a haunting tableau, where the clash between light and darkness reveals the fragility of sanity and the allure of the forbidden. The tormented souls within these stories grapple with their own inner demons, confronting the uncanny and the grotesque, while the boundaries between life and death blur in unsettling ways.
+Themes of isolation, madness, and the supernatural intertwine, creating an atmosphere thick with dread and anticipation. As the characters navigate their haunted existences, the reader is drawn into a realm where the past lingers ominously, and the echoes of forgotten horrors resonate through the ages. This anthology serves as a gateway to the Gothic underground, where the beauty of terror and the allure of the macabre coalesce, inviting a contemplation of the darker aspects of human experience. In this twilight fiction, the heart races, and the mind trembles, as the shadows whisper secrets long buried.</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
+      <c r="A120" t="n">
+        <v>1000119</v>
+      </c>
       <c r="B120" t="n">
         <v>8488031</v>
       </c>
@@ -6808,12 +7147,16 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>"Dangerous Alliance" is een intrigerende horrorroman die de complexe dynamiek tussen liefde en angst onderzoekt. Het verhaal volgt Kent, een vrouw die zich gevangen voelt in een emotionele spiraal door haar relatie met Matt King, een man die zowel aantrekkingskracht als vrees in haar oproept. De auteur hanteert een donkere, beklemmende toon die de lezer voortdurend in spanning houdt, terwijl de narratieve structuur de innerlijke strijd van Kent onthult. De thematiek van onveilige liefde en de strijd om persoonlijke grenzen te stellen, wordt door de verschillende karaktertypen versterkt; Kent is zowel kwetsbaar als vastberaden, terwijl Matt een mysterieus en potentieel gevaarlijk figuur blijft. De stijl van de roman is rijk aan beschrijvingen die de beklemmende sfeer accentueren, waardoor de lezer zich kan inleven in Kent's groeiende angst en haar onvermogen om haar gevoelens voor Matt te negeren. De spanning tussen verlangen en afschuw vormt de kern van het verhaal, waardoor "Dangerous Alliance" een meeslepende en emotioneel geladen leeservaring biedt.</t>
+          <t>In a world steeped in tension and unspoken fears, a young woman finds herself ensnared in a precarious emotional landscape. The air is thick with unacknowledged desires and the haunting shadows of past encounters. As she grapples with her growing dread of Matt King, an enigmatic figure whose presence both captivates and terrifies her, she realizes that escape may be futile. The deeper she delves into her feelings, the more she understands that her heart remains tethered to him, even as her mind urges her to flee.
+The atmosphere is charged with a sense of impending doom, where love intertwines with fear, and the lines between affection and danger blur. This marriage of convenience, fraught with unromantic undertones, reveals the complexities of human connection, where vulnerability clashes with the instinct to protect oneself. The protagonist’s struggle is not merely against her feelings for Matt but also against the darker elements of her own psyche, as she confronts the reality of her fears and the consequences of her choices.
+In this haunting narrative, the protagonist must navigate the treacherous waters of love and self-preservation, ultimately discovering that true strength lies not in avoidance but in the acceptance of one's deepest emotions. As the tension mounts, the chilling echoes of her heart's desires resonate, leaving her to ponder whether the greatest danger lies in the act of loving itself.</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
+      <c r="A121" t="n">
+        <v>1000120</v>
+      </c>
       <c r="B121" t="n">
         <v>13504438</v>
       </c>
@@ -6862,12 +7205,16 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>In "Passion's Flight," het tweede deel van de Dark Breed Enforcers-serie, wordt de lezer meegenomen in een duistere wereld waar de grenzen tussen mens en monster vervagen. Hoofdpersoon Tegan Murin, een gefrustreerde were-panther, staat voor een onmogelijke taak: het stoppen van de toenemende aanvallen door de Feral-wezens en het vinden van een dodelijk artefact, Oman's Seal. Deze complexe zoektocht wordt bemoeilijkt door zijn onopgeloste familieproblemen en een mysterieuze, verleidelijke droom die zijn leven op het spel zet. Tegelijkertijd wordt Kyra Navarone geïntroduceerd, een sterke en intrigerende vrouw die haar eigen demonen met zich meedraagt en zich moet verhouden tot de onbetrouwbare Tegan. De onderliggende thema's van vertrouwen en verraad komen sterk naar voren, terwijl de spanning tussen de personages een broeierige sfeer creëert. De narratieve structuur weeft hun verhalen samen, waarbij de lezer wordt uitgedaagd om de motieven en verlangens van beide hoofdpersonages te doorgronden. De stijl is donker en intens, wat bijdraagt aan de algehele horror-ervaring van het verhaal, waarin de strijd tegen zowel externe als interne vijanden centraal staat.</t>
+          <t>In a world teetering on the brink of chaos, Tegan Murin, a weary were-panther, grapples with the mounting threat of feral attacks on unsuspecting humans. Tasked with a perilous mission to locate and destroy a sinister artifact known as Oman's Seal, he finds himself entangled in a web of personal turmoil, including a fraught relationship with his estranged step-father and the urgent search for a missing archaeologist. Amidst the turmoil, Tegan is haunted by vivid dreams of an alluring seductress, whose presence teeters between desire and doom, igniting a simmering frustration within him.
+Kyra Navarone, a woman of hidden depths, emerges from the shadows of captivity, having narrowly escaped the clutches of the ferals. Her instinctual attraction to Tegan is immediate, yet fraught with danger; her survival hinges on a betrayal that could shatter the fragile trust forming between them. As their fates intertwine, they must navigate the treacherous waters of their pasts and the harsh realities of their present, learning to rely on one another in a world where loyalties are tested and darkness lurks beneath the surface.
+Together, they stand at the precipice of destruction, where the boundaries of trust and betrayal blur, and the very fabric of their existence hangs in the balance. In this haunting landscape of passion and peril, the stakes are not just their lives but the fate of the hidden realms that pulse with ancient power.</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
+      <c r="A122" t="n">
+        <v>1000121</v>
+      </c>
       <c r="B122" t="n">
         <v>11073526</v>
       </c>
@@ -6914,12 +7261,17 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>"Save Yourself, Mammal!: A Saturday Morning Breakfast Cereal Collection" is een bundeling van de populaire webcomic Saturday Morning Breakfast Cereal (SMBC), die bekendstaat om zijn scherpe humor en diepgaande reflecties op uiteenlopende thema's. De strips verkennen onderwerpen zoals liefde, relaties, en de complexe dynamiek van de menselijke ervaring, maar ook wetenschappelijke en filosofische vraagstukken worden niet geschuwd. De toon van de comic is vaak luchtig en komisch, maar onder de humor schuilt een kritische blik op de wereld, waardoor het zowel vermaak biedt als aanzet tot nadenken. De stijl is herkenbaar door zijn eenvoudige tekeningen en directe dialogen, die de toegankelijkheid van de inhoud benadrukken. Karaktertypen variëren van alledaagse mensen tot archetypische figuren, waardoor lezers zich gemakkelijk kunnen identificeren met de situaties en dilemma's die worden gepresenteerd. De narratieve structuur is vaak episodisch, met korte, krachtige verhalen die elk een eigen boodschap of inzicht bevatten. Deze eerste verzameling van SMBC, die voor het eerst in boekvorm verschijnt, biedt een unieke kans om de evolutie van de strip te volgen en de impact ervan op een breed publiek te waarderen.</t>
+          <t>In a world where the absurdities of everyday life collide with the profound complexities of existence, a unique collection emerges, inviting readers to explore the intersections of love, science, and the human experience through a lens of humor. This compilation of whimsical illustrations and witty narratives captures the essence of modern life, where relationships are navigated with the same curiosity as scientific inquiry and philosophical musings.
+As characters grapple with the intricacies of their emotions and the often ridiculous nature of societal norms, the comic's vibrant panels serve as a mirror reflecting both the hilarity and the gravity of contemporary issues. From the trials of romance to the perplexities of economics and the nuances of politics, each vignette offers a fresh perspective, encouraging laughter while provoking thought.
+The atmosphere is one of playful introspection, where laughter becomes a tool for understanding the world’s complexities. The collection resonates with a diverse audience, drawing in those who seek both entertainment and enlightenment. It stands as a testament to the power of humor in addressing serious themes, all while championing a noble cause that empowers educators and nurtures the next generation of thinkers.
+In this delightful anthology, the mundane is transformed into the extraordinary, inviting readers to not only save themselves from the drudgery of the everyday but also to embrace the joy of inquiry, connection, and the shared experience of being human.</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
+      <c r="A123" t="n">
+        <v>1000122</v>
+      </c>
       <c r="B123" t="n">
         <v>33832175</v>
       </c>
@@ -6966,12 +7318,16 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>In "The Perfect World of Kai 20", het twintigste deel van de populaire serie "Piano no Mori", worden de lezers opnieuw ondergedompeld in de unieke wereld van muziek en menselijke relaties. De toon van het verhaal is licht en komisch, met een onderliggende diepgang die de complexiteit van vriendschap en ambitie verkent. De hoofdpersonages, waaronder de getalenteerde pianist Kai, navigeren door de uitdagingen van hun muzikale aspiraties, terwijl ze ook persoonlijke groei doormaken. De stijl is toegankelijk en levendig, met een focus op de interacties tussen de personages die zowel humoristisch als ontroerend zijn. De narratieve structuur is dynamisch, waarbij verschillende verhaallijnen samenkomen en de lezer uitnodigen om na te denken over thema's als doorzettingsvermogen, de waarde van samenwerking en de impact van kunst op het leven van individuen. De karakters zijn herkenbaar en divers, wat bijdraagt aan de rijke weergave van hun onderlinge relaties en de wereld waarin zij opereren. Dit deel belicht niet alleen de vreugde van muziek, maar ook de obstakels die overwonnen moeten worden om een 'perfecte wereld' te creëren.</t>
+          <t>In a vibrant yet surreal world where music intertwines with the fabric of reality, the lives of two young musicians unfold against a backdrop of whimsical landscapes and enchanting melodies. As they navigate their aspirations, they find themselves caught in a delicate balance between personal ambition and the weight of friendship. The air is thick with the tension of competition, yet laced with moments of levity that spark laughter and camaraderie.
+The central conflict emerges as they strive to carve their own paths in a society that often measures success by the notes played rather than the passion behind them. Each encounter reveals the intricacies of their relationships, where misunderstandings and rivalries bubble beneath the surface, challenging their resolve and creativity. As they grapple with their insecurities, the duo learns that the true essence of music lies not only in perfection but in the shared experiences that resonate with the heart.
+Themes of self-discovery and the pursuit of dreams are interwoven with a comedic touch, as the characters navigate the absurdities of their world. The atmosphere is one of vibrant energy, where laughter mingles with the bittersweet notes of life’s complexities. In this perfect yet imperfect world, the journey of these musicians becomes a celebration of the harmony found in both triumph and failure, inviting readers to reflect on the melodies that shape their own lives.</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
+      <c r="A124" t="n">
+        <v>1000123</v>
+      </c>
       <c r="B124" t="n">
         <v>16040620</v>
       </c>
@@ -7025,12 +7381,16 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>"Men Are Like Wine" is een humoristisch boek van Anne Violette dat op een luchtige manier de veelzijdigheid van mannen vergelijkt met 21 populaire wijnvariëteiten. De auteur gebruikt een speelse toon en anekdotes om de karakteristieken van verschillende mannen te belichten, waarbij elke wijn een archetype vertegenwoordigt, zoals de 'Bad Boy' Pinot Noir en de 'Nice Guy' Merlot. Deze vergelijkingen zijn niet alleen geestig, maar bieden ook inzicht in de dynamiek van relaties en de verschillende types die we in ons leven tegenkomen. De narratieve structuur is toegankelijk en uitnodigend, waardoor lezers zich gemakkelijk kunnen identificeren met de beschreven typologieën. Violette's stijl is vlot en onderhoudend, wat bijdraagt aan de algehele sfeer van het boek, dat zowel vermakelijk als reflectief is. Door de combinatie van humor en herkenbaarheid, nodigt het uit tot nadenken over persoonlijke voorkeuren en de 'wijnen' die we in ons leven kiezen of koesteren. Dit boek is een verfrissende benadering van de thema's liefde en vriendschap, verpakt in een aantrekkelijk en herkenbaar format voor wijnliefhebbers en relatiezoekers.</t>
+          <t>In a world where relationships are as varied and nuanced as the finest wines, a playful exploration unfolds, inviting readers to sip rather than guzzle the delightful comparisons between men and their vinous counterparts. Set against a backdrop of vibrant social gatherings and intimate soirées, the narrative introduces a cast of characters that embody the essence of beloved wine varieties. Each personality is distilled into charming anecdotes, revealing the complexities of love and attraction through the lens of oenology.
+As the protagonist navigates the intricacies of modern romance, she encounters a spectrum of personalities—from the alluring "Charmer" reminiscent of Champagne to the steadfast "Mr. Right" embodied by Cabernet. The lighthearted tone belies deeper themes of self-discovery and the quest for genuine connection amidst a sea of fleeting encounters and superficial charm. The interplay of humor and insight creates an atmosphere ripe for laughter, while also prompting reflection on what it means to truly savor a relationship.
+With each chapter serving as a tasting note, readers are encouraged to consider which types of companionship to cherish, which to indulge in, and which to set aside for future appreciation. This whimsical yet poignant journey through the vineyard of love captures the essence of human connection, leaving one with a sense of warmth and the promise of delightful discoveries yet to come.</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
+      <c r="A125" t="n">
+        <v>1000124</v>
+      </c>
       <c r="B125" t="n">
         <v>5225930</v>
       </c>
@@ -7079,12 +7439,16 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>"The Horse's Mouth" van Joyce Cary is een intrigerende roman die het leven van Gulley Jimson, een armoedige en rebelse schilder, in beeld brengt. De protagonist belichaamt een artistiek temperament dat zich verzet tegen de conventies van de maatschappij. Gulley is gefocust op zijn kunst en toont een bijna obsessieve toewijding, waarbij hij bereid is om alle materiële gemakken op te offeren voor zijn creatieve expressie. Dit leidt tot een ironische spanning tussen zijn morele keuzes en zijn artistieke integriteit. Cary's schrijfstijl is rijk en vol nuance, waardoor de lezer wordt ondergedompeld in de complexe psyche van de hoofdpersoon. De toon van het verhaal is zowel humoristisch als scherpzinnig, met een onderliggende melancholie die de worstelingen van de kunstenaar weerspiegelt. De narratieve structuur biedt een diepgaand inzicht in de karakterontwikkeling van Gulley, die niet alleen een anti-held is, maar ook een figuur die de grenzen van de kunst en de maatschappij verkent. Door zijn onconventionele levensstijl en zijn afkeer van sociale normen, roept hij vragen op over de rol van de kunstenaar in de samenleving en de prijs van artistieke vrijheid.</t>
+          <t>In a world where the vibrant hues of creativity clash with the drabness of societal norms, an impoverished painter named Gulley Jimson navigates the tumultuous landscape of artistic ambition. Set against a backdrop of post-war disillusionment, the story unfolds in the bustling streets and shadowy corners of a city that mirrors Jimson's chaotic mind—a place alive with the pulse of artistic fervor yet stifled by conventional expectations. 
+Gulley, a figure both captivating and exasperating, embodies the essence of the tortured artist, reveling in his disdain for societal obligations. His life is a constant struggle against the mundane, as he prioritizes his passion for painting above all else, embracing the hardships that come with his singular devotion. Yet, rather than wallowing in self-pity, he approaches his circumstances with a sardonic wit, finding humor in the absurdities of life and the contradictions of his existence.
+As the narrative unfolds, themes of artistic integrity and the price of creativity emerge, revealing the tension between personal freedom and societal constraints. Gulley’s journey is not merely one of survival but a bold declaration of individuality, challenging the very fabric of morality as he seeks to capture the essence of life on canvas. The atmosphere is thick with a blend of laughter and pathos, inviting readers to ponder the complexities of the artistic spirit while celebrating the irreverent joy that comes from living authentically. In this rich tapestry of character and conflict, the essence of art itself is both a sanctuary and a battleground, echoing the eternal struggle between creation and convention.</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
+      <c r="A126" t="n">
+        <v>1000125</v>
+      </c>
       <c r="B126" t="n">
         <v>28636849</v>
       </c>
@@ -7131,12 +7495,16 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>"Deadpool (2016-) #6" biedt een unieke kijk op de wereld van Deadpool, waarin de lezer 84 jaar in de toekomst wordt meegenomen. Dit nummer introduceert een nieuwe versie van de iconische antiheld, Deadpool 2099, een personage dat zich kenmerkt door een combinatie van humor en actie, met een futuristisch tintje. De toon van het verhaal blijft trouw aan de kenmerkende stijl van Deadpool, vol met scherpe dialogen en zelfbewuste humor, terwijl het tegelijkertijd de thema's van identiteit en erfelijkheid verkent. De relatie tussen de nieuwe Deadpool en Wade Wilson wordt op een intrigerende manier belicht, wat vragen oproept over de continuïteit van het personage en zijn invloed op toekomstige generaties. De narratieve structuur speelt met tijd en ruimte, waardoor de lezer niet alleen wordt vermaakt, maar ook aan het denken wordt gezet over de gevolgen van de acties van de helden uit het verleden. De combinatie van komedie en sci-fi elementen zorgt voor een levendige sfeer, waarin de absurditeit van het superheldenleven op een frisse manier wordt gepresenteerd.</t>
+          <t>In a vibrant future, 84 years ahead of the present, a new chapter unfolds in the chaotic legacy of the Merc with a Mouth. The world has transformed, yet the irreverent spirit of Deadpool endures, now embodied by a new protagonist: the audacious Deadpool 2099. This futuristic heroine, armed with a sharp tongue and an even sharper wit, navigates a landscape where technology and absurdity intertwine, challenging the very fabric of her reality.
+As she embarks on her own outrageous escapades, questions loom about her origins and the enigmatic connection to the original Wade Wilson. The narrative dances between humor and existential inquiry, exploring themes of identity and legacy in a world that has both evolved and remained absurdly familiar. Amidst high-tech hijinks and satirical commentary on the nature of heroism, the story invites readers to ponder what it means to carry the mantle of a legend while forging a path uniquely one's own.
+With a backdrop of dazzling sci-fi elements and a relentless pace, the atmosphere brims with comedic tension, where every twist and turn is laced with irony. The future may be uncertain, but one thing is clear: the spirit of Deadpool, in all its chaotic glory, continues to thrive, promising laughter and adventure in equal measure.</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
+      <c r="A127" t="n">
+        <v>1000126</v>
+      </c>
       <c r="B127" t="n">
         <v>26165670</v>
       </c>
@@ -7185,12 +7553,16 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>"Marmaduke Rides Again" is een humoristisch boek dat de lezer meeneemt in de wereld van Marmaduke, een grote en onconventionele hond die met zijn eigenzinnige gedrag en indrukwekkende formaat de harten van velen verovert. De verzameling cartoons biedt een luchtige kijk op het leven van Marmaduke, waarin zijn capriolen en interacties met mensen en andere dieren centraal staan. De toon van het boek is speels en vrolijk, waardoor het een breed publiek aanspreekt, ongeacht hun affiniteit met honden. De stijl is visueel aantrekkelijk, met levendige illustraties die de humor van de situaties accentueren. De verhalen zijn kort en bondig, wat de narratieve structuur dynamisch maakt en de lezer uitnodigt om telkens weer verder te bladeren. Thema's zoals vriendschap, avontuur en de komische kanten van het dagelijks leven worden op een luchtige manier verkend, waardoor de lezer niet alleen vermaakt wordt, maar ook een gevoel van herkenning ervaart. Marmaduke's karaktertype als een onschuldige en soms klungelige hond zorgt voor een charmante en toegankelijke sfeer, waardoor het boek een plezierige leeservaring biedt voor jong en oud.</t>
+          <t>In a world where the ordinary meets the extraordinary, a lovable giant of a dog named Marmaduke takes center stage, captivating hearts and tickling funny bones across the nation. Set against the backdrop of suburban life, this collection of whimsical cartoons invites readers into the delightful chaos that ensues when Marmaduke, with his towering stature and boundless energy, navigates the everyday challenges of family life and neighborhood antics. 
+With each turn of the page, the antics of this endearing canine reveal a tapestry of humor woven through the trials of dog ownership, the quirks of human companions, and the unpredictable nature of friendship. Marmaduke's capricious whims lead to uproarious situations, where the mundane transforms into the absurd, and laughter becomes a shared language among dog lovers and skeptics alike. 
+Amidst the laughter, the underlying themes of loyalty, the joy of companionship, and the hilarity of misunderstandings resonate deeply, inviting readers to reflect on the delightful unpredictability of life. As Marmaduke bounds through his adventures, he not only entertains but also reminds us of the simple pleasures found in the companionship of our four-legged friends. The atmosphere is one of lighthearted joy, where every mishap is a chance for laughter, and every page brims with the warmth of camaraderie and the joy of being unapologetically oneself.</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
+      <c r="A128" t="n">
+        <v>1000127</v>
+      </c>
       <c r="B128" t="n">
         <v>20959116</v>
       </c>
@@ -7240,12 +7612,17 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>"The Star Wars (The Star Wars, #0)" biedt een unieke blik achter de schermen van de iconische Star Wars-franchise. Dit boek fungeert als een waardevolle aanvulling op de acht-delige stripadaptatie van George Lucas' oorspronkelijke ruwe script. Het bevat nooit eerder gepubliceerde ontwerpen en strips die een fascinerend inzicht geven in het creatieve proces dat ten grondslag ligt aan de ontwikkeling van deze geliefde ruimteopera. De toon van het werk is doorspekt met humor, wat de vaak serieuze thema's van goed versus kwaad en de zoektocht naar identiteit verzacht. De stijl is visueel aantrekkelijk, met gedetailleerde illustraties die zowel de charme als de complexiteit van de personages en werelden in de Star Wars-galaxy vastleggen. Door het gebruik van verschillende narratieve structuren en karaktertypen, van de heroïsche Jedi tot de schimmige Sith, wordt de lezer meegenomen op een reis die zowel nostalgisch als vernieuwend aanvoelt. Dit boek is niet alleen een must-have voor fans, maar ook voor diegenen die geïnteresseerd zijn in de evolutie van verhalen binnen de populaire cultuur.</t>
+          <t>In a galaxy where the familiar dances with the extraordinary, a vibrant tapestry of creativity unfolds, revealing the heart and soul behind an iconic saga. This companion piece invites readers into the intricate world of design and imagination that shaped a legendary narrative, offering a rare glimpse into the artistic journey that brought a universe to life. 
+Within its pages, the echoes of adventure resonate through never-before-seen comic sequences, each frame a testament to the visionary spirit that captivated generations. The atmosphere is charged with the thrill of discovery, as unpublished designs and sketches illuminate the creative process, showcasing the playful yet profound interplay between inspiration and execution. 
+Central to this exploration is the tension between the known and the unknown, where familiar archetypes are reimagined in unexpected ways, inviting both laughter and contemplation. Themes of aspiration and the quest for identity weave through the fabric of this artistic odyssey, as characters and creators alike grapple with their roles in a sprawling narrative landscape. 
+As readers delve deeper, they are enveloped in a sense of wonder, where the boundaries of imagination are pushed, and the essence of storytelling is celebrated. This volume stands not only as a companion but as a tribute to the enduring power of creativity, inviting all who venture within to embrace the joy of exploration in a galaxy filled with endless possibilities.</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
+      <c r="A129" t="n">
+        <v>1000128</v>
+      </c>
       <c r="B129" t="n">
         <v>888989</v>
       </c>
@@ -7292,12 +7669,16 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>"Marvel Masterworks: The Human Torch, Vol. 1" is een verzameling die de avonturen van de iconische superheld Human Torch opnieuw tot leven brengt, met herdrukken van Strange Tales #101-117 en Annual #2. Dit boek biedt een blik op de vroege jaren van de Human Torch, een personage dat symbool staat voor zowel de strijd tegen het kwaad als de worstelingen van een jongeman die zijn plaats in de wereld probeert te vinden. De verhalen combineren humor met actie en bevatten een scala aan kleurrijke schurken en bondgenoten, waardoor een levendige en dynamische sfeer ontstaat. De toon is vaak luchtig, met een speelse benadering van de uitdagingen waarmee de held wordt geconfronteerd, terwijl de narratieve structuur zich richt op episodische avonturen die de ontwikkeling van de karaktertypen verder uitdiepen. De illustraties zijn kenmerkend voor de tijd, met een stijl die de energie en creativiteit van de vroege Marvel-periodes weerspiegelt. Dit volume biedt niet alleen een nostalgische terugblik voor fans van het genre, maar ook een interessante inkijk in de evolutie van superheldenverhalen in de populaire cultuur.</t>
+          <t>In a vibrant world where the extraordinary collides with the everyday, the Human Torch emerges as a blazing beacon of adventure and humor. Set against the backdrop of a bustling 1960s America, this collection invites readers into a realm where the boundaries of reality are stretched by the fantastical; here, superpowers are both a gift and a source of chaos. The Human Torch, with his fiery abilities and youthful exuberance, navigates the trials of heroism while grappling with the complexities of friendship, rivalry, and self-identity.
+As he confronts a colorful array of villains and challenges, the Torch embodies the spirit of resilience and the comedic missteps that often accompany the pursuit of greatness. Each encounter serves as a catalyst for growth, revealing the delicate balance between bravado and vulnerability. The interplay of humor and tension creates a dynamic atmosphere, where laughter often punctuates the seriousness of his battles, reminding us that even heroes can stumble.
+Themes of acceptance and the quest for belonging resonate throughout, as the Torch learns that true strength lies not just in his powers, but in the connections he forges with those around him. This collection captures the essence of youthful exuberance, showcasing a hero who, despite his fiery nature, learns to embrace both his flaws and triumphs. With each page, readers are drawn into a world where the extraordinary is commonplace, and the heart of a hero burns bright amidst the laughter and chaos of life.</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
+      <c r="A130" t="n">
+        <v>1000129</v>
+      </c>
       <c r="B130" t="n">
         <v>17927938</v>
       </c>
@@ -7344,12 +7725,16 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>In "Birds of Prey, Vol. 2: Your Kiss Might Kill" worden de iconische vrouwelijke helden van Gotham City, waaronder Black Canary, Starling, Poison Ivy en Batgirl, geconfronteerd met een reeks complexe uitdagingen die zowel hun vaardigheden als hun onderlinge relaties op de proef stellen. Dit deel van de serie verkent thema's van vriendschap, opoffering en de strijd tussen goed en kwaad, terwijl de Birds of Prey hun krachten bundelen om te strijden tegen schimmige vijanden die hen zowel van buitenaf als van binnenuit bedreigen. De toon is een mix van humor en spanning, wat bijdraagt aan de dynamiek van de personages, die elk hun eigen unieke achtergrond en motieven hebben. De narratieve structuur is gelaagd, met verschillende verhaallijnen die samenkomen in een climax die de lezer op het puntje van zijn stoel houdt. De interacties tussen de heldinnen zijn doordrenkt met een geestige, soms sarcastische ondertoon, wat de comic een luchtige sfeer geeft, ondanks de serieuze onderwerpen die worden aangesneden. Dit volume biedt niet alleen actie en avontuur, maar ook een diepere kijk op de persoonlijke strijd van de karakters, vooral als ze zich moeten verhouden tot de geheimen en kwetsbaarheden die hen menselijk maken.</t>
+          <t>In the shadowy streets of Gotham City, a covert team of formidable women operates under the banner of the Birds of Prey. Black Canary, Starling, Poison Ivy, and Batgirl navigate a world teeming with danger, where the villains lurk in the dark corners that even the bravest heroes fear to tread. Their mission is not just to combat crime but to protect their own secrets, as a new adversary threatens to unveil the hidden past of Black Canary, igniting a tense struggle between personal demons and the greater good.
+As the city braces for the ominous "Night of the Owls," the stakes rise, drawing the attention of the insidious Court of Owls, whose machinations weave a web of intrigue and peril around the Birds. Amidst this chaos, the team faces a critical dilemma when Poison Ivy suffers a grave injury, prompting a desperate journey to the Amazon in search of healing. Yet, the path to rejuvenation is fraught with challenges, as the bonds of friendship and loyalty are tested in the face of adversity.
+Amid the high-octane escapades and sharp-witted banter, themes of trust, sacrifice, and the complexities of female camaraderie emerge, creating a rich tapestry of humor and tension. As the Birds of Prey soar through the trials that threaten to tear them apart, they must confront not only the external forces of Gotham's criminal underbelly but also the internal struggles that define their identities. In this vibrant, chaotic world, survival hinges on their ability to rely on one another, proving that even in the darkest times, the strength of friendship can light the way.</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
+      <c r="A131" t="n">
+        <v>1000130</v>
+      </c>
       <c r="B131" t="n">
         <v>22470774</v>
       </c>
@@ -7397,12 +7782,16 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>In "Real Maid: Episode 13" wordt de complexe relatie tussen Hayato en de zelfloze maid Moe verder verkend, waarbij thema's van liefde, identiteit en de grenzen van menselijke connecties centraal staan. Terwijl Hayato zich voorbereidt op zijn expeditie naar de Noordpool, wordt de kloof tussen hem en Moe steeds duidelijker. De toon van het verhaal balanceert tussen komedie en een onderliggende melancholie, waarbij de humor vaak voortkomt uit de onhandige situaties die ontstaan door Hayato's groeiende gevoelens voor Moe. De narratieve structuur is opgebouwd rond Hayato's interne conflicten; zijn verlangen naar afstand om zijn emoties te beschermen staat in schril contrast met Moe's onvoorwaardelijke toewijding. De stijl is toegankelijk en levendig, met een focus op de subtiele veranderingen in Moe's toestand, die de lezer uitnodigt om na te denken over de impact van verwaarlozing en de betekenis van liefde in een niet-traditionele relatie. De karaktertypen zijn herkenbaar en menselijk, waarbij Hayato's worstelingen en Moe's onschuld een intrigerende dynamiek creëren die de lezer blijft boeien.</t>
+          <t>In a world where the boundaries of love and artificiality blur, Hayato finds himself entangled in a complicated emotional web with Moe, a selfless maid whose very existence challenges his perceptions of affection. As his feelings deepen, he grapples with the unsettling realization that he is beginning to love her not merely as a creation, but as a being deserving of genuine connection. This burgeoning affection stirs an internal conflict, prompting Hayato to adopt a cautious distance, believing that separation might shield him from the complexities of his emotions.
+Meanwhile, the pressures of academia loom large as Hayato dedicates himself to rigorous preparations for an ambitious North Pole expedition. His commitment to his studies pulls him further away from Moe, leaving her to navigate the physical and emotional repercussions of his absence. As days turn into nights filled with solitude, the strain on Moe becomes palpable, raising the question of how long she can endure this emotional neglect.
+Amidst the backdrop of university life, where the pursuit of knowledge collides with the intricacies of human connection, the story dances through moments of humor and tension. The interplay of romantic confusion and the quest for identity resonates deeply, inviting reflections on the nature of love, companionship, and the sacrifices made for ambition. In this delicate balance of laughter and longing, the characters are drawn into a poignant exploration of what it truly means to be seen and cherished, even when the heart's desires are shrouded in complexity.</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
+      <c r="A132" t="n">
+        <v>1000131</v>
+      </c>
       <c r="B132" t="n">
         <v>401102</v>
       </c>
@@ -7449,12 +7838,16 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>In "King's Ransom" wordt de complexe relatie tussen Brianna Scott en Ahmed ben Rashid centraal gesteld, tegen de achtergrond van een onverwachte en ongewone woonsituatie. Brianna, die haar broertje moet ondersteunen, vindt zichzelf in een benarde positie wanneer ze de mysterieuze Ahmed in haar appartement verwelkomt, die zich voordoet als een buitenlandse diplomaat. De dynamiek tussen hen is geladen; terwijl Brianna zich verzet tegen Ahmeds autoritaire houding, onthult zijn koninklijke aura een dieperliggende kwetsbaarheid. De toon van het verhaal is een mix van spanning en romantiek, waarbij de lezer wordt meegenomen in de ontwikkeling van hun relatie, die begint met wantrouwen en weerstand, maar geleidelijk verandert in een zoektocht naar wederzijds begrip en liefde. De narratieve structuur speelt in op de tegenstellingen tussen sociale status en persoonlijke verlangens, en verkent thema's zoals de strijd om onafhankelijkheid en de betekenis van opoffering in relaties. De stijl van de auteur is toegankelijk en beeldend, waardoor de emoties en conflicten tussen de personages tastbaar worden, en de lezer wordt uitgenodigd om mee te voelen met hun groeiende band.</t>
+          <t>In a bustling city where the lines between privilege and necessity blur, Brianna Scott finds her life turned upside down when a mysterious stranger takes refuge in her modest apartment. Ahmed ben Rashid, a man cloaked in the allure of foreign diplomacy, arrives with an air of authority that both intrigues and frustrates her. Brianna, burdened by her responsibilities to her ailing brother, is reluctantly drawn into a world of opulence and power, yet she is resolute in her independence and unwilling to submit to the whims of this enigmatic sheikh.
+As the days unfold in their cramped quarters, the tension between them simmers beneath the surface. Brianna's fierce spirit clashes with Ahmed's regal demeanor, igniting an unexpected attraction that complicates her initial resolve. She is determined to teach him that love cannot simply be commanded, and that true partnership requires understanding and respect. 
+Amidst the backdrop of a city that never sleeps, themes of duty, sacrifice, and the quest for genuine connection emerge. Brianna's journey becomes one of self-discovery, challenging the conventions of her life and the expectations placed upon her. As she navigates her feelings for Ahmed, the stakes rise, and the question remains: can a battle-hardened bride find her own path to happiness, or will the crown weigh too heavily on her heart? The air thickens with unspoken desires and the promise of transformation, as both characters must confront their pasts to forge a future together.</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
+      <c r="A133" t="n">
+        <v>1000132</v>
+      </c>
       <c r="B133" t="n">
         <v>17826280</v>
       </c>
@@ -7503,12 +7896,16 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>"The Great Sex Olympics of 221B" is een intrigerende roman die zich afspeelt in een alternatieve wereld van Sherlock Holmes, waarin de bekende personages John Watson en Sherlock Holmes zich in een ongewone competitie bevinden. John, zelfverzekerd in zijn seksuele kennis, daagt Sherlock uit om zijn expertise te toetsen, wat leidt tot een wetenschappelijk experiment dat de dynamiek van hun vriendschap op de proef stelt. De toon van het verhaal is speels en humoristisch, met een onderliggende spanning die voortkomt uit de rivaliteit tussen de twee mannen. De schrijfstijl is levendig en toegankelijk, waardoor de lezer zich gemakkelijk kan inleven in de complexe relatie tussen de personages. Terwijl de experimenten zich ontvouwen, worden thema's zoals vriendschap, verlangen en de zoektocht naar zelfontdekking verkend. De narratieve structuur is opgebouwd rond de voortgang van het experiment, waarbij de onverwachte gevolgen van hun acties leiden tot zowel komische als ontroerende momenten. De karaktertypen zijn herkenbaar en authentiek, waarbij Sherlock's analytische geest en John's emotionele diepgang een boeiende wisselwerking creëren die de lezer uitnodigt om na te denken over de aard van liefde en intimiteit.</t>
+          <t>In a future where the boundaries of science and intimacy blur, two brilliant minds find themselves embroiled in a playful yet profound contest of expertise. Set against the backdrop of a technologically advanced yet emotionally complex society, the narrative unfolds in the iconic, fog-laden streets of London, where intellect and desire intertwine. John Watson, a skilled doctor with a pragmatic view of relationships, believes he possesses a deeper understanding of intimacy than his enigmatic counterpart, Sherlock Holmes. 
+Determined to prove his point, Sherlock devises an elaborate experiment that promises to reveal the truth behind their differing perspectives on passion and connection. As the two engage in a series of unexpected encounters, the lines between rivalry and romance begin to blur, leading to unforeseen consequences that challenge their assumptions about each other and themselves. 
+Amidst the tension of their competitive spirits, themes of vulnerability, trust, and the nature of human connection emerge, inviting readers to explore the intricacies of love in a world governed by logic and reason. The atmosphere crackles with both intellectual challenge and emotional depth, as the duo navigates the complexities of their relationship, ultimately discovering that the heart often defies the rules of science. In this captivating exploration of desire and discovery, the stakes are high, and the prize may be more than either of them anticipated.</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" t="n">
+        <v>1000133</v>
+      </c>
       <c r="B134" t="n">
         <v>17205524</v>
       </c>
@@ -7555,12 +7952,16 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>"Drown the Boy" is een aangrijpende roman die zich afspeelt in een desolaat Amerikaans landschap, waar de vijftienjarige Neil worstelt met zijn gevoelens voor een mysterieuze jongen die hij vorig jaar heeft gered uit een vijver. De aankomende Vierde van Juli, een tijd van festiviteiten en vuurwerk, contrasteert scherp met Neils innerlijke chaos en de droogte van de vijver, die symbool staat voor zijn verloren hoop en verlangen. De roman verkent thema's van liefde, verlies en de zoektocht naar identiteit, waarbij de spanning tussen verlangen en angst een centrale rol speelt. Neils karakter wordt gekarakteriseerd door zijn intense emoties en de drang om de jongen te vinden, wat leidt tot een existentiële crisis. De narratieve structuur is doordrenkt met een melancholische toon, die de lezer meeneemt in Neils onzekere reis. De stijl is poëtisch en evocatief, waardoor de lezer de desolate schoonheid van het landschap en de diepte van Neils emoties kan voelen. "Drown the Boy" biedt een indringende kijk op de complexiteit van jonge liefde en de impact van onvervulde verlangens.</t>
+          <t>In a sun-scorched American landscape, where the remnants of a once-vibrant pond lie parched and cracked, a young boy named Neil grapples with an obsession that refuses to fade. The haunting memory of the boy he rescued last fall lingers in his heart, a bittersweet echo of a connection that feels both profound and unattainable. As the Fourth of July approaches, the air thickens with anticipation, yet the absence of the boy weighs heavily on Neil, amplifying his longing and desperation.
+The desolation of the landscape mirrors Neil’s inner turmoil, as he embarks on a quest to find the one who slipped through his fingers. This journey is not merely physical; it is a deep dive into the tumultuous waters of desire, fear, and the complexities of young love. The stakes rise as Neil confronts the possibility of love intertwined with violence, a duality that threatens to consume him. 
+Themes of yearning and identity weave through the narrative, exploring the boundaries of affection and the lengths one might go to reclaim what has been lost. As Neil navigates this emotional labyrinth, the oppressive heat of the summer sun becomes a metaphor for his escalating passion and turmoil. In a world where connections can be as fleeting as the summer rain, Neil must confront his own heart—will he embrace the love that beckons from the shadows, or will the weight of his obsession drown him in despair?</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
+      <c r="A135" t="n">
+        <v>1000134</v>
+      </c>
       <c r="B135" t="n">
         <v>16040626</v>
       </c>
@@ -7608,12 +8009,16 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>"A Very Important Guest" is een romantisch verhaal dat zich afspeelt in de betoverende omgeving van Waikiki, waar de contrasten tussen luxe en de dagelijkse realiteit van het leven van de protagonist, Abby Flaherty, centraal staan. Abby, die werkt als huishoudster in een chique hotel, vindt in haar bescheiden baan een toevluchtsoord van haar zware verantwoordelijkheden en de uitdagingen die het leven haar heeft opgelegd. De toon van het verhaal is zowel melancholisch als hoopvol, waarbij Abby's innerlijke strijd tussen haar huidige situatie en haar verlangen naar een betere toekomst voelbaar is. Wanneer een belangrijke gast haar opmerkt, ontvouwt zich een delicate romance die niet alleen haar leven, maar ook haar zelfbeeld in vraag stelt. De stijl van het verhaal is rijk aan beschrijvingen van de natuurlijke schoonheid van het eiland, wat de emotionele diepgang van de personages versterkt. De narratieve structuur laat de lezer kennismaken met Abby's verleden en haar groei, terwijl thema's als verlangen, zelfontdekking en de impact van sociale klassen subtiel worden verkend. Door de combinatie van politieke ondertonen en persoonlijke realiteit, biedt het verhaal een genuanceerd beeld van liefde en de complexiteit van menselijke relaties.</t>
+          <t>In the sun-drenched paradise of Waikiki, where the gentle lapping of waves meets the soft rustle of palm leaves, Abby Flaherty finds solace in her role as a housekeeper at a luxurious hotel. This seemingly mundane job serves as her sanctuary, a refuge from the weight of responsibilities that have overshadowed her once carefree spirit. Beneath her uniform and the routine of cleaning carts lies a woman yearning for connection and understanding, a longing that has been stifled by the harsh realities of life.
+The arrival of a Very Important Guest disrupts the monotony of Abby's days, igniting a spark of intrigue and potential romance. As their paths intertwine, the guest sees beyond her exterior, revealing the vibrant woman hidden beneath layers of obligation and self-doubt. This unexpected encounter challenges Abby to confront her past and embrace the possibility of a brighter future, one filled with laughter, love, and the thrill of new beginnings.
+Set against a backdrop of pristine beaches and starlit skies, this poignant tale weaves together threads of political banter and heartfelt realism, exploring themes of identity, vulnerability, and the transformative power of love. As the allure of romance begins to illuminate Abby's life, she must navigate the delicate balance between trust and fear, ultimately discovering what it means to truly open her heart. In this enchanting short story, the promise of connection beckons, inviting readers to lose themselves in a world where love flourishes amidst the beauty of the islands.</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
+      <c r="A136" t="n">
+        <v>1000135</v>
+      </c>
       <c r="B136" t="n">
         <v>31950024</v>
       </c>
@@ -7668,12 +8073,16 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>In "The Country Alpha: Veronica's Story," het tweede deel van de Downing Cycle, wordt de lezer meegenomen in een meeslepende romantische vertelling die zich afspeelt tegen de achtergrond van verlies en herontdekking. Hoofdpersonage Jake Downing, een voormalige hockeybelofte, heeft zijn dromen opgegeven na een tragisch ongeluk en zoekt zijn toevlucht in de eenzaamheid van de bergen. Zijn leven verandert echter drastisch door een enkele tekst die hem terugbrengt naar de wereld van de schaatsen en naar de mysterieuze omega Veronica Aletta. De dynamiek tussen Jake en Veronica wordt gekenmerkt door hun complexe verleden en de druk van externe verwachtingen, vooral van Veronica's vader, die haar aanmoedigt om opnieuw te binden. De toon van het verhaal is zowel melancholisch als hoopvol, met een focus op de thema's van lot, liefde en de strijd om persoonlijke vrijheid. De narratieve structuur biedt een intrigerende blik op alternatieve realiteiten, waarbij de keuzes van de personages niet alleen hun eigen levens, maar ook hun onderlinge relaties vormgeven. De stijl is toegankelijk en emotioneel geladen, waardoor de lezer zich kan inleven in de worstelingen en triomfen van de protagonisten. "The Country Alpha: Veronica's Story" verkent de nuances van liefde en de onvoorspelbaarheid van het leven, waarbij de personages worden gedwongen om hun angsten onder ogen te zien en de kracht van hun verbinding te erkennen.</t>
+          <t>In a remote mountain retreat, alpha Jake Downing seeks solace from a world that has turned upside down following a tragic accident. With dreams of hockey stardom abandoned, he yearns for the isolation of nature, free from the constraints of societal expectations and the complexities of relationships. Yet, a single text message disrupts his carefully constructed solitude, thrusting him into a whirlwind of alternate realities that challenge his resolve and reshape his destiny.
+As Jake navigates the bustling city, he encounters omega Veronica Aletta, a woman grappling with her own tumultuous past. Known for her broken bond, she is determined to shield her heart from further pain, even as her father's insistence looms over her. The unexpected connection between Jake and Veronica ignites a passionate bond that defies their intentions, intertwining their fates in ways neither could have foreseen.
+Amidst the backdrop of emotional turmoil and societal pressures, they must confront the fragility of love and the sacrifices required to protect what they hold dear. With the specter of loss looming over them, Jake and Veronica's journey becomes a testament to the power of faith, resilience, and the serendipitous nature of love. In the end, their story unfolds in two distinct paths, each revealing the profound impact of choice and circumstance in the quest for belonging and connection.</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
+      <c r="A137" t="n">
+        <v>1000136</v>
+      </c>
       <c r="B137" t="n">
         <v>11683755</v>
       </c>
@@ -7725,12 +8134,16 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>In "Chasin' Eight," het elfde deel van de Rough Riders-serie, worden de levens van bull rider Chase McKay en Hollywood-actrice Ava Dumond met elkaar verweven in een verhaal dat draait om verlangen, zelfontdekking en de druk van de publieke opinie. Chase, die tijdelijk uit de PBR-tour is gezet, zoekt naar een manier om zijn leven weer op de rails te krijgen. Tegelijkertijd probeert Ava, die recentelijk in de schijnwerpers staat vanwege een schandaal, haar eigen identiteit te herontdekken en verlangt ze naar een authentieke connectie. De dynamiek tussen deze twee sterke karakters, elk met hun eigen demonen, creëert een spanningsveld dat zowel humor als emotionele diepgang biedt. De toon van het verhaal is speels en uitdagend, terwijl de setting van het platteland van Wyoming een rauwe, authentieke sfeer toevoegt aan hun avontuur. De narratieve structuur laat ruimte voor groei en ontwikkeling, waarbij de personages niet alleen hun gevoelens voor elkaar verkennen, maar ook hun persoonlijke barrières moeten overwinnen. Terwijl ze samen de rodeo-circuit verkennen, wordt de vraag of ze bereid zijn om hun dromen op te geven voor een kans op ware liefde steeds dringender.</t>
+          <t>In the rugged expanse of Wyoming, where the air is thick with dust and the spirit of the West lingers, two lives collide amidst the chaos of fame and personal turmoil. Chase McKay, a once-celebrated bull rider, finds himself at a crossroads, forced to confront the fallout of his reckless choices. With his career on hold and his heart guarded, he retreats to a secluded hideaway, hoping to reclaim his footing in the world of rodeo.
+Meanwhile, Ava Dumond, a Hollywood actress seeking refuge from the relentless scrutiny of the tabloids, seeks solace in the same quiet landscape. With her reputation in tatters after a public breakup, she yearns to rediscover her own desires and prove that she can ignite passion in a man who embodies the raw masculinity of the cowboy life. 
+As the two headstrong souls embark on a journey through the adrenaline-fueled rodeo circuit, their initial resolve to keep their distance begins to crumble. The chemistry between them ignites, drawing them into a whirlwind of temptation and longing that neither can resist. Yet, as their affair unfolds under the watchful eyes of the press, they must grapple with the question of whether they are ready to trade their dreams for a chance at lasting love. In a world where the spotlight can both illuminate and destroy, will they dare to chase not just the thrill of the ride, but the promise of forever?</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
+      <c r="A138" t="n">
+        <v>1000137</v>
+      </c>
       <c r="B138" t="n">
         <v>864929</v>
       </c>
@@ -7777,12 +8190,16 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>"Remembrance" is een meeslepende roman die zich afspeelt in de nasleep van de Tweede Wereldoorlog, met als hoofdpersoon Serena, de Principessa di San Tibaldo. De verwoesting van haar geliefde Italiaanse thuisland vormt de achtergrond voor haar complexe relatie met Major Brad Fullerton, een man die haar hart volledig verovert. Ondanks de beloftes van liefde en de komst van hun kind, wordt Serena geconfronteerd met de meedogenloze machtsdynamiek van de Fullerton-familie, die haar leven en geluk bedreigt. De roman verkent thema's van liefde, verraad en de strijd om identiteit in een wereld die door oorlog en sociale status wordt gedomineerd. De toon is zowel melancholisch als hoopvol, wat de innerlijke strijd van Serena benadrukt terwijl ze haar weg zoekt tussen de schaduwen van haar verleden en de glans van de modewereld in Manhattan. De narratieve structuur verweeft flashbacks met het huidige leven van Serena, waardoor de lezer inzicht krijgt in haar motieven en de obstakels die ze moet overwinnen. De stijl is rijk en beschrijvend, waardoor de lezer wordt ondergedompeld in de emotionele diepgang van de personages en de culturele contrasten tussen Europa en Amerika.</t>
+          <t>In the aftermath of World War II, the once-vibrant palazzos of Rome stand as haunting reminders of a shattered Italian heritage. Amidst this backdrop of loss and resilience, Serena, the Principessa di San Tibaldo, clings to the remnants of her noble lineage and the profound love she harbors for Major Brad Fullerton. Their passionate bond, however, is ensnared in a web of familial expectations and the ruthless ambitions of the Fullerton dynasty. 
+As Serena navigates the treacherous waters of high society, her heart is tested by the machinations of those who would see her undone, including a formidable rival determined to claim her place. The stark contrast between the war-torn elegance of her homeland and the dazzling allure of Manhattan's fashion scene amplifies the stakes of her journey. Here, amidst the glamour and glitz, Serena's spirit is both uplifted and challenged, as she grapples with the complexities of love, loyalty, and identity.
+This poignant tale unfolds as a testament to the enduring power of the heart, exploring themes of sacrifice and the bittersweet nature of triumph. With each step, Serena seeks not only to reclaim her life but to carve out a future where love can flourish against all odds, even as shadows of the past loom large. In a world where beauty and betrayal intertwine, her story becomes a vibrant exploration of resilience and the quest for belonging.</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
+      <c r="A139" t="n">
+        <v>1000138</v>
+      </c>
       <c r="B139" t="n">
         <v>18144406</v>
       </c>
@@ -7829,12 +8246,16 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>In "Fanning the Flames," het tweede deel van de serie "The Match Before Christmas," wordt de kwetsbare en soms komische reis van Barry belicht terwijl hij zijn nieuwe relatie met Adam probeert te navigeren. Barry, die weinig ervaring heeft met daten, staat voor de uitdaging om zijn vriend aan zijn familie voor te stellen, wat leidt tot een mix van spanning en humor. De roman verkent thema's van liefde, acceptatie en de druk die sociale verwachtingen met zich meebrengen, vooral rond romantische gelegenheden zoals Valentijnsdag. De toon is zowel lichtvoetig als ontroerend, waarbij de emotionele diepgang van de personages wordt benadrukt. Barry's pogingen om zijn vriend te verrassen met romantische gebaren worden bemoeilijkt door Adam's onverwachte allergieën, wat een extra laag van complicatie en humor toevoegt aan hun interacties. De narratieve structuur laat de lezer kennismaken met een scala aan ondersteunende karakters, die elk hun eigen inzichten en adviezen bieden, waardoor de dynamiek van de relatie verder wordt uitgediept. De stijl is toegankelijk en onderhoudend, waardoor het verhaal zowel herkenbaar als vermakelijk is voor lezers die geïnteresseerd zijn in hedendaagse romantiek.</t>
+          <t>In a cozy, bustling town where the spirit of the holiday season intertwines with the warmth of love, Barry finds himself navigating the delicate waters of romance for the first time. Having transitioned from daydreams to a tangible relationship, he is eager to impress his new boyfriend, Adam, as they approach the romantic crescendo of Valentine's Day. Yet, the path to romance is fraught with unexpected challenges. Barry, armed with well-intentioned plans and the enthusiastic support of family and friends, is determined to create the perfect celebration. 
+However, his aspirations are complicated by Adam’s peculiar allergies, which manifest in sneezes and welts, throwing a wrench into Barry's carefully laid plans. As Barry grapples with the nuances of coupledom, he must confront his own inexperience and the pressure to meet the romantic ideals that swirl around him. The festive atmosphere is tinged with both anticipation and anxiety, as Barry learns that love is not just about grand gestures but also about understanding and adapting to the quirks of the one you cherish.
+Amidst the laughter and chaos of family gatherings, Barry's journey unfolds as a heartfelt exploration of love's complexities, the importance of communication, and the joy found in embracing imperfections. As the holiday approaches, Barry must decide if he can truly fan the flames of their budding romance, or if the sneezes will extinguish the spark he so desperately wants to nurture.</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr"/>
+      <c r="A140" t="n">
+        <v>1000139</v>
+      </c>
       <c r="B140" t="n">
         <v>25526216</v>
       </c>
@@ -7882,12 +8303,16 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>In "Our Demons, Best Friends," het eerste deel van de "Half of Me"-serie, worden de complexe levens van Ava en Sebastian onthuld, twee jonge volwassenen die hun weg proberen te vinden te midden van onverwerkte trauma's en emotionele bagage. Ava, die haar leven lang als tweeling is opgegroeid, worstelt met de schaduw van haar overleden zus, wat haar vermogen om echte verbindingen aan te gaan bemoeilijkt. Haar verdriet is zorgvuldig verborgen, maar blijft een constante aanwezigheid in haar leven. Sebastian, aan de andere kant, heeft zijn medische carrière moeten uitstellen door een persoonlijke tragedie, waardoor hij gevangen zit in een cyclus van dagelijkse overleving zonder echte hoop op herstel. De interactie tussen deze twee personages, die elkaar aanvullen en tegelijkertijd hun demonen met zich meedragen, creëert een sfeer van zowel melancholie als hoop. De schrijfstijl is introspectief en emotioneel geladen, waardoor de lezer wordt uitgenodigd om de diepten van hun gevoelens te verkennen. Door hun groeiende vriendschap en de uitdagingen die ze samen aangaan, wordt de thematiek van liefde en verlies op een genuanceerde manier belicht, waarbij de narratieve structuur de ontwikkeling van hun relatie op een authentieke manier volgt.</t>
+          <t>In a world shadowed by unspoken grief and hidden scars, Ava and Sebastian navigate the complexities of love while wrestling with their inner demons. Ava, forever marked by the loss of her twin sister, has meticulously tucked away her pain, creating a façade of strength that belies the turmoil within. Her life is a delicate balancing act, where she strives to honor her sister’s memory while grappling with the haunting absence that lingers in every moment.
+Sebastian, burdened by his own tragedy, has learned to take life day by day, his dreams deferred by the weight of his past. As a medical resident whose ambitions have been stifled, he finds himself adrift, unaware of the vibrant possibilities that lie just beyond his reach. When Ava enters his life, she becomes a beacon of hope, illuminating the path toward healing and connection. Together, they confront the shadows that threaten to consume them, discovering that vulnerability may be the key to unlocking their true selves.
+Amidst a backdrop of emotional turmoil and the struggle for acceptance, their journey unfolds—a poignant exploration of love, loss, and the resilience of the human spirit. As they learn to embrace their scars, Ava and Sebastian must confront the question of whether their demons can coexist or if they will ultimately tear them apart. In this delicate dance between heartache and hope, they find that sometimes, the very things that haunt us can also lead to the deepest forms of connection.</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
+      <c r="A141" t="n">
+        <v>1000140</v>
+      </c>
       <c r="B141" t="n">
         <v>18682587</v>
       </c>
@@ -7936,7 +8361,9 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>"A Second Chance at Forever" is een romantische roman die de complexe dynamiek van liefde en herstel verkent. Hoofdpersonage Angela Lewis, recentelijk gescheiden en gevangen in de dagelijkse sleur van twee banen, staat voor een emotionele uitdaging wanneer haar jeugdcrush, Alex McKinley, haar tegenkomt in de nachtclub waar ze als stripper werkt onder de naam Candy Cane. De ontmoeting roept een mix van verlangen en nostalgie op, waarbij de spanning tussen hun verleden en de huidige realiteit voelbaar is. Alex, die zelf worstelt met de gevolgen van zijn eigen teleurstellingen, zoekt naar een ontsnapping in de verleidelijke wereld van Angela's alter ego. Hun eenmalige ontmoeting leidt tot onvoorziene gevolgen, waaronder een zwangerschap die hen dwingt om hun levens opnieuw te evalueren. De roman belicht thema's van zelfontdekking, verantwoordelijkheid en de mogelijkheid van een tweede kans in de liefde. De schrijfstijl is toegankelijk en emotioneel geladen, met een focus op de ontwikkeling van de personages en hun groei. De narratieve structuur weeft hun individuele verhalen samen, waardoor een diepere verbinding ontstaat tussen de karakters en hun verlangen naar een toekomst samen.</t>
+          <t>In the vibrant yet tumultuous world of a bustling nightclub, Angela Lewis navigates the complexities of her recent divorce while juggling two demanding jobs. Under the guise of her alter ego, Candy Cane, she embraces a life of fleeting fantasies, far removed from the heartache of her past. Yet, when a familiar face from her childhood reappears, the lines between her two lives blur, igniting a spark that she thought was extinguished.
+Alex McKinley, grappling with his own shattered dreams, finds solace in the allure of Candy Cane. What begins as a night of reckless abandon soon spirals into a whirlwind of emotions as he discovers the woman behind the mask is not just a stranger, but the little sister of his best friend. As their paths intertwine, the weight of their shared history complicates their burgeoning connection, forcing Alex to confront his feelings and the realities of his life.
+When Angela learns she is pregnant, the stakes rise, and the notion of responsibility intertwines with the desire for love. As Alex steps up to support her, he discovers that the woman she has become ignites a longing within him to reclaim his own life. Yet, the question lingers: can Angela embrace the possibility of a future together, or will fear hold her back from a second chance at forever? In a dance of vulnerability and hope, both must navigate the delicate balance between past wounds and the promise of new beginnings.</t>
         </is>
       </c>
     </row>
